--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B07432-251D-41D8-9726-EB89E42BA042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CDA70B-F3A6-4D85-9ACF-A18F7A61B692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable4" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J112"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A113" sqref="A113:XFD113"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" ref="F52:F112" si="4">F51*4.5</f>
+        <f t="shared" ref="F52:F116" si="4">F51*4.5</f>
         <v>1.3606816861386447E+89</v>
       </c>
       <c r="G52" s="6">
@@ -4289,9 +4289,207 @@
         <v>9000</v>
       </c>
     </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A113" s="6">
+        <v>111</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D113" s="6">
+        <v>13900</v>
+      </c>
+      <c r="E113" s="6">
+        <v>1</v>
+      </c>
+      <c r="F113" s="3">
+        <f t="shared" si="4"/>
+        <v>4.7076562684070646E+128</v>
+      </c>
+      <c r="G113" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H113" s="6">
+        <v>8</v>
+      </c>
+      <c r="I113" s="6">
+        <v>0</v>
+      </c>
+      <c r="J113" s="6">
+        <v>9060</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A114" s="6">
+        <v>112</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D114" s="6">
+        <v>14000</v>
+      </c>
+      <c r="E114" s="6">
+        <v>1</v>
+      </c>
+      <c r="F114" s="3">
+        <f t="shared" si="4"/>
+        <v>2.1184453207831791E+129</v>
+      </c>
+      <c r="G114" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H114" s="6">
+        <v>8</v>
+      </c>
+      <c r="I114" s="6">
+        <v>0</v>
+      </c>
+      <c r="J114" s="6">
+        <v>9120</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A115" s="6">
+        <v>113</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D115" s="6">
+        <v>14100</v>
+      </c>
+      <c r="E115" s="6">
+        <v>1</v>
+      </c>
+      <c r="F115" s="3">
+        <f t="shared" si="4"/>
+        <v>9.5330039435243058E+129</v>
+      </c>
+      <c r="G115" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H115" s="6">
+        <v>8</v>
+      </c>
+      <c r="I115" s="6">
+        <v>0</v>
+      </c>
+      <c r="J115" s="6">
+        <v>9180</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A116" s="6">
+        <v>114</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D116" s="6">
+        <v>14200</v>
+      </c>
+      <c r="E116" s="6">
+        <v>1</v>
+      </c>
+      <c r="F116" s="3">
+        <f t="shared" si="4"/>
+        <v>4.2898517745859375E+130</v>
+      </c>
+      <c r="G116" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H116" s="6">
+        <v>8</v>
+      </c>
+      <c r="I116" s="6">
+        <v>0</v>
+      </c>
+      <c r="J116" s="6">
+        <v>9240</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A117" s="6">
+        <v>115</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D117" s="6">
+        <v>14300</v>
+      </c>
+      <c r="E117" s="6">
+        <v>1</v>
+      </c>
+      <c r="F117" s="3">
+        <f t="shared" ref="F117:F118" si="5">F116*4.5</f>
+        <v>1.930433298563672E+131</v>
+      </c>
+      <c r="G117" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H117" s="6">
+        <v>8</v>
+      </c>
+      <c r="I117" s="6">
+        <v>0</v>
+      </c>
+      <c r="J117" s="6">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A118" s="6">
+        <v>116</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D118" s="6">
+        <v>14400</v>
+      </c>
+      <c r="E118" s="6">
+        <v>1</v>
+      </c>
+      <c r="F118" s="3">
+        <f t="shared" si="5"/>
+        <v>8.6869498435365235E+131</v>
+      </c>
+      <c r="G118" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H118" s="6">
+        <v>8</v>
+      </c>
+      <c r="I118" s="6">
+        <v>0</v>
+      </c>
+      <c r="J118" s="6">
+        <v>9360</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A4:D78 E17:E78 G17:J78 F22:F78 A79:J112">
+  <conditionalFormatting sqref="A4:D78 E17:E78 G17:J78 F22:F78 A79:J118">
     <cfRule type="expression" dxfId="3" priority="6">
       <formula>$C4=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CDA70B-F3A6-4D85-9ACF-A18F7A61B692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF33D97F-973E-4299-A8C8-6B4F4323E139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J118"/>
+  <dimension ref="A1:J125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F112" sqref="F112"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A114" sqref="A114:J125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F117" s="3">
-        <f t="shared" ref="F117:F118" si="5">F116*4.5</f>
+        <f t="shared" ref="F117:F127" si="5">F116*4.5</f>
         <v>1.930433298563672E+131</v>
       </c>
       <c r="G117" s="6">
@@ -4487,25 +4487,256 @@
         <v>9360</v>
       </c>
     </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A119" s="6">
+        <v>117</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D119" s="6">
+        <v>14500</v>
+      </c>
+      <c r="E119" s="6">
+        <v>1</v>
+      </c>
+      <c r="F119" s="3">
+        <f t="shared" si="5"/>
+        <v>3.9091274295914357E+132</v>
+      </c>
+      <c r="G119" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H119" s="6">
+        <v>8</v>
+      </c>
+      <c r="I119" s="6">
+        <v>0</v>
+      </c>
+      <c r="J119" s="6">
+        <v>9420</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A120" s="6">
+        <v>118</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D120" s="6">
+        <v>14600</v>
+      </c>
+      <c r="E120" s="6">
+        <v>1</v>
+      </c>
+      <c r="F120" s="3">
+        <f t="shared" si="5"/>
+        <v>1.759107343316146E+133</v>
+      </c>
+      <c r="G120" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H120" s="6">
+        <v>8</v>
+      </c>
+      <c r="I120" s="6">
+        <v>0</v>
+      </c>
+      <c r="J120" s="6">
+        <v>9480</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A121" s="6">
+        <v>119</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D121" s="6">
+        <v>14700</v>
+      </c>
+      <c r="E121" s="6">
+        <v>1</v>
+      </c>
+      <c r="F121" s="3">
+        <f t="shared" si="5"/>
+        <v>7.9159830449226571E+133</v>
+      </c>
+      <c r="G121" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H121" s="6">
+        <v>8</v>
+      </c>
+      <c r="I121" s="6">
+        <v>0</v>
+      </c>
+      <c r="J121" s="6">
+        <v>9540</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A122" s="6">
+        <v>120</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D122" s="6">
+        <v>14800</v>
+      </c>
+      <c r="E122" s="6">
+        <v>1</v>
+      </c>
+      <c r="F122" s="3">
+        <f t="shared" si="5"/>
+        <v>3.5621923702151958E+134</v>
+      </c>
+      <c r="G122" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H122" s="6">
+        <v>8</v>
+      </c>
+      <c r="I122" s="6">
+        <v>0</v>
+      </c>
+      <c r="J122" s="6">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A123" s="6">
+        <v>121</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D123" s="6">
+        <v>14900</v>
+      </c>
+      <c r="E123" s="6">
+        <v>1</v>
+      </c>
+      <c r="F123" s="3">
+        <f t="shared" si="5"/>
+        <v>1.6029865665968382E+135</v>
+      </c>
+      <c r="G123" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H123" s="6">
+        <v>8</v>
+      </c>
+      <c r="I123" s="6">
+        <v>0</v>
+      </c>
+      <c r="J123" s="6">
+        <v>9660</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A124" s="6">
+        <v>122</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D124" s="6">
+        <v>15000</v>
+      </c>
+      <c r="E124" s="6">
+        <v>1</v>
+      </c>
+      <c r="F124" s="3">
+        <f t="shared" si="5"/>
+        <v>7.2134395496857712E+135</v>
+      </c>
+      <c r="G124" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H124" s="6">
+        <v>8</v>
+      </c>
+      <c r="I124" s="6">
+        <v>0</v>
+      </c>
+      <c r="J124" s="6">
+        <v>9720</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A125" s="6">
+        <v>123</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D125" s="6">
+        <v>15100</v>
+      </c>
+      <c r="E125" s="6">
+        <v>1</v>
+      </c>
+      <c r="F125" s="3">
+        <f t="shared" si="5"/>
+        <v>3.2460477973585973E+136</v>
+      </c>
+      <c r="G125" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H125" s="6">
+        <v>8</v>
+      </c>
+      <c r="I125" s="6">
+        <v>0</v>
+      </c>
+      <c r="J125" s="6">
+        <v>9780</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A4:D78 E17:E78 G17:J78 F22:F78 A79:J118">
-    <cfRule type="expression" dxfId="3" priority="6">
+  <conditionalFormatting sqref="A4:D78 E17:E78 G17:J78 F22:F78 A79:J125">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>$C4=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:J3">
-    <cfRule type="expression" dxfId="2" priority="65">
+    <cfRule type="expression" dxfId="3" priority="65">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:J16">
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>$C4=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$C31=5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF33D97F-973E-4299-A8C8-6B4F4323E139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A02170B-6BAA-43A2-B60A-333E9CC46EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable4" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J125"/>
+  <dimension ref="A1:J130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A114" sqref="A114:J125"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F117" s="3">
-        <f t="shared" ref="F117:F127" si="5">F116*4.5</f>
+        <f t="shared" ref="F117:F130" si="5">F116*4.5</f>
         <v>1.930433298563672E+131</v>
       </c>
       <c r="G117" s="6">
@@ -4718,25 +4718,190 @@
         <v>9780</v>
       </c>
     </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A126" s="6">
+        <v>124</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D126" s="6">
+        <v>15200</v>
+      </c>
+      <c r="E126" s="6">
+        <v>1</v>
+      </c>
+      <c r="F126" s="3">
+        <f t="shared" si="5"/>
+        <v>1.4607215088113688E+137</v>
+      </c>
+      <c r="G126" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H126" s="6">
+        <v>8</v>
+      </c>
+      <c r="I126" s="6">
+        <v>0</v>
+      </c>
+      <c r="J126" s="6">
+        <v>9840</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A127" s="6">
+        <v>125</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D127" s="6">
+        <v>15300</v>
+      </c>
+      <c r="E127" s="6">
+        <v>1</v>
+      </c>
+      <c r="F127" s="3">
+        <f t="shared" si="5"/>
+        <v>6.5732467896511592E+137</v>
+      </c>
+      <c r="G127" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H127" s="6">
+        <v>8</v>
+      </c>
+      <c r="I127" s="6">
+        <v>0</v>
+      </c>
+      <c r="J127" s="6">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A128" s="6">
+        <v>126</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D128" s="6">
+        <v>15400</v>
+      </c>
+      <c r="E128" s="6">
+        <v>1</v>
+      </c>
+      <c r="F128" s="3">
+        <f t="shared" si="5"/>
+        <v>2.9579610553430217E+138</v>
+      </c>
+      <c r="G128" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H128" s="6">
+        <v>8</v>
+      </c>
+      <c r="I128" s="6">
+        <v>0</v>
+      </c>
+      <c r="J128" s="6">
+        <v>9960</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A129" s="6">
+        <v>127</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D129" s="6">
+        <v>15500</v>
+      </c>
+      <c r="E129" s="6">
+        <v>1</v>
+      </c>
+      <c r="F129" s="3">
+        <f t="shared" si="5"/>
+        <v>1.3310824749043598E+139</v>
+      </c>
+      <c r="G129" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H129" s="6">
+        <v>8</v>
+      </c>
+      <c r="I129" s="6">
+        <v>0</v>
+      </c>
+      <c r="J129" s="6">
+        <v>10020</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A130" s="6">
+        <v>128</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D130" s="6">
+        <v>15600</v>
+      </c>
+      <c r="E130" s="6">
+        <v>1</v>
+      </c>
+      <c r="F130" s="3">
+        <f t="shared" si="5"/>
+        <v>5.9898711370696188E+139</v>
+      </c>
+      <c r="G130" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H130" s="6">
+        <v>8</v>
+      </c>
+      <c r="I130" s="6">
+        <v>0</v>
+      </c>
+      <c r="J130" s="6">
+        <v>10080</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A4:D78 E17:E78 G17:J78 F22:F78 A79:J125">
-    <cfRule type="expression" dxfId="0" priority="6">
+  <conditionalFormatting sqref="A4:D78 E17:E78 G17:J78 F22:F78 A79:J130">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>$C4=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:J3">
-    <cfRule type="expression" dxfId="3" priority="65">
+    <cfRule type="expression" dxfId="2" priority="65">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:J16">
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>$C4=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$C31=5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A02170B-6BAA-43A2-B60A-333E9CC46EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA02F6C-9D94-45C7-9157-AECC48EF2C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable4" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J130"/>
+  <dimension ref="A1:J136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D125" sqref="D125"/>
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F117" s="3">
-        <f t="shared" ref="F117:F130" si="5">F116*4.5</f>
+        <f t="shared" ref="F117:F136" si="5">F116*4.5</f>
         <v>1.930433298563672E+131</v>
       </c>
       <c r="G117" s="6">
@@ -4883,9 +4883,207 @@
         <v>10080</v>
       </c>
     </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A131" s="6">
+        <v>129</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D131" s="6">
+        <v>15700</v>
+      </c>
+      <c r="E131" s="6">
+        <v>1</v>
+      </c>
+      <c r="F131" s="3">
+        <f t="shared" si="5"/>
+        <v>2.6954420116813284E+140</v>
+      </c>
+      <c r="G131" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H131" s="6">
+        <v>8</v>
+      </c>
+      <c r="I131" s="6">
+        <v>0</v>
+      </c>
+      <c r="J131" s="6">
+        <v>10140</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A132" s="6">
+        <v>130</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D132" s="6">
+        <v>15800</v>
+      </c>
+      <c r="E132" s="6">
+        <v>1</v>
+      </c>
+      <c r="F132" s="3">
+        <f t="shared" si="5"/>
+        <v>1.2129489052565977E+141</v>
+      </c>
+      <c r="G132" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H132" s="6">
+        <v>8</v>
+      </c>
+      <c r="I132" s="6">
+        <v>0</v>
+      </c>
+      <c r="J132" s="6">
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A133" s="6">
+        <v>131</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D133" s="6">
+        <v>15900</v>
+      </c>
+      <c r="E133" s="6">
+        <v>1</v>
+      </c>
+      <c r="F133" s="3">
+        <f t="shared" si="5"/>
+        <v>5.4582700736546899E+141</v>
+      </c>
+      <c r="G133" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H133" s="6">
+        <v>8</v>
+      </c>
+      <c r="I133" s="6">
+        <v>0</v>
+      </c>
+      <c r="J133" s="6">
+        <v>10260</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A134" s="6">
+        <v>132</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D134" s="6">
+        <v>16000</v>
+      </c>
+      <c r="E134" s="6">
+        <v>1</v>
+      </c>
+      <c r="F134" s="3">
+        <f t="shared" si="5"/>
+        <v>2.4562215331446103E+142</v>
+      </c>
+      <c r="G134" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H134" s="6">
+        <v>8</v>
+      </c>
+      <c r="I134" s="6">
+        <v>0</v>
+      </c>
+      <c r="J134" s="6">
+        <v>10320</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A135" s="6">
+        <v>133</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D135" s="6">
+        <v>16100</v>
+      </c>
+      <c r="E135" s="6">
+        <v>1</v>
+      </c>
+      <c r="F135" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1052996899150746E+143</v>
+      </c>
+      <c r="G135" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H135" s="6">
+        <v>8</v>
+      </c>
+      <c r="I135" s="6">
+        <v>0</v>
+      </c>
+      <c r="J135" s="6">
+        <v>10380</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A136" s="6">
+        <v>134</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D136" s="6">
+        <v>16200</v>
+      </c>
+      <c r="E136" s="6">
+        <v>1</v>
+      </c>
+      <c r="F136" s="3">
+        <f t="shared" si="5"/>
+        <v>4.9738486046178358E+143</v>
+      </c>
+      <c r="G136" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H136" s="6">
+        <v>8</v>
+      </c>
+      <c r="I136" s="6">
+        <v>0</v>
+      </c>
+      <c r="J136" s="6">
+        <v>10440</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A4:D78 E17:E78 G17:J78 F22:F78 A79:J130">
+  <conditionalFormatting sqref="A4:D78 E17:E78 G17:J78 F22:F78 A79:J136">
     <cfRule type="expression" dxfId="3" priority="6">
       <formula>$C4=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA02F6C-9D94-45C7-9157-AECC48EF2C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E43BF8-903A-44F2-AFDD-AB2B910B0C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable4" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,7 +197,51 @@
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -596,11 +640,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J136"/>
+  <dimension ref="A1:J142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D133" sqref="D133"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -655,10 +699,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="3">
-        <v>73</v>
+        <v>9045</v>
       </c>
       <c r="D2" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -687,10 +731,10 @@
         <v>11</v>
       </c>
       <c r="C3" s="3">
-        <v>73</v>
+        <v>9045</v>
       </c>
       <c r="D3" s="3">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -719,10 +763,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="3">
-        <v>73</v>
+        <v>9045</v>
       </c>
       <c r="D4" s="3">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -751,10 +795,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="3">
-        <v>73</v>
+        <v>9045</v>
       </c>
       <c r="D5" s="3">
-        <v>1300</v>
+        <v>100</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -783,10 +827,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="3">
-        <v>73</v>
+        <v>9045</v>
       </c>
       <c r="D6" s="3">
-        <v>1400</v>
+        <v>100</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -815,10 +859,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="3">
-        <v>73</v>
+        <v>9045</v>
       </c>
       <c r="D7" s="3">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -847,10 +891,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="3">
-        <v>73</v>
+        <v>9045</v>
       </c>
       <c r="D8" s="3">
-        <v>1600</v>
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -879,10 +923,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="3">
-        <v>73</v>
+        <v>9045</v>
       </c>
       <c r="D9" s="3">
-        <v>1700</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -911,10 +955,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="3">
-        <v>73</v>
+        <v>9045</v>
       </c>
       <c r="D10" s="3">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -943,10 +987,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="3">
-        <v>73</v>
+        <v>9045</v>
       </c>
       <c r="D11" s="3">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -974,11 +1018,11 @@
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12">
-        <v>88</v>
+      <c r="C12" s="3">
+        <v>9045</v>
       </c>
       <c r="D12" s="3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1006,11 +1050,11 @@
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13">
-        <v>88</v>
+      <c r="C13" s="3">
+        <v>9045</v>
       </c>
       <c r="D13" s="3">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1038,11 +1082,11 @@
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14">
-        <v>88</v>
+      <c r="C14" s="3">
+        <v>9045</v>
       </c>
       <c r="D14" s="3">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1070,11 +1114,11 @@
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15">
-        <v>88</v>
+      <c r="C15" s="3">
+        <v>9045</v>
       </c>
       <c r="D15" s="3">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1102,11 +1146,11 @@
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C16">
-        <v>88</v>
+      <c r="C16" s="3">
+        <v>9045</v>
       </c>
       <c r="D16" s="3">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1134,11 +1178,11 @@
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C17">
-        <v>88</v>
+      <c r="C17" s="3">
+        <v>9045</v>
       </c>
       <c r="D17" s="3">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1166,11 +1210,11 @@
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C18">
-        <v>88</v>
+      <c r="C18" s="3">
+        <v>9045</v>
       </c>
       <c r="D18" s="3">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1198,11 +1242,11 @@
       <c r="B19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C19">
-        <v>88</v>
+      <c r="C19" s="3">
+        <v>9045</v>
       </c>
       <c r="D19" s="3">
-        <v>1700</v>
+        <v>500</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1230,11 +1274,11 @@
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C20">
-        <v>88</v>
+      <c r="C20" s="3">
+        <v>9045</v>
       </c>
       <c r="D20" s="3">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1262,11 +1306,11 @@
       <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C21">
-        <v>88</v>
+      <c r="C21" s="3">
+        <v>9045</v>
       </c>
       <c r="D21" s="3">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1295,9 +1339,10 @@
         <v>11</v>
       </c>
       <c r="C22" s="3">
-        <v>9001</v>
+        <v>9045</v>
       </c>
       <c r="D22" s="3">
+        <f>D12+500</f>
         <v>1000</v>
       </c>
       <c r="E22" s="3">
@@ -1327,10 +1372,11 @@
         <v>12</v>
       </c>
       <c r="C23" s="3">
-        <v>9001</v>
+        <v>9045</v>
       </c>
       <c r="D23" s="3">
-        <v>1100</v>
+        <f t="shared" ref="D23:D86" si="0">D13+500</f>
+        <v>1000</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
@@ -1360,16 +1406,17 @@
         <v>11</v>
       </c>
       <c r="C24" s="3">
-        <v>9001</v>
+        <v>9045</v>
       </c>
       <c r="D24" s="3">
-        <v>1200</v>
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" ref="F24:F37" si="0">F23*4</f>
+        <f t="shared" ref="F24:F37" si="1">F23*4</f>
         <v>5.1689107738996417E+71</v>
       </c>
       <c r="G24" s="3">
@@ -1393,16 +1440,17 @@
         <v>12</v>
       </c>
       <c r="C25" s="3">
-        <v>9001</v>
+        <v>9045</v>
       </c>
       <c r="D25" s="3">
-        <v>1300</v>
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0675643095598567E+72</v>
       </c>
       <c r="G25" s="3">
@@ -1426,16 +1474,17 @@
         <v>12</v>
       </c>
       <c r="C26" s="3">
-        <v>9001</v>
+        <v>9045</v>
       </c>
       <c r="D26" s="3">
-        <v>1400</v>
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.2702572382394267E+72</v>
       </c>
       <c r="G26" s="3">
@@ -1459,16 +1508,17 @@
         <v>12</v>
       </c>
       <c r="C27" s="3">
-        <v>9001</v>
+        <v>9045</v>
       </c>
       <c r="D27" s="3">
-        <v>1500</v>
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3081028952957707E+73</v>
       </c>
       <c r="G27" s="3">
@@ -1492,16 +1542,17 @@
         <v>11</v>
       </c>
       <c r="C28" s="3">
-        <v>9001</v>
+        <v>9045</v>
       </c>
       <c r="D28" s="3">
-        <v>1600</v>
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3232411581183083E+74</v>
       </c>
       <c r="G28" s="3">
@@ -1524,17 +1575,18 @@
       <c r="B29" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D29" s="6">
-        <v>1700</v>
+      <c r="C29" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
       <c r="E29" s="6">
         <v>1</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.2929646324732331E+74</v>
       </c>
       <c r="G29" s="6">
@@ -1557,17 +1609,18 @@
       <c r="B30" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D30" s="6">
-        <v>1800</v>
+      <c r="C30" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
       <c r="E30" s="6">
         <v>1</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1171858529892932E+75</v>
       </c>
       <c r="G30" s="6">
@@ -1590,17 +1643,18 @@
       <c r="B31" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D31" s="6">
-        <v>1900</v>
+      <c r="C31" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
       <c r="E31" s="6">
         <v>1</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.468743411957173E+75</v>
       </c>
       <c r="G31" s="6">
@@ -1623,17 +1677,18 @@
       <c r="B32" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D32" s="6">
-        <v>2000</v>
+      <c r="C32" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="0"/>
+        <v>1500</v>
       </c>
       <c r="E32" s="6">
         <v>1</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3874973647828692E+76</v>
       </c>
       <c r="G32" s="6">
@@ -1656,17 +1711,18 @@
       <c r="B33" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D33" s="6">
-        <v>2100</v>
+      <c r="C33" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="0"/>
+        <v>1500</v>
       </c>
       <c r="E33" s="6">
         <v>1</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3549989459131477E+77</v>
       </c>
       <c r="G33" s="6">
@@ -1689,17 +1745,18 @@
       <c r="B34" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D34" s="6">
-        <v>2200</v>
+      <c r="C34" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="0"/>
+        <v>1500</v>
       </c>
       <c r="E34" s="6">
         <v>1</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.4199957836525907E+77</v>
       </c>
       <c r="G34" s="6">
@@ -1722,17 +1779,18 @@
       <c r="B35" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D35" s="6">
-        <v>2300</v>
+      <c r="C35" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="0"/>
+        <v>1500</v>
       </c>
       <c r="E35" s="6">
         <v>1</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1679983134610363E+78</v>
       </c>
       <c r="G35" s="6">
@@ -1755,17 +1813,18 @@
       <c r="B36" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D36" s="6">
-        <v>2400</v>
+      <c r="C36" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" si="0"/>
+        <v>1500</v>
       </c>
       <c r="E36" s="6">
         <v>1</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.6719932538441451E+78</v>
       </c>
       <c r="G36" s="6">
@@ -1788,17 +1847,18 @@
       <c r="B37" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D37" s="6">
-        <v>2500</v>
+      <c r="C37" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="0"/>
+        <v>1500</v>
       </c>
       <c r="E37" s="6">
         <v>1</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.468797301537658E+79</v>
       </c>
       <c r="G37" s="6">
@@ -1821,11 +1881,12 @@
       <c r="B38" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D38" s="6">
-        <v>2500</v>
+      <c r="C38" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" si="0"/>
+        <v>1500</v>
       </c>
       <c r="E38" s="6">
         <v>1</v>
@@ -1854,17 +1915,18 @@
       <c r="B39" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D39" s="6">
-        <v>2500</v>
+      <c r="C39" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="0"/>
+        <v>1500</v>
       </c>
       <c r="E39" s="6">
         <v>1</v>
       </c>
       <c r="F39" s="3">
-        <f t="shared" ref="F39:F42" si="1">F38*4.5</f>
+        <f t="shared" ref="F39:F42" si="2">F38*4.5</f>
         <v>7.024314535613757E+80</v>
       </c>
       <c r="G39" s="6">
@@ -1887,17 +1949,18 @@
       <c r="B40" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D40" s="6">
-        <v>2500</v>
+      <c r="C40" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="0"/>
+        <v>1500</v>
       </c>
       <c r="E40" s="6">
         <v>1</v>
       </c>
       <c r="F40" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1609415410261905E+81</v>
       </c>
       <c r="G40" s="6">
@@ -1920,17 +1983,18 @@
       <c r="B41" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D41" s="6">
-        <v>2500</v>
+      <c r="C41" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" si="0"/>
+        <v>1500</v>
       </c>
       <c r="E41" s="6">
         <v>1</v>
       </c>
       <c r="F41" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4224236934617858E+82</v>
       </c>
       <c r="G41" s="6">
@@ -1953,17 +2017,18 @@
       <c r="B42" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D42" s="6">
-        <v>2500</v>
+      <c r="C42" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" si="0"/>
+        <v>2000</v>
       </c>
       <c r="E42" s="6">
         <v>1</v>
       </c>
       <c r="F42" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.4009066205780366E+82</v>
       </c>
       <c r="G42" s="6">
@@ -1986,17 +2051,18 @@
       <c r="B43" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D43" s="6">
-        <v>2528.5714285714298</v>
+      <c r="C43" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" si="0"/>
+        <v>2000</v>
       </c>
       <c r="E43" s="6">
         <v>1</v>
       </c>
       <c r="F43" s="3">
-        <f t="shared" ref="F43:F63" si="2">F42*4</f>
+        <f t="shared" ref="F43:F63" si="3">F42*4</f>
         <v>2.5603626482312146E+83</v>
       </c>
       <c r="G43" s="6">
@@ -2019,17 +2085,18 @@
       <c r="B44" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D44" s="6">
-        <v>2539.2857142857101</v>
+      <c r="C44" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" si="0"/>
+        <v>2000</v>
       </c>
       <c r="E44" s="6">
         <v>1</v>
       </c>
       <c r="F44" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0241450592924859E+84</v>
       </c>
       <c r="G44" s="6">
@@ -2052,17 +2119,18 @@
       <c r="B45" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D45" s="6">
-        <v>2550</v>
+      <c r="C45" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" si="0"/>
+        <v>2000</v>
       </c>
       <c r="E45" s="6">
         <v>1</v>
       </c>
       <c r="F45" s="3">
-        <f t="shared" ref="F45:F49" si="3">F44*4.5</f>
+        <f t="shared" ref="F45:F49" si="4">F44*4.5</f>
         <v>4.6086527668161861E+84</v>
       </c>
       <c r="G45" s="6">
@@ -2085,17 +2153,18 @@
       <c r="B46" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D46" s="6">
-        <v>2560.7142857142899</v>
+      <c r="C46" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D46" s="3">
+        <f t="shared" si="0"/>
+        <v>2000</v>
       </c>
       <c r="E46" s="6">
         <v>1</v>
       </c>
       <c r="F46" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0738937450672838E+85</v>
       </c>
       <c r="G46" s="6">
@@ -2118,17 +2187,18 @@
       <c r="B47" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D47" s="6">
-        <v>2571.4285714285702</v>
+      <c r="C47" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D47" s="3">
+        <f t="shared" si="0"/>
+        <v>2000</v>
       </c>
       <c r="E47" s="6">
         <v>1</v>
       </c>
       <c r="F47" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.3325218528027768E+85</v>
       </c>
       <c r="G47" s="6">
@@ -2151,17 +2221,18 @@
       <c r="B48" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D48" s="6">
-        <v>2582.1428571428601</v>
+      <c r="C48" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D48" s="3">
+        <f t="shared" si="0"/>
+        <v>2000</v>
       </c>
       <c r="E48" s="6">
         <v>1</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.1996348337612495E+86</v>
       </c>
       <c r="G48" s="6">
@@ -2184,17 +2255,18 @@
       <c r="B49" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D49" s="6">
-        <v>2592.8571428571399</v>
+      <c r="C49" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D49" s="3">
+        <f t="shared" si="0"/>
+        <v>2000</v>
       </c>
       <c r="E49" s="6">
         <v>1</v>
       </c>
       <c r="F49" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8898356751925622E+87</v>
       </c>
       <c r="G49" s="6">
@@ -2217,17 +2289,18 @@
       <c r="B50" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D50" s="6">
-        <v>2603.5714285714298</v>
+      <c r="C50" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D50" s="3">
+        <f t="shared" si="0"/>
+        <v>2000</v>
       </c>
       <c r="E50" s="6">
         <v>1</v>
       </c>
       <c r="F50" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.5593427007702489E+87</v>
       </c>
       <c r="G50" s="6">
@@ -2250,17 +2323,18 @@
       <c r="B51" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D51" s="6">
-        <v>2614.2857142857101</v>
+      <c r="C51" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D51" s="3">
+        <f t="shared" si="0"/>
+        <v>2000</v>
       </c>
       <c r="E51" s="6">
         <v>1</v>
       </c>
       <c r="F51" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0237370803080996E+88</v>
       </c>
       <c r="G51" s="6">
@@ -2283,17 +2357,18 @@
       <c r="B52" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D52" s="6">
-        <v>2625</v>
+      <c r="C52" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D52" s="3">
+        <f t="shared" si="0"/>
+        <v>2500</v>
       </c>
       <c r="E52" s="6">
         <v>1</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" ref="F52:F116" si="4">F51*4.5</f>
+        <f t="shared" ref="F52:F116" si="5">F51*4.5</f>
         <v>1.3606816861386447E+89</v>
       </c>
       <c r="G52" s="6">
@@ -2316,17 +2391,18 @@
       <c r="B53" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D53" s="6">
-        <v>2635</v>
+      <c r="C53" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D53" s="3">
+        <f t="shared" si="0"/>
+        <v>2500</v>
       </c>
       <c r="E53" s="6">
         <v>1</v>
       </c>
       <c r="F53" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.442726744554579E+89</v>
       </c>
       <c r="G53" s="6">
@@ -2349,17 +2425,18 @@
       <c r="B54" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D54" s="6">
-        <v>2645</v>
+      <c r="C54" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D54" s="3">
+        <f t="shared" si="0"/>
+        <v>2500</v>
       </c>
       <c r="E54" s="6">
         <v>1</v>
       </c>
       <c r="F54" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.4492270350495606E+90</v>
       </c>
       <c r="G54" s="6">
@@ -2382,17 +2459,18 @@
       <c r="B55" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D55" s="6">
-        <v>2655</v>
+      <c r="C55" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D55" s="3">
+        <f t="shared" si="0"/>
+        <v>2500</v>
       </c>
       <c r="E55" s="6">
         <v>1</v>
       </c>
       <c r="F55" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.7969081401982426E+90</v>
       </c>
       <c r="G55" s="6">
@@ -2415,17 +2493,18 @@
       <c r="B56" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D56" s="6">
-        <v>2665</v>
+      <c r="C56" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D56" s="3">
+        <f t="shared" si="0"/>
+        <v>2500</v>
       </c>
       <c r="E56" s="6">
         <v>1</v>
       </c>
       <c r="F56" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.4086086630892093E+91</v>
       </c>
       <c r="G56" s="6">
@@ -2448,17 +2527,18 @@
       <c r="B57" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D57" s="6">
-        <v>2675</v>
+      <c r="C57" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D57" s="3">
+        <f t="shared" si="0"/>
+        <v>2500</v>
       </c>
       <c r="E57" s="6">
         <v>1</v>
       </c>
       <c r="F57" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7634434652356837E+92</v>
       </c>
       <c r="G57" s="6">
@@ -2481,17 +2561,18 @@
       <c r="B58" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D58" s="6">
-        <v>2685</v>
+      <c r="C58" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D58" s="3">
+        <f t="shared" si="0"/>
+        <v>2500</v>
       </c>
       <c r="E58" s="6">
         <v>1</v>
       </c>
       <c r="F58" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.9354955935605769E+92</v>
       </c>
       <c r="G58" s="6">
@@ -2514,17 +2595,18 @@
       <c r="B59" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D59" s="6">
-        <v>2695</v>
+      <c r="C59" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D59" s="3">
+        <f t="shared" si="0"/>
+        <v>2500</v>
       </c>
       <c r="E59" s="6">
         <v>1</v>
       </c>
       <c r="F59" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.1741982374242308E+93</v>
       </c>
       <c r="G59" s="6">
@@ -2547,17 +2629,18 @@
       <c r="B60" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D60" s="6">
-        <v>2705</v>
+      <c r="C60" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D60" s="3">
+        <f t="shared" si="0"/>
+        <v>2500</v>
       </c>
       <c r="E60" s="6">
         <v>1</v>
       </c>
       <c r="F60" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4283892068409039E+94</v>
       </c>
       <c r="G60" s="6">
@@ -2580,17 +2663,18 @@
       <c r="B61" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D61" s="6">
-        <v>2715</v>
+      <c r="C61" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D61" s="3">
+        <f t="shared" si="0"/>
+        <v>2500</v>
       </c>
       <c r="E61" s="6">
         <v>1</v>
       </c>
       <c r="F61" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.7135568273636156E+94</v>
       </c>
       <c r="G61" s="6">
@@ -2613,17 +2697,18 @@
       <c r="B62" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D62" s="6">
-        <v>2725</v>
+      <c r="C62" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D62" s="3">
+        <f t="shared" si="0"/>
+        <v>3000</v>
       </c>
       <c r="E62" s="6">
         <v>1</v>
       </c>
       <c r="F62" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5711005723136271E+95</v>
       </c>
       <c r="G62" s="6">
@@ -2646,17 +2731,18 @@
       <c r="B63" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C63" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D63" s="6">
-        <v>2735</v>
+      <c r="C63" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D63" s="3">
+        <f t="shared" si="0"/>
+        <v>3000</v>
       </c>
       <c r="E63" s="6">
         <v>1</v>
       </c>
       <c r="F63" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0284402289254508E+96</v>
       </c>
       <c r="G63" s="6">
@@ -2679,17 +2765,18 @@
       <c r="B64" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D64" s="6">
-        <v>2745</v>
+      <c r="C64" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D64" s="3">
+        <f t="shared" si="0"/>
+        <v>3000</v>
       </c>
       <c r="E64" s="6">
         <v>1</v>
       </c>
       <c r="F64" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.6279810301645285E+96</v>
       </c>
       <c r="G64" s="6">
@@ -2712,17 +2799,18 @@
       <c r="B65" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D65" s="6">
-        <v>2755</v>
+      <c r="C65" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D65" s="3">
+        <f t="shared" si="0"/>
+        <v>3000</v>
       </c>
       <c r="E65" s="6">
         <v>1</v>
       </c>
       <c r="F65" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0825914635740379E+97</v>
       </c>
       <c r="G65" s="6">
@@ -2745,17 +2833,18 @@
       <c r="B66" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D66" s="6">
-        <v>2765</v>
+      <c r="C66" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D66" s="3">
+        <f t="shared" si="0"/>
+        <v>3000</v>
       </c>
       <c r="E66" s="6">
         <v>1</v>
       </c>
       <c r="F66" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.3716615860831713E+97</v>
       </c>
       <c r="G66" s="6">
@@ -2778,17 +2867,18 @@
       <c r="B67" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C67" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D67" s="6">
-        <v>2775</v>
+      <c r="C67" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D67" s="3">
+        <f t="shared" si="0"/>
+        <v>3000</v>
       </c>
       <c r="E67" s="6">
         <v>1</v>
       </c>
       <c r="F67" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.2172477137374273E+98</v>
       </c>
       <c r="G67" s="6">
@@ -2811,17 +2901,18 @@
       <c r="B68" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D68" s="6">
-        <v>2785</v>
+      <c r="C68" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D68" s="3">
+        <f t="shared" si="0"/>
+        <v>3000</v>
       </c>
       <c r="E68" s="6">
         <v>1</v>
       </c>
       <c r="F68" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8977614711818424E+99</v>
       </c>
       <c r="G68" s="6">
@@ -2844,17 +2935,18 @@
       <c r="B69" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C69" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D69" s="6">
-        <v>2795</v>
+      <c r="C69" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D69" s="3">
+        <f t="shared" si="0"/>
+        <v>3000</v>
       </c>
       <c r="E69" s="6">
         <v>1</v>
       </c>
       <c r="F69" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.5399266203182904E+99</v>
       </c>
       <c r="G69" s="6">
@@ -2877,17 +2969,18 @@
       <c r="B70" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C70" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D70" s="6">
-        <v>2805</v>
+      <c r="C70" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D70" s="3">
+        <f t="shared" si="0"/>
+        <v>3000</v>
       </c>
       <c r="E70" s="6">
         <v>1</v>
       </c>
       <c r="F70" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.8429669791432304E+100</v>
       </c>
       <c r="G70" s="6">
@@ -2910,17 +3003,18 @@
       <c r="B71" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C71" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D71" s="6">
-        <v>2815</v>
+      <c r="C71" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D71" s="3">
+        <f t="shared" si="0"/>
+        <v>3000</v>
       </c>
       <c r="E71" s="6">
         <v>1</v>
       </c>
       <c r="F71" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7293351406144538E+101</v>
       </c>
       <c r="G71" s="6">
@@ -2943,17 +3037,18 @@
       <c r="B72" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C72" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D72" s="6">
-        <v>2825</v>
+      <c r="C72" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D72" s="3">
+        <f t="shared" si="0"/>
+        <v>3500</v>
       </c>
       <c r="E72" s="6">
         <v>1</v>
       </c>
       <c r="F72" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.7820081327650429E+101</v>
       </c>
       <c r="G72" s="6">
@@ -2976,17 +3071,18 @@
       <c r="B73" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C73" s="6">
-        <v>9001</v>
-      </c>
-      <c r="D73" s="6">
-        <v>2835</v>
+      <c r="C73" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D73" s="3">
+        <f t="shared" si="0"/>
+        <v>3500</v>
       </c>
       <c r="E73" s="6">
         <v>1</v>
       </c>
       <c r="F73" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.5019036597442693E+102</v>
       </c>
       <c r="G73" s="6">
@@ -3009,17 +3105,18 @@
       <c r="B74" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C74" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D74" s="6">
-        <v>10000</v>
+      <c r="C74" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D74" s="3">
+        <f t="shared" si="0"/>
+        <v>3500</v>
       </c>
       <c r="E74" s="6">
         <v>1</v>
       </c>
       <c r="F74" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5758566468849213E+103</v>
       </c>
       <c r="G74" s="6">
@@ -3042,17 +3139,18 @@
       <c r="B75" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C75" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D75" s="6">
-        <v>10100</v>
+      <c r="C75" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D75" s="3">
+        <f t="shared" si="0"/>
+        <v>3500</v>
       </c>
       <c r="E75" s="6">
         <v>1</v>
       </c>
       <c r="F75" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.0913549109821452E+103</v>
       </c>
       <c r="G75" s="6">
@@ -3075,17 +3173,18 @@
       <c r="B76" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C76" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D76" s="6">
-        <v>10200</v>
+      <c r="C76" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D76" s="3">
+        <f t="shared" si="0"/>
+        <v>3500</v>
       </c>
       <c r="E76" s="6">
         <v>1</v>
       </c>
       <c r="F76" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1911097099419652E+104</v>
       </c>
       <c r="G76" s="6">
@@ -3108,17 +3207,18 @@
       <c r="B77" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C77" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D77" s="6">
-        <v>10300</v>
+      <c r="C77" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D77" s="3">
+        <f t="shared" si="0"/>
+        <v>3500</v>
       </c>
       <c r="E77" s="6">
         <v>1</v>
       </c>
       <c r="F77" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4359993694738843E+105</v>
       </c>
       <c r="G77" s="6">
@@ -3141,17 +3241,18 @@
       <c r="B78" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C78" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D78" s="6">
-        <v>10400</v>
+      <c r="C78" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D78" s="3">
+        <f t="shared" si="0"/>
+        <v>3500</v>
       </c>
       <c r="E78" s="6">
         <v>1</v>
       </c>
       <c r="F78" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.4619971626324794E+105</v>
       </c>
       <c r="G78" s="6">
@@ -3174,17 +3275,18 @@
       <c r="B79" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C79" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D79" s="6">
-        <v>10500</v>
+      <c r="C79" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D79" s="3">
+        <f t="shared" si="0"/>
+        <v>3500</v>
       </c>
       <c r="E79" s="6">
         <v>1</v>
       </c>
       <c r="F79" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.9078987231846158E+106</v>
       </c>
       <c r="G79" s="6">
@@ -3207,17 +3309,18 @@
       <c r="B80" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C80" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D80" s="6">
-        <v>10600</v>
+      <c r="C80" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D80" s="3">
+        <f t="shared" si="0"/>
+        <v>3500</v>
       </c>
       <c r="E80" s="6">
         <v>1</v>
       </c>
       <c r="F80" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3085544254330771E+107</v>
       </c>
       <c r="G80" s="6">
@@ -3240,17 +3343,18 @@
       <c r="B81" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C81" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D81" s="6">
-        <v>10700</v>
+      <c r="C81" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D81" s="3">
+        <f t="shared" si="0"/>
+        <v>3500</v>
       </c>
       <c r="E81" s="6">
         <v>1</v>
       </c>
       <c r="F81" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.8884949144488472E+107</v>
       </c>
       <c r="G81" s="6">
@@ -3273,17 +3377,18 @@
       <c r="B82" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C82" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D82" s="6">
-        <v>10800</v>
+      <c r="C82" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D82" s="3">
+        <f t="shared" si="0"/>
+        <v>4000</v>
       </c>
       <c r="E82" s="6">
         <v>1</v>
       </c>
       <c r="F82" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6498227115019814E+108</v>
       </c>
       <c r="G82" s="6">
@@ -3306,17 +3411,18 @@
       <c r="B83" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C83" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D83" s="6">
-        <v>10900</v>
+      <c r="C83" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D83" s="3">
+        <f t="shared" si="0"/>
+        <v>4000</v>
       </c>
       <c r="E83" s="6">
         <v>1</v>
       </c>
       <c r="F83" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1924202201758916E+109</v>
       </c>
       <c r="G83" s="6">
@@ -3339,17 +3445,18 @@
       <c r="B84" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C84" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D84" s="6">
-        <v>11000</v>
+      <c r="C84" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D84" s="3">
+        <f t="shared" si="0"/>
+        <v>4000</v>
       </c>
       <c r="E84" s="6">
         <v>1</v>
       </c>
       <c r="F84" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.3658909907915123E+109</v>
       </c>
       <c r="G84" s="6">
@@ -3372,17 +3479,18 @@
       <c r="B85" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C85" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D85" s="6">
-        <v>11100</v>
+      <c r="C85" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D85" s="3">
+        <f t="shared" si="0"/>
+        <v>4000</v>
       </c>
       <c r="E85" s="6">
         <v>1</v>
       </c>
       <c r="F85" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.4146509458561804E+110</v>
       </c>
       <c r="G85" s="6">
@@ -3405,17 +3513,18 @@
       <c r="B86" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C86" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D86" s="6">
-        <v>11200</v>
+      <c r="C86" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D86" s="3">
+        <f t="shared" si="0"/>
+        <v>4000</v>
       </c>
       <c r="E86" s="6">
         <v>1</v>
       </c>
       <c r="F86" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0865929256352811E+111</v>
       </c>
       <c r="G86" s="6">
@@ -3438,17 +3547,18 @@
       <c r="B87" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C87" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D87" s="6">
-        <v>11300</v>
+      <c r="C87" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D87" s="3">
+        <f t="shared" ref="D87:D143" si="6">D77+500</f>
+        <v>4000</v>
       </c>
       <c r="E87" s="6">
         <v>1</v>
       </c>
       <c r="F87" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.8896681653587645E+111</v>
       </c>
       <c r="G87" s="6">
@@ -3471,17 +3581,18 @@
       <c r="B88" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C88" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D88" s="6">
-        <v>11400</v>
+      <c r="C88" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D88" s="3">
+        <f t="shared" si="6"/>
+        <v>4000</v>
       </c>
       <c r="E88" s="6">
         <v>1</v>
       </c>
       <c r="F88" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2003506744114441E+112</v>
       </c>
       <c r="G88" s="6">
@@ -3504,17 +3615,18 @@
       <c r="B89" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C89" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D89" s="6">
-        <v>11500</v>
+      <c r="C89" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D89" s="3">
+        <f t="shared" si="6"/>
+        <v>4000</v>
       </c>
       <c r="E89" s="6">
         <v>1</v>
       </c>
       <c r="F89" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.9015780348514985E+112</v>
       </c>
       <c r="G89" s="6">
@@ -3537,17 +3649,18 @@
       <c r="B90" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C90" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D90" s="6">
-        <v>11600</v>
+      <c r="C90" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D90" s="3">
+        <f t="shared" si="6"/>
+        <v>4000</v>
       </c>
       <c r="E90" s="6">
         <v>1</v>
       </c>
       <c r="F90" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.455710115683174E+113</v>
       </c>
       <c r="G90" s="6">
@@ -3570,17 +3683,18 @@
       <c r="B91" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C91" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D91" s="6">
-        <v>11700</v>
+      <c r="C91" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D91" s="3">
+        <f t="shared" si="6"/>
+        <v>4000</v>
       </c>
       <c r="E91" s="6">
         <v>1</v>
       </c>
       <c r="F91" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0050695520574284E+114</v>
       </c>
       <c r="G91" s="6">
@@ -3603,17 +3717,18 @@
       <c r="B92" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C92" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D92" s="6">
-        <v>11800</v>
+      <c r="C92" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D92" s="3">
+        <f t="shared" si="6"/>
+        <v>4500</v>
       </c>
       <c r="E92" s="6">
         <v>1</v>
       </c>
       <c r="F92" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.0228129842584277E+114</v>
       </c>
       <c r="G92" s="6">
@@ -3636,17 +3751,18 @@
       <c r="B93" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C93" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D93" s="6">
-        <v>11900</v>
+      <c r="C93" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D93" s="3">
+        <f t="shared" si="6"/>
+        <v>4500</v>
       </c>
       <c r="E93" s="6">
         <v>1</v>
       </c>
       <c r="F93" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.0602658429162921E+115</v>
       </c>
       <c r="G93" s="6">
@@ -3669,17 +3785,18 @@
       <c r="B94" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C94" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D94" s="6">
-        <v>12000</v>
+      <c r="C94" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D94" s="3">
+        <f t="shared" si="6"/>
+        <v>4500</v>
       </c>
       <c r="E94" s="6">
         <v>1</v>
       </c>
       <c r="F94" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8271196293123316E+116</v>
       </c>
       <c r="G94" s="6">
@@ -3702,17 +3819,18 @@
       <c r="B95" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C95" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D95" s="6">
-        <v>12100</v>
+      <c r="C95" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D95" s="3">
+        <f t="shared" si="6"/>
+        <v>4500</v>
       </c>
       <c r="E95" s="6">
         <v>1</v>
       </c>
       <c r="F95" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.2220383319054923E+116</v>
       </c>
       <c r="G95" s="6">
@@ -3735,17 +3853,18 @@
       <c r="B96" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C96" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D96" s="6">
-        <v>12200</v>
+      <c r="C96" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D96" s="3">
+        <f t="shared" si="6"/>
+        <v>4500</v>
       </c>
       <c r="E96" s="6">
         <v>1</v>
       </c>
       <c r="F96" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.6999172493574715E+117</v>
       </c>
       <c r="G96" s="6">
@@ -3768,17 +3887,18 @@
       <c r="B97" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C97" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D97" s="6">
-        <v>12300</v>
+      <c r="C97" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D97" s="3">
+        <f t="shared" si="6"/>
+        <v>4500</v>
       </c>
       <c r="E97" s="6">
         <v>1</v>
       </c>
       <c r="F97" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6649627622108623E+118</v>
       </c>
       <c r="G97" s="6">
@@ -3801,17 +3921,18 @@
       <c r="B98" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C98" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D98" s="6">
-        <v>12400</v>
+      <c r="C98" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D98" s="3">
+        <f t="shared" si="6"/>
+        <v>4500</v>
       </c>
       <c r="E98" s="6">
         <v>1</v>
       </c>
       <c r="F98" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.4923324299488801E+118</v>
       </c>
       <c r="G98" s="6">
@@ -3834,17 +3955,18 @@
       <c r="B99" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C99" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D99" s="6">
-        <v>12500</v>
+      <c r="C99" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D99" s="3">
+        <f t="shared" si="6"/>
+        <v>4500</v>
       </c>
       <c r="E99" s="6">
         <v>1</v>
       </c>
       <c r="F99" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3715495934769961E+119</v>
       </c>
       <c r="G99" s="6">
@@ -3867,17 +3989,18 @@
       <c r="B100" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C100" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D100" s="6">
-        <v>12600</v>
+      <c r="C100" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D100" s="3">
+        <f t="shared" si="6"/>
+        <v>4500</v>
       </c>
       <c r="E100" s="6">
         <v>1</v>
       </c>
       <c r="F100" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5171973170646482E+120</v>
       </c>
       <c r="G100" s="6">
@@ -3900,17 +4023,18 @@
       <c r="B101" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C101" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D101" s="6">
-        <v>12700</v>
+      <c r="C101" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D101" s="3">
+        <f t="shared" si="6"/>
+        <v>4500</v>
       </c>
       <c r="E101" s="6">
         <v>1</v>
       </c>
       <c r="F101" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.8273879267909167E+120</v>
       </c>
       <c r="G101" s="6">
@@ -3933,17 +4057,18 @@
       <c r="B102" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C102" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D102" s="6">
-        <v>12800</v>
+      <c r="C102" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D102" s="3">
+        <f t="shared" si="6"/>
+        <v>5000</v>
       </c>
       <c r="E102" s="6">
         <v>1</v>
       </c>
       <c r="F102" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.0723245670559125E+121</v>
       </c>
       <c r="G102" s="6">
@@ -3966,17 +4091,18 @@
       <c r="B103" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C103" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D103" s="6">
-        <v>12900</v>
+      <c r="C103" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D103" s="3">
+        <f t="shared" si="6"/>
+        <v>5000</v>
       </c>
       <c r="E103" s="6">
         <v>1</v>
       </c>
       <c r="F103" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3825460551751606E+122</v>
       </c>
       <c r="G103" s="6">
@@ -3999,17 +4125,18 @@
       <c r="B104" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C104" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D104" s="6">
-        <v>13000</v>
+      <c r="C104" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D104" s="3">
+        <f t="shared" si="6"/>
+        <v>5000</v>
       </c>
       <c r="E104" s="6">
         <v>1</v>
       </c>
       <c r="F104" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2214572482882223E+122</v>
       </c>
       <c r="G104" s="6">
@@ -4032,17 +4159,18 @@
       <c r="B105" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C105" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D105" s="6">
-        <v>13100</v>
+      <c r="C105" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D105" s="3">
+        <f t="shared" si="6"/>
+        <v>5000</v>
       </c>
       <c r="E105" s="6">
         <v>1</v>
       </c>
       <c r="F105" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.7996557617296998E+123</v>
       </c>
       <c r="G105" s="6">
@@ -4065,17 +4193,18 @@
       <c r="B106" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C106" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D106" s="6">
-        <v>13200</v>
+      <c r="C106" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D106" s="3">
+        <f t="shared" si="6"/>
+        <v>5000</v>
       </c>
       <c r="E106" s="6">
         <v>1</v>
       </c>
       <c r="F106" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2598450927783648E+124</v>
       </c>
       <c r="G106" s="6">
@@ -4098,17 +4227,18 @@
       <c r="B107" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C107" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D107" s="6">
-        <v>13300</v>
+      <c r="C107" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D107" s="3">
+        <f t="shared" si="6"/>
+        <v>5000</v>
       </c>
       <c r="E107" s="6">
         <v>1</v>
       </c>
       <c r="F107" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.6693029175026411E+124</v>
       </c>
       <c r="G107" s="6">
@@ -4131,17 +4261,18 @@
       <c r="B108" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C108" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D108" s="6">
-        <v>13400</v>
+      <c r="C108" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D108" s="3">
+        <f t="shared" si="6"/>
+        <v>5000</v>
       </c>
       <c r="E108" s="6">
         <v>1</v>
       </c>
       <c r="F108" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5511863128761886E+125</v>
       </c>
       <c r="G108" s="6">
@@ -4164,17 +4295,18 @@
       <c r="B109" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C109" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D109" s="6">
-        <v>13500</v>
+      <c r="C109" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D109" s="3">
+        <f t="shared" si="6"/>
+        <v>5000</v>
       </c>
       <c r="E109" s="6">
         <v>1</v>
       </c>
       <c r="F109" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1480338407942849E+126</v>
       </c>
       <c r="G109" s="6">
@@ -4197,17 +4329,18 @@
       <c r="B110" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C110" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D110" s="6">
-        <v>13600</v>
+      <c r="C110" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D110" s="3">
+        <f t="shared" si="6"/>
+        <v>5000</v>
       </c>
       <c r="E110" s="6">
         <v>1</v>
       </c>
       <c r="F110" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.166152283574282E+126</v>
       </c>
       <c r="G110" s="6">
@@ -4230,17 +4363,18 @@
       <c r="B111" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C111" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D111" s="6">
-        <v>13700</v>
+      <c r="C111" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D111" s="3">
+        <f t="shared" si="6"/>
+        <v>5000</v>
       </c>
       <c r="E111" s="6">
         <v>1</v>
       </c>
       <c r="F111" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3247685276084269E+127</v>
       </c>
       <c r="G111" s="6">
@@ -4263,17 +4397,18 @@
       <c r="B112" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C112" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D112" s="6">
-        <v>13800</v>
+      <c r="C112" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D112" s="3">
+        <f t="shared" si="6"/>
+        <v>5500</v>
       </c>
       <c r="E112" s="6">
         <v>1</v>
       </c>
       <c r="F112" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0461458374237922E+128</v>
       </c>
       <c r="G112" s="6">
@@ -4296,17 +4431,18 @@
       <c r="B113" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C113" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D113" s="6">
-        <v>13900</v>
+      <c r="C113" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D113" s="3">
+        <f t="shared" si="6"/>
+        <v>5500</v>
       </c>
       <c r="E113" s="6">
         <v>1</v>
       </c>
       <c r="F113" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.7076562684070646E+128</v>
       </c>
       <c r="G113" s="6">
@@ -4329,17 +4465,18 @@
       <c r="B114" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C114" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D114" s="6">
-        <v>14000</v>
+      <c r="C114" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D114" s="3">
+        <f t="shared" si="6"/>
+        <v>5500</v>
       </c>
       <c r="E114" s="6">
         <v>1</v>
       </c>
       <c r="F114" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1184453207831791E+129</v>
       </c>
       <c r="G114" s="6">
@@ -4362,17 +4499,18 @@
       <c r="B115" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C115" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D115" s="6">
-        <v>14100</v>
+      <c r="C115" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D115" s="3">
+        <f t="shared" si="6"/>
+        <v>5500</v>
       </c>
       <c r="E115" s="6">
         <v>1</v>
       </c>
       <c r="F115" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.5330039435243058E+129</v>
       </c>
       <c r="G115" s="6">
@@ -4395,17 +4533,18 @@
       <c r="B116" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C116" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D116" s="6">
-        <v>14200</v>
+      <c r="C116" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D116" s="3">
+        <f t="shared" si="6"/>
+        <v>5500</v>
       </c>
       <c r="E116" s="6">
         <v>1</v>
       </c>
       <c r="F116" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.2898517745859375E+130</v>
       </c>
       <c r="G116" s="6">
@@ -4428,17 +4567,18 @@
       <c r="B117" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C117" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D117" s="6">
-        <v>14300</v>
+      <c r="C117" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D117" s="3">
+        <f t="shared" si="6"/>
+        <v>5500</v>
       </c>
       <c r="E117" s="6">
         <v>1</v>
       </c>
       <c r="F117" s="3">
-        <f t="shared" ref="F117:F136" si="5">F116*4.5</f>
+        <f t="shared" ref="F117:F143" si="7">F116*4.5</f>
         <v>1.930433298563672E+131</v>
       </c>
       <c r="G117" s="6">
@@ -4461,17 +4601,18 @@
       <c r="B118" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C118" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D118" s="6">
-        <v>14400</v>
+      <c r="C118" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D118" s="3">
+        <f t="shared" si="6"/>
+        <v>5500</v>
       </c>
       <c r="E118" s="6">
         <v>1</v>
       </c>
       <c r="F118" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.6869498435365235E+131</v>
       </c>
       <c r="G118" s="6">
@@ -4494,17 +4635,18 @@
       <c r="B119" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C119" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D119" s="6">
-        <v>14500</v>
+      <c r="C119" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D119" s="3">
+        <f t="shared" si="6"/>
+        <v>5500</v>
       </c>
       <c r="E119" s="6">
         <v>1</v>
       </c>
       <c r="F119" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.9091274295914357E+132</v>
       </c>
       <c r="G119" s="6">
@@ -4527,17 +4669,18 @@
       <c r="B120" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C120" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D120" s="6">
-        <v>14600</v>
+      <c r="C120" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D120" s="3">
+        <f t="shared" si="6"/>
+        <v>5500</v>
       </c>
       <c r="E120" s="6">
         <v>1</v>
       </c>
       <c r="F120" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.759107343316146E+133</v>
       </c>
       <c r="G120" s="6">
@@ -4560,17 +4703,18 @@
       <c r="B121" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C121" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D121" s="6">
-        <v>14700</v>
+      <c r="C121" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D121" s="3">
+        <f t="shared" si="6"/>
+        <v>5500</v>
       </c>
       <c r="E121" s="6">
         <v>1</v>
       </c>
       <c r="F121" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.9159830449226571E+133</v>
       </c>
       <c r="G121" s="6">
@@ -4593,17 +4737,18 @@
       <c r="B122" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C122" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D122" s="6">
-        <v>14800</v>
+      <c r="C122" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D122" s="3">
+        <f t="shared" si="6"/>
+        <v>6000</v>
       </c>
       <c r="E122" s="6">
         <v>1</v>
       </c>
       <c r="F122" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.5621923702151958E+134</v>
       </c>
       <c r="G122" s="6">
@@ -4626,17 +4771,18 @@
       <c r="B123" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C123" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D123" s="6">
-        <v>14900</v>
+      <c r="C123" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D123" s="3">
+        <f t="shared" si="6"/>
+        <v>6000</v>
       </c>
       <c r="E123" s="6">
         <v>1</v>
       </c>
       <c r="F123" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.6029865665968382E+135</v>
       </c>
       <c r="G123" s="6">
@@ -4659,17 +4805,18 @@
       <c r="B124" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C124" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D124" s="6">
-        <v>15000</v>
+      <c r="C124" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D124" s="3">
+        <f t="shared" si="6"/>
+        <v>6000</v>
       </c>
       <c r="E124" s="6">
         <v>1</v>
       </c>
       <c r="F124" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.2134395496857712E+135</v>
       </c>
       <c r="G124" s="6">
@@ -4692,17 +4839,18 @@
       <c r="B125" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C125" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D125" s="6">
-        <v>15100</v>
+      <c r="C125" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D125" s="3">
+        <f t="shared" si="6"/>
+        <v>6000</v>
       </c>
       <c r="E125" s="6">
         <v>1</v>
       </c>
       <c r="F125" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.2460477973585973E+136</v>
       </c>
       <c r="G125" s="6">
@@ -4725,17 +4873,18 @@
       <c r="B126" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C126" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D126" s="6">
-        <v>15200</v>
+      <c r="C126" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D126" s="3">
+        <f t="shared" si="6"/>
+        <v>6000</v>
       </c>
       <c r="E126" s="6">
         <v>1</v>
       </c>
       <c r="F126" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.4607215088113688E+137</v>
       </c>
       <c r="G126" s="6">
@@ -4758,17 +4907,18 @@
       <c r="B127" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C127" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D127" s="6">
-        <v>15300</v>
+      <c r="C127" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D127" s="3">
+        <f t="shared" si="6"/>
+        <v>6000</v>
       </c>
       <c r="E127" s="6">
         <v>1</v>
       </c>
       <c r="F127" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.5732467896511592E+137</v>
       </c>
       <c r="G127" s="6">
@@ -4791,17 +4941,18 @@
       <c r="B128" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C128" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D128" s="6">
-        <v>15400</v>
+      <c r="C128" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D128" s="3">
+        <f t="shared" si="6"/>
+        <v>6000</v>
       </c>
       <c r="E128" s="6">
         <v>1</v>
       </c>
       <c r="F128" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.9579610553430217E+138</v>
       </c>
       <c r="G128" s="6">
@@ -4824,17 +4975,18 @@
       <c r="B129" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C129" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D129" s="6">
-        <v>15500</v>
+      <c r="C129" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D129" s="3">
+        <f t="shared" si="6"/>
+        <v>6000</v>
       </c>
       <c r="E129" s="6">
         <v>1</v>
       </c>
       <c r="F129" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.3310824749043598E+139</v>
       </c>
       <c r="G129" s="6">
@@ -4857,17 +5009,18 @@
       <c r="B130" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C130" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D130" s="6">
-        <v>15600</v>
+      <c r="C130" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D130" s="3">
+        <f t="shared" si="6"/>
+        <v>6000</v>
       </c>
       <c r="E130" s="6">
         <v>1</v>
       </c>
       <c r="F130" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.9898711370696188E+139</v>
       </c>
       <c r="G130" s="6">
@@ -4890,17 +5043,18 @@
       <c r="B131" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C131" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D131" s="6">
-        <v>15700</v>
+      <c r="C131" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D131" s="3">
+        <f t="shared" si="6"/>
+        <v>6000</v>
       </c>
       <c r="E131" s="6">
         <v>1</v>
       </c>
       <c r="F131" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.6954420116813284E+140</v>
       </c>
       <c r="G131" s="6">
@@ -4923,17 +5077,18 @@
       <c r="B132" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C132" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D132" s="6">
-        <v>15800</v>
+      <c r="C132" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D132" s="3">
+        <f t="shared" si="6"/>
+        <v>6500</v>
       </c>
       <c r="E132" s="6">
         <v>1</v>
       </c>
       <c r="F132" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.2129489052565977E+141</v>
       </c>
       <c r="G132" s="6">
@@ -4956,17 +5111,18 @@
       <c r="B133" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C133" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D133" s="6">
-        <v>15900</v>
+      <c r="C133" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D133" s="3">
+        <f t="shared" si="6"/>
+        <v>6500</v>
       </c>
       <c r="E133" s="6">
         <v>1</v>
       </c>
       <c r="F133" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.4582700736546899E+141</v>
       </c>
       <c r="G133" s="6">
@@ -4989,17 +5145,18 @@
       <c r="B134" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C134" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D134" s="6">
-        <v>16000</v>
+      <c r="C134" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D134" s="3">
+        <f t="shared" si="6"/>
+        <v>6500</v>
       </c>
       <c r="E134" s="6">
         <v>1</v>
       </c>
       <c r="F134" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.4562215331446103E+142</v>
       </c>
       <c r="G134" s="6">
@@ -5022,17 +5179,18 @@
       <c r="B135" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C135" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D135" s="6">
-        <v>16100</v>
+      <c r="C135" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D135" s="3">
+        <f t="shared" si="6"/>
+        <v>6500</v>
       </c>
       <c r="E135" s="6">
         <v>1</v>
       </c>
       <c r="F135" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.1052996899150746E+143</v>
       </c>
       <c r="G135" s="6">
@@ -5055,17 +5213,18 @@
       <c r="B136" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C136" s="6">
-        <v>9008</v>
-      </c>
-      <c r="D136" s="6">
-        <v>16200</v>
+      <c r="C136" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D136" s="3">
+        <f t="shared" si="6"/>
+        <v>6500</v>
       </c>
       <c r="E136" s="6">
         <v>1</v>
       </c>
       <c r="F136" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.9738486046178358E+143</v>
       </c>
       <c r="G136" s="6">
@@ -5081,25 +5240,229 @@
         <v>10440</v>
       </c>
     </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A137" s="6">
+        <v>135</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D137" s="3">
+        <f t="shared" si="6"/>
+        <v>6500</v>
+      </c>
+      <c r="E137" s="6">
+        <v>1</v>
+      </c>
+      <c r="F137" s="3">
+        <f t="shared" si="7"/>
+        <v>2.2382318720780261E+144</v>
+      </c>
+      <c r="G137" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H137" s="6">
+        <v>8</v>
+      </c>
+      <c r="I137" s="6">
+        <v>0</v>
+      </c>
+      <c r="J137" s="6">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A138" s="6">
+        <v>136</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D138" s="3">
+        <f t="shared" si="6"/>
+        <v>6500</v>
+      </c>
+      <c r="E138" s="6">
+        <v>1</v>
+      </c>
+      <c r="F138" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0072043424351117E+145</v>
+      </c>
+      <c r="G138" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H138" s="6">
+        <v>8</v>
+      </c>
+      <c r="I138" s="6">
+        <v>0</v>
+      </c>
+      <c r="J138" s="6">
+        <v>10560</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A139" s="6">
+        <v>137</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D139" s="3">
+        <f t="shared" si="6"/>
+        <v>6500</v>
+      </c>
+      <c r="E139" s="6">
+        <v>1</v>
+      </c>
+      <c r="F139" s="3">
+        <f t="shared" si="7"/>
+        <v>4.532419540958003E+145</v>
+      </c>
+      <c r="G139" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H139" s="6">
+        <v>8</v>
+      </c>
+      <c r="I139" s="6">
+        <v>0</v>
+      </c>
+      <c r="J139" s="6">
+        <v>10620</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A140" s="6">
+        <v>138</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D140" s="3">
+        <f t="shared" si="6"/>
+        <v>6500</v>
+      </c>
+      <c r="E140" s="6">
+        <v>1</v>
+      </c>
+      <c r="F140" s="3">
+        <f t="shared" si="7"/>
+        <v>2.0395887934311014E+146</v>
+      </c>
+      <c r="G140" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H140" s="6">
+        <v>8</v>
+      </c>
+      <c r="I140" s="6">
+        <v>0</v>
+      </c>
+      <c r="J140" s="6">
+        <v>10680</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A141" s="6">
+        <v>139</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D141" s="3">
+        <f t="shared" si="6"/>
+        <v>6500</v>
+      </c>
+      <c r="E141" s="6">
+        <v>1</v>
+      </c>
+      <c r="F141" s="3">
+        <f t="shared" si="7"/>
+        <v>9.1781495704399567E+146</v>
+      </c>
+      <c r="G141" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H141" s="6">
+        <v>8</v>
+      </c>
+      <c r="I141" s="6">
+        <v>0</v>
+      </c>
+      <c r="J141" s="6">
+        <v>10740</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A142" s="6">
+        <v>140</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D142" s="3">
+        <f t="shared" si="6"/>
+        <v>7000</v>
+      </c>
+      <c r="E142" s="6">
+        <v>1</v>
+      </c>
+      <c r="F142" s="3">
+        <f t="shared" si="7"/>
+        <v>4.1301673066979802E+147</v>
+      </c>
+      <c r="G142" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H142" s="6">
+        <v>8</v>
+      </c>
+      <c r="I142" s="6">
+        <v>0</v>
+      </c>
+      <c r="J142" s="6">
+        <v>10800</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A4:D78 E17:E78 G17:J78 F22:F78 A79:J136">
-    <cfRule type="expression" dxfId="3" priority="6">
-      <formula>$C4=5</formula>
+  <conditionalFormatting sqref="E17:E78 G17:J78 F22:F78 A3:C142 E79:J142">
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>$C3=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:J3">
-    <cfRule type="expression" dxfId="2" priority="65">
+  <conditionalFormatting sqref="A2:J2 D3:J3 D4:D142">
+    <cfRule type="expression" dxfId="0" priority="65">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:J16">
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>$C4=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$C31=5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E43BF8-903A-44F2-AFDD-AB2B910B0C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D33221-26E2-4AFF-BA5E-6FB2C09956CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,51 +197,7 @@
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <b/>
@@ -640,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J142"/>
+  <dimension ref="A1:J148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D131" sqref="D131"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F144" sqref="F144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3551,7 +3507,7 @@
         <v>9045</v>
       </c>
       <c r="D87" s="3">
-        <f t="shared" ref="D87:D143" si="6">D77+500</f>
+        <f t="shared" ref="D87:D148" si="6">D77+500</f>
         <v>4000</v>
       </c>
       <c r="E87" s="6">
@@ -4578,7 +4534,7 @@
         <v>1</v>
       </c>
       <c r="F117" s="3">
-        <f t="shared" ref="F117:F143" si="7">F116*4.5</f>
+        <f t="shared" ref="F117:F148" si="7">F116*4.5</f>
         <v>1.930433298563672E+131</v>
       </c>
       <c r="G117" s="6">
@@ -5444,25 +5400,229 @@
         <v>10800</v>
       </c>
     </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A143" s="6">
+        <v>141</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D143" s="3">
+        <f t="shared" si="6"/>
+        <v>7000</v>
+      </c>
+      <c r="E143" s="6">
+        <v>1</v>
+      </c>
+      <c r="F143" s="3">
+        <f t="shared" si="7"/>
+        <v>1.8585752880140911E+148</v>
+      </c>
+      <c r="G143" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H143" s="6">
+        <v>8</v>
+      </c>
+      <c r="I143" s="6">
+        <v>0</v>
+      </c>
+      <c r="J143" s="6">
+        <v>10860</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A144" s="6">
+        <v>142</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D144" s="3">
+        <f t="shared" si="6"/>
+        <v>7000</v>
+      </c>
+      <c r="E144" s="6">
+        <v>1</v>
+      </c>
+      <c r="F144" s="3">
+        <f t="shared" si="7"/>
+        <v>8.3635887960634096E+148</v>
+      </c>
+      <c r="G144" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H144" s="6">
+        <v>8</v>
+      </c>
+      <c r="I144" s="6">
+        <v>0</v>
+      </c>
+      <c r="J144" s="6">
+        <v>10920</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A145" s="6">
+        <v>143</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D145" s="3">
+        <f t="shared" si="6"/>
+        <v>7000</v>
+      </c>
+      <c r="E145" s="6">
+        <v>1</v>
+      </c>
+      <c r="F145" s="3">
+        <f t="shared" si="7"/>
+        <v>3.7636149582285341E+149</v>
+      </c>
+      <c r="G145" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H145" s="6">
+        <v>8</v>
+      </c>
+      <c r="I145" s="6">
+        <v>0</v>
+      </c>
+      <c r="J145" s="6">
+        <v>10980</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A146" s="6">
+        <v>144</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D146" s="3">
+        <f t="shared" si="6"/>
+        <v>7000</v>
+      </c>
+      <c r="E146" s="6">
+        <v>1</v>
+      </c>
+      <c r="F146" s="3">
+        <f t="shared" si="7"/>
+        <v>1.6936267312028404E+150</v>
+      </c>
+      <c r="G146" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H146" s="6">
+        <v>8</v>
+      </c>
+      <c r="I146" s="6">
+        <v>0</v>
+      </c>
+      <c r="J146" s="6">
+        <v>11040</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A147" s="6">
+        <v>145</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D147" s="3">
+        <f t="shared" si="6"/>
+        <v>7000</v>
+      </c>
+      <c r="E147" s="6">
+        <v>1</v>
+      </c>
+      <c r="F147" s="3">
+        <f t="shared" si="7"/>
+        <v>7.6213202904127818E+150</v>
+      </c>
+      <c r="G147" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H147" s="6">
+        <v>8</v>
+      </c>
+      <c r="I147" s="6">
+        <v>0</v>
+      </c>
+      <c r="J147" s="6">
+        <v>11100</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A148" s="6">
+        <v>146</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D148" s="3">
+        <f t="shared" si="6"/>
+        <v>7000</v>
+      </c>
+      <c r="E148" s="6">
+        <v>1</v>
+      </c>
+      <c r="F148" s="3">
+        <f t="shared" si="7"/>
+        <v>3.429594130685752E+151</v>
+      </c>
+      <c r="G148" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H148" s="6">
+        <v>8</v>
+      </c>
+      <c r="I148" s="6">
+        <v>0</v>
+      </c>
+      <c r="J148" s="6">
+        <v>11160</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E17:E78 G17:J78 F22:F78 A3:C142 E79:J142">
-    <cfRule type="expression" dxfId="1" priority="6">
+  <conditionalFormatting sqref="E17:E78 G17:J78 F22:F78 A3:C148 E79:J148 D4:D148">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>$C3=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:J2 D3:J3 D4:D142">
-    <cfRule type="expression" dxfId="0" priority="65">
+  <conditionalFormatting sqref="A2:J2 D3:J3">
+    <cfRule type="expression" dxfId="2" priority="65">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:J16">
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>$C4=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$C31=5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D33221-26E2-4AFF-BA5E-6FB2C09956CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386864F7-F575-487B-9F00-88F8845D788B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J148"/>
+  <dimension ref="A1:J154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F144" sqref="F144"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H150" sqref="H150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3507,7 +3507,7 @@
         <v>9045</v>
       </c>
       <c r="D87" s="3">
-        <f t="shared" ref="D87:D148" si="6">D77+500</f>
+        <f t="shared" ref="D87:D150" si="6">D77+500</f>
         <v>4000</v>
       </c>
       <c r="E87" s="6">
@@ -4534,7 +4534,7 @@
         <v>1</v>
       </c>
       <c r="F117" s="3">
-        <f t="shared" ref="F117:F148" si="7">F116*4.5</f>
+        <f t="shared" ref="F117:F155" si="7">F116*4.5</f>
         <v>1.930433298563672E+131</v>
       </c>
       <c r="G117" s="6">
@@ -5604,25 +5604,229 @@
         <v>11160</v>
       </c>
     </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A149" s="6">
+        <v>147</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D149" s="3">
+        <f t="shared" si="6"/>
+        <v>7000</v>
+      </c>
+      <c r="E149" s="6">
+        <v>1</v>
+      </c>
+      <c r="F149" s="3">
+        <f t="shared" si="7"/>
+        <v>1.5433173588085883E+152</v>
+      </c>
+      <c r="G149" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H149" s="6">
+        <v>8</v>
+      </c>
+      <c r="I149" s="6">
+        <v>0</v>
+      </c>
+      <c r="J149" s="6">
+        <v>11220</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A150" s="6">
+        <v>148</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C150" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D150" s="3">
+        <f t="shared" si="6"/>
+        <v>7000</v>
+      </c>
+      <c r="E150" s="6">
+        <v>1</v>
+      </c>
+      <c r="F150" s="3">
+        <f t="shared" si="7"/>
+        <v>6.9449281146386477E+152</v>
+      </c>
+      <c r="G150" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H150" s="6">
+        <v>8</v>
+      </c>
+      <c r="I150" s="6">
+        <v>0</v>
+      </c>
+      <c r="J150" s="6">
+        <v>11280</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A151" s="6">
+        <v>149</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D151" s="3">
+        <f t="shared" ref="D151:D155" si="8">D141+500</f>
+        <v>7000</v>
+      </c>
+      <c r="E151" s="6">
+        <v>1</v>
+      </c>
+      <c r="F151" s="3">
+        <f t="shared" si="7"/>
+        <v>3.1252176515873913E+153</v>
+      </c>
+      <c r="G151" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H151" s="6">
+        <v>8</v>
+      </c>
+      <c r="I151" s="6">
+        <v>0</v>
+      </c>
+      <c r="J151" s="6">
+        <v>11340</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A152" s="6">
+        <v>150</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D152" s="3">
+        <f t="shared" si="8"/>
+        <v>7500</v>
+      </c>
+      <c r="E152" s="6">
+        <v>1</v>
+      </c>
+      <c r="F152" s="3">
+        <f t="shared" si="7"/>
+        <v>1.4063479432143261E+154</v>
+      </c>
+      <c r="G152" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H152" s="6">
+        <v>8</v>
+      </c>
+      <c r="I152" s="6">
+        <v>0</v>
+      </c>
+      <c r="J152" s="6">
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A153" s="6">
+        <v>151</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C153" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D153" s="3">
+        <f t="shared" si="8"/>
+        <v>7500</v>
+      </c>
+      <c r="E153" s="6">
+        <v>1</v>
+      </c>
+      <c r="F153" s="3">
+        <f t="shared" si="7"/>
+        <v>6.3285657444644669E+154</v>
+      </c>
+      <c r="G153" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H153" s="6">
+        <v>8</v>
+      </c>
+      <c r="I153" s="6">
+        <v>0</v>
+      </c>
+      <c r="J153" s="6">
+        <v>11460</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A154" s="6">
+        <v>152</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D154" s="3">
+        <f t="shared" si="8"/>
+        <v>7500</v>
+      </c>
+      <c r="E154" s="6">
+        <v>1</v>
+      </c>
+      <c r="F154" s="3">
+        <f t="shared" si="7"/>
+        <v>2.8478545850090099E+155</v>
+      </c>
+      <c r="G154" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H154" s="6">
+        <v>8</v>
+      </c>
+      <c r="I154" s="6">
+        <v>0</v>
+      </c>
+      <c r="J154" s="6">
+        <v>11520</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E17:E78 G17:J78 F22:F78 A3:C148 E79:J148 D4:D148">
-    <cfRule type="expression" dxfId="3" priority="6">
+  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J154">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>$C3=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:J2 D3:J3">
-    <cfRule type="expression" dxfId="2" priority="65">
+    <cfRule type="expression" dxfId="3" priority="65">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:J16">
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>$C4=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$C31=5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386864F7-F575-487B-9F00-88F8845D788B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A459E3-6EBF-45A8-84E4-0F10D6B4117A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable4" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J154"/>
+  <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H150" sqref="H150"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H160" sqref="H160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4534,7 +4534,7 @@
         <v>1</v>
       </c>
       <c r="F117" s="3">
-        <f t="shared" ref="F117:F155" si="7">F116*4.5</f>
+        <f t="shared" ref="F117:F160" si="7">F116*4.5</f>
         <v>1.930433298563672E+131</v>
       </c>
       <c r="G117" s="6">
@@ -5683,7 +5683,7 @@
         <v>9045</v>
       </c>
       <c r="D151" s="3">
-        <f t="shared" ref="D151:D155" si="8">D141+500</f>
+        <f t="shared" ref="D151:D160" si="8">D141+500</f>
         <v>7000</v>
       </c>
       <c r="E151" s="6">
@@ -5808,25 +5808,229 @@
         <v>11520</v>
       </c>
     </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A155" s="6">
+        <v>153</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D155" s="3">
+        <f t="shared" si="8"/>
+        <v>7500</v>
+      </c>
+      <c r="E155" s="6">
+        <v>1</v>
+      </c>
+      <c r="F155" s="3">
+        <f t="shared" si="7"/>
+        <v>1.2815345632540545E+156</v>
+      </c>
+      <c r="G155" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H155" s="6">
+        <v>8</v>
+      </c>
+      <c r="I155" s="6">
+        <v>0</v>
+      </c>
+      <c r="J155" s="6">
+        <v>11580</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A156" s="6">
+        <v>154</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D156" s="3">
+        <f t="shared" si="8"/>
+        <v>7500</v>
+      </c>
+      <c r="E156" s="6">
+        <v>1</v>
+      </c>
+      <c r="F156" s="3">
+        <f t="shared" si="7"/>
+        <v>5.7669055346432454E+156</v>
+      </c>
+      <c r="G156" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H156" s="6">
+        <v>8</v>
+      </c>
+      <c r="I156" s="6">
+        <v>0</v>
+      </c>
+      <c r="J156" s="6">
+        <v>11640</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A157" s="6">
+        <v>155</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D157" s="3">
+        <f t="shared" si="8"/>
+        <v>7500</v>
+      </c>
+      <c r="E157" s="6">
+        <v>1</v>
+      </c>
+      <c r="F157" s="3">
+        <f t="shared" si="7"/>
+        <v>2.5951074905894603E+157</v>
+      </c>
+      <c r="G157" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H157" s="6">
+        <v>8</v>
+      </c>
+      <c r="I157" s="6">
+        <v>0</v>
+      </c>
+      <c r="J157" s="6">
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A158" s="6">
+        <v>156</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D158" s="3">
+        <f t="shared" si="8"/>
+        <v>7500</v>
+      </c>
+      <c r="E158" s="6">
+        <v>1</v>
+      </c>
+      <c r="F158" s="3">
+        <f t="shared" si="7"/>
+        <v>1.167798370765257E+158</v>
+      </c>
+      <c r="G158" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H158" s="6">
+        <v>8</v>
+      </c>
+      <c r="I158" s="6">
+        <v>0</v>
+      </c>
+      <c r="J158" s="6">
+        <v>11760</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A159" s="6">
+        <v>157</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D159" s="3">
+        <f t="shared" si="8"/>
+        <v>7500</v>
+      </c>
+      <c r="E159" s="6">
+        <v>1</v>
+      </c>
+      <c r="F159" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2550926684436567E+158</v>
+      </c>
+      <c r="G159" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H159" s="6">
+        <v>8</v>
+      </c>
+      <c r="I159" s="6">
+        <v>0</v>
+      </c>
+      <c r="J159" s="6">
+        <v>11820</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A160" s="6">
+        <v>158</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D160" s="3">
+        <f t="shared" si="8"/>
+        <v>7500</v>
+      </c>
+      <c r="E160" s="6">
+        <v>1</v>
+      </c>
+      <c r="F160" s="3">
+        <f t="shared" si="7"/>
+        <v>2.3647917007996456E+159</v>
+      </c>
+      <c r="G160" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H160" s="6">
+        <v>8</v>
+      </c>
+      <c r="I160" s="6">
+        <v>0</v>
+      </c>
+      <c r="J160" s="6">
+        <v>11880</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J154">
-    <cfRule type="expression" dxfId="0" priority="6">
+  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J160">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>$C3=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:J2 D3:J3">
-    <cfRule type="expression" dxfId="3" priority="65">
+    <cfRule type="expression" dxfId="2" priority="65">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:J16">
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>$C4=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$C31=5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A459E3-6EBF-45A8-84E4-0F10D6B4117A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4074E520-D8C1-42E1-B9B4-70AE21CD53B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J160"/>
+  <dimension ref="A1:J168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H160" sqref="H160"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A161" sqref="A161:J168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4534,7 +4534,7 @@
         <v>1</v>
       </c>
       <c r="F117" s="3">
-        <f t="shared" ref="F117:F160" si="7">F116*4.5</f>
+        <f t="shared" ref="F117:F168" si="7">F116*4.5</f>
         <v>1.930433298563672E+131</v>
       </c>
       <c r="G117" s="6">
@@ -5683,7 +5683,7 @@
         <v>9045</v>
       </c>
       <c r="D151" s="3">
-        <f t="shared" ref="D151:D160" si="8">D141+500</f>
+        <f t="shared" ref="D151:D168" si="8">D141+500</f>
         <v>7000</v>
       </c>
       <c r="E151" s="6">
@@ -6012,9 +6012,281 @@
         <v>11880</v>
       </c>
     </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A161" s="6">
+        <v>159</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C161" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D161" s="3">
+        <f t="shared" si="8"/>
+        <v>7500</v>
+      </c>
+      <c r="E161" s="6">
+        <v>1</v>
+      </c>
+      <c r="F161" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0641562653598405E+160</v>
+      </c>
+      <c r="G161" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H161" s="6">
+        <v>8</v>
+      </c>
+      <c r="I161" s="6">
+        <v>0</v>
+      </c>
+      <c r="J161" s="6">
+        <v>11940</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A162" s="6">
+        <v>160</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D162" s="3">
+        <f t="shared" si="8"/>
+        <v>8000</v>
+      </c>
+      <c r="E162" s="6">
+        <v>1</v>
+      </c>
+      <c r="F162" s="3">
+        <f t="shared" si="7"/>
+        <v>4.7887031941192826E+160</v>
+      </c>
+      <c r="G162" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H162" s="6">
+        <v>8</v>
+      </c>
+      <c r="I162" s="6">
+        <v>0</v>
+      </c>
+      <c r="J162" s="6">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A163" s="6">
+        <v>161</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D163" s="3">
+        <f t="shared" si="8"/>
+        <v>8000</v>
+      </c>
+      <c r="E163" s="6">
+        <v>1</v>
+      </c>
+      <c r="F163" s="3">
+        <f t="shared" si="7"/>
+        <v>2.1549164373536773E+161</v>
+      </c>
+      <c r="G163" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H163" s="6">
+        <v>8</v>
+      </c>
+      <c r="I163" s="6">
+        <v>0</v>
+      </c>
+      <c r="J163" s="6">
+        <v>12060</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A164" s="6">
+        <v>162</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D164" s="3">
+        <f t="shared" si="8"/>
+        <v>8000</v>
+      </c>
+      <c r="E164" s="6">
+        <v>1</v>
+      </c>
+      <c r="F164" s="3">
+        <f t="shared" si="7"/>
+        <v>9.697123968091548E+161</v>
+      </c>
+      <c r="G164" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H164" s="6">
+        <v>8</v>
+      </c>
+      <c r="I164" s="6">
+        <v>0</v>
+      </c>
+      <c r="J164" s="6">
+        <v>12120</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A165" s="6">
+        <v>163</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D165" s="3">
+        <f t="shared" si="8"/>
+        <v>8000</v>
+      </c>
+      <c r="E165" s="6">
+        <v>1</v>
+      </c>
+      <c r="F165" s="3">
+        <f t="shared" si="7"/>
+        <v>4.3637057856411962E+162</v>
+      </c>
+      <c r="G165" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H165" s="6">
+        <v>8</v>
+      </c>
+      <c r="I165" s="6">
+        <v>0</v>
+      </c>
+      <c r="J165" s="6">
+        <v>12180</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A166" s="6">
+        <v>164</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C166" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D166" s="3">
+        <f t="shared" si="8"/>
+        <v>8000</v>
+      </c>
+      <c r="E166" s="6">
+        <v>1</v>
+      </c>
+      <c r="F166" s="3">
+        <f t="shared" si="7"/>
+        <v>1.9636676035385384E+163</v>
+      </c>
+      <c r="G166" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H166" s="6">
+        <v>8</v>
+      </c>
+      <c r="I166" s="6">
+        <v>0</v>
+      </c>
+      <c r="J166" s="6">
+        <v>12240</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A167" s="6">
+        <v>165</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D167" s="3">
+        <f t="shared" si="8"/>
+        <v>8000</v>
+      </c>
+      <c r="E167" s="6">
+        <v>1</v>
+      </c>
+      <c r="F167" s="3">
+        <f t="shared" si="7"/>
+        <v>8.836504215923423E+163</v>
+      </c>
+      <c r="G167" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H167" s="6">
+        <v>8</v>
+      </c>
+      <c r="I167" s="6">
+        <v>0</v>
+      </c>
+      <c r="J167" s="6">
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A168" s="6">
+        <v>166</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D168" s="3">
+        <f t="shared" si="8"/>
+        <v>8000</v>
+      </c>
+      <c r="E168" s="6">
+        <v>1</v>
+      </c>
+      <c r="F168" s="3">
+        <f t="shared" si="7"/>
+        <v>3.9764268971655404E+164</v>
+      </c>
+      <c r="G168" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H168" s="6">
+        <v>8</v>
+      </c>
+      <c r="I168" s="6">
+        <v>0</v>
+      </c>
+      <c r="J168" s="6">
+        <v>12360</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J160">
+  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J168">
     <cfRule type="expression" dxfId="3" priority="6">
       <formula>$C3=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4074E520-D8C1-42E1-B9B4-70AE21CD53B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BFE904-697E-4B80-8F85-0961C4003BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J168"/>
+  <dimension ref="A1:J173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A161" sqref="A161:J168"/>
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I169" sqref="I169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4534,7 +4534,7 @@
         <v>1</v>
       </c>
       <c r="F117" s="3">
-        <f t="shared" ref="F117:F168" si="7">F116*4.5</f>
+        <f t="shared" ref="F117:F177" si="7">F116*4.5</f>
         <v>1.930433298563672E+131</v>
       </c>
       <c r="G117" s="6">
@@ -5683,7 +5683,7 @@
         <v>9045</v>
       </c>
       <c r="D151" s="3">
-        <f t="shared" ref="D151:D168" si="8">D141+500</f>
+        <f t="shared" ref="D151:D177" si="8">D141+500</f>
         <v>7000</v>
       </c>
       <c r="E151" s="6">
@@ -6284,25 +6284,195 @@
         <v>12360</v>
       </c>
     </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A169" s="6">
+        <v>167</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C169" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D169" s="3">
+        <f t="shared" si="8"/>
+        <v>8000</v>
+      </c>
+      <c r="E169" s="6">
+        <v>1</v>
+      </c>
+      <c r="F169" s="3">
+        <f t="shared" si="7"/>
+        <v>1.7893921037244932E+165</v>
+      </c>
+      <c r="G169" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H169" s="6">
+        <v>8</v>
+      </c>
+      <c r="I169" s="6">
+        <v>0</v>
+      </c>
+      <c r="J169" s="6">
+        <v>12420</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A170" s="6">
+        <v>168</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D170" s="3">
+        <f t="shared" si="8"/>
+        <v>8000</v>
+      </c>
+      <c r="E170" s="6">
+        <v>1</v>
+      </c>
+      <c r="F170" s="3">
+        <f t="shared" si="7"/>
+        <v>8.05226446676022E+165</v>
+      </c>
+      <c r="G170" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H170" s="6">
+        <v>8</v>
+      </c>
+      <c r="I170" s="6">
+        <v>0</v>
+      </c>
+      <c r="J170" s="6">
+        <v>12480</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A171" s="6">
+        <v>169</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D171" s="3">
+        <f t="shared" si="8"/>
+        <v>8000</v>
+      </c>
+      <c r="E171" s="6">
+        <v>1</v>
+      </c>
+      <c r="F171" s="3">
+        <f t="shared" si="7"/>
+        <v>3.6235190100420992E+166</v>
+      </c>
+      <c r="G171" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H171" s="6">
+        <v>8</v>
+      </c>
+      <c r="I171" s="6">
+        <v>0</v>
+      </c>
+      <c r="J171" s="6">
+        <v>12540</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A172" s="6">
+        <v>170</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C172" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D172" s="3">
+        <f t="shared" si="8"/>
+        <v>8500</v>
+      </c>
+      <c r="E172" s="6">
+        <v>1</v>
+      </c>
+      <c r="F172" s="3">
+        <f t="shared" si="7"/>
+        <v>1.6305835545189446E+167</v>
+      </c>
+      <c r="G172" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H172" s="6">
+        <v>8</v>
+      </c>
+      <c r="I172" s="6">
+        <v>0</v>
+      </c>
+      <c r="J172" s="6">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A173" s="6">
+        <v>171</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D173" s="3">
+        <f t="shared" si="8"/>
+        <v>8500</v>
+      </c>
+      <c r="E173" s="6">
+        <v>1</v>
+      </c>
+      <c r="F173" s="3">
+        <f t="shared" si="7"/>
+        <v>7.3376259953352508E+167</v>
+      </c>
+      <c r="G173" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H173" s="6">
+        <v>8</v>
+      </c>
+      <c r="I173" s="6">
+        <v>0</v>
+      </c>
+      <c r="J173" s="6">
+        <v>12660</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J168">
-    <cfRule type="expression" dxfId="3" priority="6">
+  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J173">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>$C3=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:J2 D3:J3">
-    <cfRule type="expression" dxfId="2" priority="65">
+    <cfRule type="expression" dxfId="3" priority="65">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:J16">
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>$C4=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$C31=5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BFE904-697E-4B80-8F85-0961C4003BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DF0F29-BB1C-402A-9AED-98F9E89345E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable4" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,7 +197,29 @@
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -596,11 +618,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J173"/>
+  <dimension ref="A1:J179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I169" sqref="I169"/>
+      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F181" sqref="F181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4534,7 +4556,7 @@
         <v>1</v>
       </c>
       <c r="F117" s="3">
-        <f t="shared" ref="F117:F177" si="7">F116*4.5</f>
+        <f t="shared" ref="F117:F179" si="7">F116*4.5</f>
         <v>1.930433298563672E+131</v>
       </c>
       <c r="G117" s="6">
@@ -5683,7 +5705,7 @@
         <v>9045</v>
       </c>
       <c r="D151" s="3">
-        <f t="shared" ref="D151:D177" si="8">D141+500</f>
+        <f t="shared" ref="D151:D179" si="8">D141+500</f>
         <v>7000</v>
       </c>
       <c r="E151" s="6">
@@ -6454,25 +6476,229 @@
         <v>12660</v>
       </c>
     </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A174" s="6">
+        <v>172</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D174" s="3">
+        <f t="shared" si="8"/>
+        <v>8500</v>
+      </c>
+      <c r="E174" s="6">
+        <v>1</v>
+      </c>
+      <c r="F174" s="3">
+        <f t="shared" si="7"/>
+        <v>3.301931697900863E+168</v>
+      </c>
+      <c r="G174" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H174" s="6">
+        <v>8</v>
+      </c>
+      <c r="I174" s="6">
+        <v>0</v>
+      </c>
+      <c r="J174" s="6">
+        <v>12720</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A175" s="6">
+        <v>173</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D175" s="3">
+        <f t="shared" si="8"/>
+        <v>8500</v>
+      </c>
+      <c r="E175" s="6">
+        <v>1</v>
+      </c>
+      <c r="F175" s="3">
+        <f t="shared" si="7"/>
+        <v>1.4858692640553883E+169</v>
+      </c>
+      <c r="G175" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H175" s="6">
+        <v>8</v>
+      </c>
+      <c r="I175" s="6">
+        <v>0</v>
+      </c>
+      <c r="J175" s="6">
+        <v>12780</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A176" s="6">
+        <v>174</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C176" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D176" s="3">
+        <f t="shared" si="8"/>
+        <v>8500</v>
+      </c>
+      <c r="E176" s="6">
+        <v>1</v>
+      </c>
+      <c r="F176" s="3">
+        <f t="shared" si="7"/>
+        <v>6.6864116882492473E+169</v>
+      </c>
+      <c r="G176" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H176" s="6">
+        <v>8</v>
+      </c>
+      <c r="I176" s="6">
+        <v>0</v>
+      </c>
+      <c r="J176" s="6">
+        <v>12840</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A177" s="6">
+        <v>175</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C177" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D177" s="3">
+        <f t="shared" si="8"/>
+        <v>8500</v>
+      </c>
+      <c r="E177" s="6">
+        <v>1</v>
+      </c>
+      <c r="F177" s="3">
+        <f t="shared" si="7"/>
+        <v>3.0088852597121612E+170</v>
+      </c>
+      <c r="G177" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H177" s="6">
+        <v>8</v>
+      </c>
+      <c r="I177" s="6">
+        <v>0</v>
+      </c>
+      <c r="J177" s="6">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A178" s="6">
+        <v>176</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D178" s="3">
+        <f t="shared" si="8"/>
+        <v>8500</v>
+      </c>
+      <c r="E178" s="6">
+        <v>1</v>
+      </c>
+      <c r="F178" s="3">
+        <f t="shared" si="7"/>
+        <v>1.3539983668704726E+171</v>
+      </c>
+      <c r="G178" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H178" s="6">
+        <v>8</v>
+      </c>
+      <c r="I178" s="6">
+        <v>0</v>
+      </c>
+      <c r="J178" s="6">
+        <v>12960</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A179" s="6">
+        <v>177</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D179" s="3">
+        <f t="shared" si="8"/>
+        <v>8500</v>
+      </c>
+      <c r="E179" s="6">
+        <v>1</v>
+      </c>
+      <c r="F179" s="3">
+        <f t="shared" si="7"/>
+        <v>6.0929926509171264E+171</v>
+      </c>
+      <c r="G179" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H179" s="6">
+        <v>8</v>
+      </c>
+      <c r="I179" s="6">
+        <v>0</v>
+      </c>
+      <c r="J179" s="6">
+        <v>13020</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J173">
-    <cfRule type="expression" dxfId="0" priority="6">
+  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J179">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>$C3=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:J2 D3:J3">
-    <cfRule type="expression" dxfId="3" priority="65">
+    <cfRule type="expression" dxfId="2" priority="65">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:J16">
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>$C4=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$C31=5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DF0F29-BB1C-402A-9AED-98F9E89345E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4089D1-3728-4D37-9C7B-CC27F883EEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable4" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,29 +197,7 @@
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <b/>
@@ -618,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J179"/>
+  <dimension ref="A1:J191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F181" sqref="F181"/>
+      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C182" sqref="C182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4556,7 +4534,7 @@
         <v>1</v>
       </c>
       <c r="F117" s="3">
-        <f t="shared" ref="F117:F179" si="7">F116*4.5</f>
+        <f t="shared" ref="F117:F180" si="7">F116*4.5</f>
         <v>1.930433298563672E+131</v>
       </c>
       <c r="G117" s="6">
@@ -5705,7 +5683,7 @@
         <v>9045</v>
       </c>
       <c r="D151" s="3">
-        <f t="shared" ref="D151:D179" si="8">D141+500</f>
+        <f t="shared" ref="D151:D191" si="8">D141+500</f>
         <v>7000</v>
       </c>
       <c r="E151" s="6">
@@ -6680,9 +6658,417 @@
         <v>13020</v>
       </c>
     </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A180" s="6">
+        <v>178</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D180" s="3">
+        <f t="shared" si="8"/>
+        <v>8500</v>
+      </c>
+      <c r="E180" s="6">
+        <v>1</v>
+      </c>
+      <c r="F180" s="3">
+        <f t="shared" si="7"/>
+        <v>2.7418466929127067E+172</v>
+      </c>
+      <c r="G180" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H180" s="6">
+        <v>8</v>
+      </c>
+      <c r="I180" s="6">
+        <v>0</v>
+      </c>
+      <c r="J180" s="6">
+        <v>13080</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A181" s="6">
+        <v>179</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C181" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D181" s="3">
+        <f t="shared" si="8"/>
+        <v>8500</v>
+      </c>
+      <c r="E181" s="6">
+        <v>1</v>
+      </c>
+      <c r="F181" s="3">
+        <f t="shared" ref="F181:F191" si="9">F180*4.5</f>
+        <v>1.2338310118107181E+173</v>
+      </c>
+      <c r="G181" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H181" s="6">
+        <v>8</v>
+      </c>
+      <c r="I181" s="6">
+        <v>0</v>
+      </c>
+      <c r="J181" s="6">
+        <v>13140</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A182" s="6">
+        <v>180</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C182" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D182" s="3">
+        <f t="shared" si="8"/>
+        <v>9000</v>
+      </c>
+      <c r="E182" s="6">
+        <v>1</v>
+      </c>
+      <c r="F182" s="3">
+        <f t="shared" si="9"/>
+        <v>5.5522395531482316E+173</v>
+      </c>
+      <c r="G182" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H182" s="6">
+        <v>8</v>
+      </c>
+      <c r="I182" s="6">
+        <v>0</v>
+      </c>
+      <c r="J182" s="6">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A183" s="6">
+        <v>181</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D183" s="3">
+        <f t="shared" si="8"/>
+        <v>9000</v>
+      </c>
+      <c r="E183" s="6">
+        <v>1</v>
+      </c>
+      <c r="F183" s="3">
+        <f t="shared" si="9"/>
+        <v>2.4985077989167041E+174</v>
+      </c>
+      <c r="G183" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H183" s="6">
+        <v>8</v>
+      </c>
+      <c r="I183" s="6">
+        <v>0</v>
+      </c>
+      <c r="J183" s="6">
+        <v>13260</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A184" s="6">
+        <v>182</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D184" s="3">
+        <f t="shared" si="8"/>
+        <v>9000</v>
+      </c>
+      <c r="E184" s="6">
+        <v>1</v>
+      </c>
+      <c r="F184" s="3">
+        <f t="shared" si="9"/>
+        <v>1.1243285095125168E+175</v>
+      </c>
+      <c r="G184" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H184" s="6">
+        <v>8</v>
+      </c>
+      <c r="I184" s="6">
+        <v>0</v>
+      </c>
+      <c r="J184" s="6">
+        <v>13320</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A185" s="6">
+        <v>183</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C185" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D185" s="3">
+        <f t="shared" si="8"/>
+        <v>9000</v>
+      </c>
+      <c r="E185" s="6">
+        <v>1</v>
+      </c>
+      <c r="F185" s="3">
+        <f t="shared" si="9"/>
+        <v>5.0594782928063255E+175</v>
+      </c>
+      <c r="G185" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H185" s="6">
+        <v>8</v>
+      </c>
+      <c r="I185" s="6">
+        <v>0</v>
+      </c>
+      <c r="J185" s="6">
+        <v>13380</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A186" s="6">
+        <v>184</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C186" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D186" s="3">
+        <f t="shared" si="8"/>
+        <v>9000</v>
+      </c>
+      <c r="E186" s="6">
+        <v>1</v>
+      </c>
+      <c r="F186" s="3">
+        <f t="shared" si="9"/>
+        <v>2.2767652317628466E+176</v>
+      </c>
+      <c r="G186" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H186" s="6">
+        <v>8</v>
+      </c>
+      <c r="I186" s="6">
+        <v>0</v>
+      </c>
+      <c r="J186" s="6">
+        <v>13440</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A187" s="6">
+        <v>185</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D187" s="3">
+        <f t="shared" si="8"/>
+        <v>9000</v>
+      </c>
+      <c r="E187" s="6">
+        <v>1</v>
+      </c>
+      <c r="F187" s="3">
+        <f t="shared" si="9"/>
+        <v>1.024544354293281E+177</v>
+      </c>
+      <c r="G187" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H187" s="6">
+        <v>8</v>
+      </c>
+      <c r="I187" s="6">
+        <v>0</v>
+      </c>
+      <c r="J187" s="6">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A188" s="6">
+        <v>186</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C188" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D188" s="3">
+        <f t="shared" si="8"/>
+        <v>9000</v>
+      </c>
+      <c r="E188" s="6">
+        <v>1</v>
+      </c>
+      <c r="F188" s="3">
+        <f t="shared" si="9"/>
+        <v>4.6104495943197643E+177</v>
+      </c>
+      <c r="G188" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H188" s="6">
+        <v>8</v>
+      </c>
+      <c r="I188" s="6">
+        <v>0</v>
+      </c>
+      <c r="J188" s="6">
+        <v>13560</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A189" s="6">
+        <v>187</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C189" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D189" s="3">
+        <f t="shared" si="8"/>
+        <v>9000</v>
+      </c>
+      <c r="E189" s="6">
+        <v>1</v>
+      </c>
+      <c r="F189" s="3">
+        <f t="shared" si="9"/>
+        <v>2.0747023174438938E+178</v>
+      </c>
+      <c r="G189" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H189" s="6">
+        <v>8</v>
+      </c>
+      <c r="I189" s="6">
+        <v>0</v>
+      </c>
+      <c r="J189" s="6">
+        <v>13620</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A190" s="6">
+        <v>188</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C190" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D190" s="3">
+        <f t="shared" si="8"/>
+        <v>9000</v>
+      </c>
+      <c r="E190" s="6">
+        <v>1</v>
+      </c>
+      <c r="F190" s="3">
+        <f t="shared" si="9"/>
+        <v>9.3361604284975215E+178</v>
+      </c>
+      <c r="G190" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H190" s="6">
+        <v>8</v>
+      </c>
+      <c r="I190" s="6">
+        <v>0</v>
+      </c>
+      <c r="J190" s="6">
+        <v>13680</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A191" s="6">
+        <v>189</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C191" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D191" s="3">
+        <f t="shared" si="8"/>
+        <v>9000</v>
+      </c>
+      <c r="E191" s="6">
+        <v>1</v>
+      </c>
+      <c r="F191" s="3">
+        <f t="shared" si="9"/>
+        <v>4.2012721928238845E+179</v>
+      </c>
+      <c r="G191" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H191" s="6">
+        <v>8</v>
+      </c>
+      <c r="I191" s="6">
+        <v>0</v>
+      </c>
+      <c r="J191" s="6">
+        <v>13740</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J179">
+  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J191">
     <cfRule type="expression" dxfId="3" priority="6">
       <formula>$C3=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4089D1-3728-4D37-9C7B-CC27F883EEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E753FFB-95CD-4398-A4CC-217525845DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J191"/>
+  <dimension ref="A1:J203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C182" sqref="C182"/>
+      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D203" sqref="D203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5683,7 +5683,7 @@
         <v>9045</v>
       </c>
       <c r="D151" s="3">
-        <f t="shared" ref="D151:D191" si="8">D141+500</f>
+        <f t="shared" ref="D151:D203" si="8">D141+500</f>
         <v>7000</v>
       </c>
       <c r="E151" s="6">
@@ -6710,7 +6710,7 @@
         <v>1</v>
       </c>
       <c r="F181" s="3">
-        <f t="shared" ref="F181:F191" si="9">F180*4.5</f>
+        <f t="shared" ref="F181:F203" si="9">F180*4.5</f>
         <v>1.2338310118107181E+173</v>
       </c>
       <c r="G181" s="6">
@@ -7066,9 +7066,417 @@
         <v>13740</v>
       </c>
     </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A192" s="6">
+        <v>190</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C192" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D192" s="3">
+        <f t="shared" si="8"/>
+        <v>9500</v>
+      </c>
+      <c r="E192" s="6">
+        <v>1</v>
+      </c>
+      <c r="F192" s="3">
+        <f t="shared" si="9"/>
+        <v>1.8905724867707481E+180</v>
+      </c>
+      <c r="G192" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H192" s="6">
+        <v>8</v>
+      </c>
+      <c r="I192" s="6">
+        <v>0</v>
+      </c>
+      <c r="J192" s="6">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A193" s="6">
+        <v>191</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C193" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D193" s="3">
+        <f t="shared" si="8"/>
+        <v>9500</v>
+      </c>
+      <c r="E193" s="6">
+        <v>1</v>
+      </c>
+      <c r="F193" s="3">
+        <f t="shared" si="9"/>
+        <v>8.5075761904683668E+180</v>
+      </c>
+      <c r="G193" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H193" s="6">
+        <v>8</v>
+      </c>
+      <c r="I193" s="6">
+        <v>0</v>
+      </c>
+      <c r="J193" s="6">
+        <v>13860</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A194" s="6">
+        <v>192</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C194" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D194" s="3">
+        <f t="shared" si="8"/>
+        <v>9500</v>
+      </c>
+      <c r="E194" s="6">
+        <v>1</v>
+      </c>
+      <c r="F194" s="3">
+        <f t="shared" si="9"/>
+        <v>3.8284092857107649E+181</v>
+      </c>
+      <c r="G194" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H194" s="6">
+        <v>8</v>
+      </c>
+      <c r="I194" s="6">
+        <v>0</v>
+      </c>
+      <c r="J194" s="6">
+        <v>13920</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A195" s="6">
+        <v>193</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C195" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D195" s="3">
+        <f t="shared" si="8"/>
+        <v>9500</v>
+      </c>
+      <c r="E195" s="6">
+        <v>1</v>
+      </c>
+      <c r="F195" s="3">
+        <f t="shared" si="9"/>
+        <v>1.7227841785698441E+182</v>
+      </c>
+      <c r="G195" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H195" s="6">
+        <v>8</v>
+      </c>
+      <c r="I195" s="6">
+        <v>0</v>
+      </c>
+      <c r="J195" s="6">
+        <v>13980</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A196" s="6">
+        <v>194</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C196" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D196" s="3">
+        <f t="shared" si="8"/>
+        <v>9500</v>
+      </c>
+      <c r="E196" s="6">
+        <v>1</v>
+      </c>
+      <c r="F196" s="3">
+        <f t="shared" si="9"/>
+        <v>7.7525288035642987E+182</v>
+      </c>
+      <c r="G196" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H196" s="6">
+        <v>8</v>
+      </c>
+      <c r="I196" s="6">
+        <v>0</v>
+      </c>
+      <c r="J196" s="6">
+        <v>14040</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A197" s="6">
+        <v>195</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C197" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D197" s="3">
+        <f t="shared" si="8"/>
+        <v>9500</v>
+      </c>
+      <c r="E197" s="6">
+        <v>1</v>
+      </c>
+      <c r="F197" s="3">
+        <f t="shared" si="9"/>
+        <v>3.4886379616039342E+183</v>
+      </c>
+      <c r="G197" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H197" s="6">
+        <v>8</v>
+      </c>
+      <c r="I197" s="6">
+        <v>0</v>
+      </c>
+      <c r="J197" s="6">
+        <v>14100</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A198" s="6">
+        <v>196</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C198" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D198" s="3">
+        <f t="shared" si="8"/>
+        <v>9500</v>
+      </c>
+      <c r="E198" s="6">
+        <v>1</v>
+      </c>
+      <c r="F198" s="3">
+        <f t="shared" si="9"/>
+        <v>1.5698870827217705E+184</v>
+      </c>
+      <c r="G198" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H198" s="6">
+        <v>8</v>
+      </c>
+      <c r="I198" s="6">
+        <v>0</v>
+      </c>
+      <c r="J198" s="6">
+        <v>14160</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A199" s="6">
+        <v>197</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C199" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D199" s="3">
+        <f t="shared" si="8"/>
+        <v>9500</v>
+      </c>
+      <c r="E199" s="6">
+        <v>1</v>
+      </c>
+      <c r="F199" s="3">
+        <f t="shared" si="9"/>
+        <v>7.0644918722479665E+184</v>
+      </c>
+      <c r="G199" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H199" s="6">
+        <v>8</v>
+      </c>
+      <c r="I199" s="6">
+        <v>0</v>
+      </c>
+      <c r="J199" s="6">
+        <v>14220</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A200" s="6">
+        <v>198</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C200" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D200" s="3">
+        <f t="shared" si="8"/>
+        <v>9500</v>
+      </c>
+      <c r="E200" s="6">
+        <v>1</v>
+      </c>
+      <c r="F200" s="3">
+        <f t="shared" si="9"/>
+        <v>3.1790213425115851E+185</v>
+      </c>
+      <c r="G200" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H200" s="6">
+        <v>8</v>
+      </c>
+      <c r="I200" s="6">
+        <v>0</v>
+      </c>
+      <c r="J200" s="6">
+        <v>14280</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A201" s="6">
+        <v>199</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C201" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D201" s="3">
+        <f t="shared" si="8"/>
+        <v>9500</v>
+      </c>
+      <c r="E201" s="6">
+        <v>1</v>
+      </c>
+      <c r="F201" s="3">
+        <f t="shared" si="9"/>
+        <v>1.4305596041302134E+186</v>
+      </c>
+      <c r="G201" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H201" s="6">
+        <v>8</v>
+      </c>
+      <c r="I201" s="6">
+        <v>0</v>
+      </c>
+      <c r="J201" s="6">
+        <v>14340</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A202" s="6">
+        <v>200</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C202" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D202" s="3">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="E202" s="6">
+        <v>1</v>
+      </c>
+      <c r="F202" s="3">
+        <f t="shared" si="9"/>
+        <v>6.4375182185859607E+186</v>
+      </c>
+      <c r="G202" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H202" s="6">
+        <v>8</v>
+      </c>
+      <c r="I202" s="6">
+        <v>0</v>
+      </c>
+      <c r="J202" s="6">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A203" s="6">
+        <v>201</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C203" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D203" s="3">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="E203" s="6">
+        <v>1</v>
+      </c>
+      <c r="F203" s="3">
+        <f t="shared" si="9"/>
+        <v>2.8968831983636822E+187</v>
+      </c>
+      <c r="G203" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H203" s="6">
+        <v>8</v>
+      </c>
+      <c r="I203" s="6">
+        <v>0</v>
+      </c>
+      <c r="J203" s="6">
+        <v>14460</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J191">
+  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J203">
     <cfRule type="expression" dxfId="3" priority="6">
       <formula>$C3=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E753FFB-95CD-4398-A4CC-217525845DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF54BE1-5082-4674-AC53-FAFB163E6E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable4" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J203"/>
+  <dimension ref="A1:J209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D203" sqref="D203"/>
+      <selection pane="bottomLeft" activeCell="H200" sqref="H200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5683,7 +5683,7 @@
         <v>9045</v>
       </c>
       <c r="D151" s="3">
-        <f t="shared" ref="D151:D203" si="8">D141+500</f>
+        <f t="shared" ref="D151:D211" si="8">D141+500</f>
         <v>7000</v>
       </c>
       <c r="E151" s="6">
@@ -6710,7 +6710,7 @@
         <v>1</v>
       </c>
       <c r="F181" s="3">
-        <f t="shared" ref="F181:F203" si="9">F180*4.5</f>
+        <f t="shared" ref="F181:F211" si="9">F180*4.5</f>
         <v>1.2338310118107181E+173</v>
       </c>
       <c r="G181" s="6">
@@ -7474,9 +7474,213 @@
         <v>14460</v>
       </c>
     </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A204" s="6">
+        <v>202</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C204" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D204" s="3">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="E204" s="6">
+        <v>1</v>
+      </c>
+      <c r="F204" s="3">
+        <f t="shared" si="9"/>
+        <v>1.303597439263657E+188</v>
+      </c>
+      <c r="G204" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H204" s="6">
+        <v>8</v>
+      </c>
+      <c r="I204" s="6">
+        <v>0</v>
+      </c>
+      <c r="J204" s="6">
+        <v>14520</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A205" s="6">
+        <v>203</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C205" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D205" s="3">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="E205" s="6">
+        <v>1</v>
+      </c>
+      <c r="F205" s="3">
+        <f t="shared" si="9"/>
+        <v>5.8661884766864562E+188</v>
+      </c>
+      <c r="G205" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H205" s="6">
+        <v>8</v>
+      </c>
+      <c r="I205" s="6">
+        <v>0</v>
+      </c>
+      <c r="J205" s="6">
+        <v>14580</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A206" s="6">
+        <v>204</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C206" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D206" s="3">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="E206" s="6">
+        <v>1</v>
+      </c>
+      <c r="F206" s="3">
+        <f t="shared" si="9"/>
+        <v>2.6397848145089053E+189</v>
+      </c>
+      <c r="G206" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H206" s="6">
+        <v>8</v>
+      </c>
+      <c r="I206" s="6">
+        <v>0</v>
+      </c>
+      <c r="J206" s="6">
+        <v>14640</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A207" s="6">
+        <v>205</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C207" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D207" s="3">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="E207" s="6">
+        <v>1</v>
+      </c>
+      <c r="F207" s="3">
+        <f t="shared" si="9"/>
+        <v>1.1879031665290074E+190</v>
+      </c>
+      <c r="G207" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H207" s="6">
+        <v>8</v>
+      </c>
+      <c r="I207" s="6">
+        <v>0</v>
+      </c>
+      <c r="J207" s="6">
+        <v>14700</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A208" s="6">
+        <v>206</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C208" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D208" s="3">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="E208" s="6">
+        <v>1</v>
+      </c>
+      <c r="F208" s="3">
+        <f t="shared" si="9"/>
+        <v>5.3455642493805338E+190</v>
+      </c>
+      <c r="G208" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H208" s="6">
+        <v>8</v>
+      </c>
+      <c r="I208" s="6">
+        <v>0</v>
+      </c>
+      <c r="J208" s="6">
+        <v>14760</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A209" s="6">
+        <v>207</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C209" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D209" s="3">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="E209" s="6">
+        <v>1</v>
+      </c>
+      <c r="F209" s="3">
+        <f t="shared" si="9"/>
+        <v>2.4055039122212401E+191</v>
+      </c>
+      <c r="G209" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H209" s="6">
+        <v>8</v>
+      </c>
+      <c r="I209" s="6">
+        <v>0</v>
+      </c>
+      <c r="J209" s="6">
+        <v>14820</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J203">
+  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J209">
     <cfRule type="expression" dxfId="3" priority="6">
       <formula>$C3=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF54BE1-5082-4674-AC53-FAFB163E6E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBAFEBA-267B-4822-AF5C-AD47A8EAA304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J209"/>
+  <dimension ref="A1:J216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H200" sqref="H200"/>
+      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A210" sqref="A210:A216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5683,7 +5683,7 @@
         <v>9045</v>
       </c>
       <c r="D151" s="3">
-        <f t="shared" ref="D151:D211" si="8">D141+500</f>
+        <f t="shared" ref="D151:D214" si="8">D141+500</f>
         <v>7000</v>
       </c>
       <c r="E151" s="6">
@@ -6710,7 +6710,7 @@
         <v>1</v>
       </c>
       <c r="F181" s="3">
-        <f t="shared" ref="F181:F211" si="9">F180*4.5</f>
+        <f t="shared" ref="F181:F216" si="9">F180*4.5</f>
         <v>1.2338310118107181E+173</v>
       </c>
       <c r="G181" s="6">
@@ -7678,9 +7678,247 @@
         <v>14820</v>
       </c>
     </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A210" s="6">
+        <v>208</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C210" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D210" s="3">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="E210" s="6">
+        <v>1</v>
+      </c>
+      <c r="F210" s="3">
+        <f t="shared" si="9"/>
+        <v>1.082476760499558E+192</v>
+      </c>
+      <c r="G210" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H210" s="6">
+        <v>8</v>
+      </c>
+      <c r="I210" s="6">
+        <v>0</v>
+      </c>
+      <c r="J210" s="6">
+        <v>14880</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A211" s="6">
+        <v>209</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C211" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D211" s="3">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="E211" s="6">
+        <v>1</v>
+      </c>
+      <c r="F211" s="3">
+        <f t="shared" si="9"/>
+        <v>4.8711454222480113E+192</v>
+      </c>
+      <c r="G211" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H211" s="6">
+        <v>8</v>
+      </c>
+      <c r="I211" s="6">
+        <v>0</v>
+      </c>
+      <c r="J211" s="6">
+        <v>14940</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A212" s="6">
+        <v>210</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C212" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D212" s="3">
+        <f t="shared" si="8"/>
+        <v>10500</v>
+      </c>
+      <c r="E212" s="6">
+        <v>1</v>
+      </c>
+      <c r="F212" s="3">
+        <f t="shared" si="9"/>
+        <v>2.1920154400116053E+193</v>
+      </c>
+      <c r="G212" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H212" s="6">
+        <v>8</v>
+      </c>
+      <c r="I212" s="6">
+        <v>0</v>
+      </c>
+      <c r="J212" s="6">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A213" s="6">
+        <v>211</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C213" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D213" s="3">
+        <f t="shared" si="8"/>
+        <v>10500</v>
+      </c>
+      <c r="E213" s="6">
+        <v>1</v>
+      </c>
+      <c r="F213" s="3">
+        <f t="shared" si="9"/>
+        <v>9.8640694800522231E+193</v>
+      </c>
+      <c r="G213" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H213" s="6">
+        <v>8</v>
+      </c>
+      <c r="I213" s="6">
+        <v>0</v>
+      </c>
+      <c r="J213" s="6">
+        <v>15060</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A214" s="6">
+        <v>212</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C214" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D214" s="3">
+        <f t="shared" si="8"/>
+        <v>10500</v>
+      </c>
+      <c r="E214" s="6">
+        <v>1</v>
+      </c>
+      <c r="F214" s="3">
+        <f t="shared" si="9"/>
+        <v>4.4388312660235005E+194</v>
+      </c>
+      <c r="G214" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H214" s="6">
+        <v>8</v>
+      </c>
+      <c r="I214" s="6">
+        <v>0</v>
+      </c>
+      <c r="J214" s="6">
+        <v>15120</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A215" s="6">
+        <v>213</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C215" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D215" s="3">
+        <f t="shared" ref="D215:D216" si="10">D205+500</f>
+        <v>10500</v>
+      </c>
+      <c r="E215" s="6">
+        <v>1</v>
+      </c>
+      <c r="F215" s="3">
+        <f t="shared" si="9"/>
+        <v>1.9974740697105754E+195</v>
+      </c>
+      <c r="G215" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H215" s="6">
+        <v>8</v>
+      </c>
+      <c r="I215" s="6">
+        <v>0</v>
+      </c>
+      <c r="J215" s="6">
+        <v>15180</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A216" s="6">
+        <v>214</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C216" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D216" s="3">
+        <f t="shared" si="10"/>
+        <v>10500</v>
+      </c>
+      <c r="E216" s="6">
+        <v>1</v>
+      </c>
+      <c r="F216" s="3">
+        <f t="shared" si="9"/>
+        <v>8.9886333136975894E+195</v>
+      </c>
+      <c r="G216" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H216" s="6">
+        <v>8</v>
+      </c>
+      <c r="I216" s="6">
+        <v>0</v>
+      </c>
+      <c r="J216" s="6">
+        <v>15240</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J209">
+  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J216">
     <cfRule type="expression" dxfId="3" priority="6">
       <formula>$C3=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBAFEBA-267B-4822-AF5C-AD47A8EAA304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7281B5-72A8-4599-AA09-310884AA5C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable4" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J216"/>
+  <dimension ref="A1:J228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A210" sqref="A210:A216"/>
+      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C216" sqref="C216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6710,7 +6710,7 @@
         <v>1</v>
       </c>
       <c r="F181" s="3">
-        <f t="shared" ref="F181:F216" si="9">F180*4.5</f>
+        <f t="shared" ref="F181:F230" si="9">F180*4.5</f>
         <v>1.2338310118107181E+173</v>
       </c>
       <c r="G181" s="6">
@@ -7859,7 +7859,7 @@
         <v>9045</v>
       </c>
       <c r="D215" s="3">
-        <f t="shared" ref="D215:D216" si="10">D205+500</f>
+        <f t="shared" ref="D215:D230" si="10">D205+500</f>
         <v>10500</v>
       </c>
       <c r="E215" s="6">
@@ -7916,25 +7916,433 @@
         <v>15240</v>
       </c>
     </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A217" s="6">
+        <v>215</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C217" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D217" s="3">
+        <f t="shared" si="10"/>
+        <v>10500</v>
+      </c>
+      <c r="E217" s="6">
+        <v>1</v>
+      </c>
+      <c r="F217" s="3">
+        <f t="shared" si="9"/>
+        <v>4.0448849911639156E+196</v>
+      </c>
+      <c r="G217" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H217" s="6">
+        <v>8</v>
+      </c>
+      <c r="I217" s="6">
+        <v>0</v>
+      </c>
+      <c r="J217" s="6">
+        <v>15300</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A218" s="6">
+        <v>216</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C218" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D218" s="3">
+        <f t="shared" si="10"/>
+        <v>10500</v>
+      </c>
+      <c r="E218" s="6">
+        <v>1</v>
+      </c>
+      <c r="F218" s="3">
+        <f t="shared" si="9"/>
+        <v>1.8201982460237622E+197</v>
+      </c>
+      <c r="G218" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H218" s="6">
+        <v>8</v>
+      </c>
+      <c r="I218" s="6">
+        <v>0</v>
+      </c>
+      <c r="J218" s="6">
+        <v>15360</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A219" s="6">
+        <v>217</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C219" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D219" s="3">
+        <f t="shared" si="10"/>
+        <v>10500</v>
+      </c>
+      <c r="E219" s="6">
+        <v>1</v>
+      </c>
+      <c r="F219" s="3">
+        <f t="shared" si="9"/>
+        <v>8.1908921071069301E+197</v>
+      </c>
+      <c r="G219" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H219" s="6">
+        <v>8</v>
+      </c>
+      <c r="I219" s="6">
+        <v>0</v>
+      </c>
+      <c r="J219" s="6">
+        <v>15420</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A220" s="6">
+        <v>218</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C220" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D220" s="3">
+        <f t="shared" si="10"/>
+        <v>10500</v>
+      </c>
+      <c r="E220" s="6">
+        <v>1</v>
+      </c>
+      <c r="F220" s="3">
+        <f t="shared" si="9"/>
+        <v>3.6859014481981188E+198</v>
+      </c>
+      <c r="G220" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H220" s="6">
+        <v>8</v>
+      </c>
+      <c r="I220" s="6">
+        <v>0</v>
+      </c>
+      <c r="J220" s="6">
+        <v>15480</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A221" s="6">
+        <v>219</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C221" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D221" s="3">
+        <f t="shared" si="10"/>
+        <v>10500</v>
+      </c>
+      <c r="E221" s="6">
+        <v>1</v>
+      </c>
+      <c r="F221" s="3">
+        <f t="shared" si="9"/>
+        <v>1.6586556516891535E+199</v>
+      </c>
+      <c r="G221" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H221" s="6">
+        <v>8</v>
+      </c>
+      <c r="I221" s="6">
+        <v>0</v>
+      </c>
+      <c r="J221" s="6">
+        <v>15540</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A222" s="6">
+        <v>220</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C222" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D222" s="3">
+        <f t="shared" si="10"/>
+        <v>11000</v>
+      </c>
+      <c r="E222" s="6">
+        <v>1</v>
+      </c>
+      <c r="F222" s="3">
+        <f t="shared" si="9"/>
+        <v>7.4639504326011908E+199</v>
+      </c>
+      <c r="G222" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H222" s="6">
+        <v>8</v>
+      </c>
+      <c r="I222" s="6">
+        <v>0</v>
+      </c>
+      <c r="J222" s="6">
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A223" s="6">
+        <v>221</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C223" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D223" s="3">
+        <f t="shared" si="10"/>
+        <v>11000</v>
+      </c>
+      <c r="E223" s="6">
+        <v>1</v>
+      </c>
+      <c r="F223" s="3">
+        <f t="shared" si="9"/>
+        <v>3.3587776946705356E+200</v>
+      </c>
+      <c r="G223" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H223" s="6">
+        <v>8</v>
+      </c>
+      <c r="I223" s="6">
+        <v>0</v>
+      </c>
+      <c r="J223" s="6">
+        <v>15660</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A224" s="6">
+        <v>222</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C224" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D224" s="3">
+        <f t="shared" si="10"/>
+        <v>11000</v>
+      </c>
+      <c r="E224" s="6">
+        <v>1</v>
+      </c>
+      <c r="F224" s="3">
+        <f t="shared" si="9"/>
+        <v>1.511449962601741E+201</v>
+      </c>
+      <c r="G224" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H224" s="6">
+        <v>8</v>
+      </c>
+      <c r="I224" s="6">
+        <v>0</v>
+      </c>
+      <c r="J224" s="6">
+        <v>15720</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A225" s="6">
+        <v>223</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C225" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D225" s="3">
+        <f t="shared" si="10"/>
+        <v>11000</v>
+      </c>
+      <c r="E225" s="6">
+        <v>1</v>
+      </c>
+      <c r="F225" s="3">
+        <f t="shared" si="9"/>
+        <v>6.8015248317078341E+201</v>
+      </c>
+      <c r="G225" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H225" s="6">
+        <v>8</v>
+      </c>
+      <c r="I225" s="6">
+        <v>0</v>
+      </c>
+      <c r="J225" s="6">
+        <v>15780</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A226" s="6">
+        <v>224</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C226" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D226" s="3">
+        <f t="shared" si="10"/>
+        <v>11000</v>
+      </c>
+      <c r="E226" s="6">
+        <v>1</v>
+      </c>
+      <c r="F226" s="3">
+        <f t="shared" si="9"/>
+        <v>3.0606861742685253E+202</v>
+      </c>
+      <c r="G226" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H226" s="6">
+        <v>8</v>
+      </c>
+      <c r="I226" s="6">
+        <v>0</v>
+      </c>
+      <c r="J226" s="6">
+        <v>15840</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A227" s="6">
+        <v>225</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C227" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D227" s="3">
+        <f t="shared" si="10"/>
+        <v>11000</v>
+      </c>
+      <c r="E227" s="6">
+        <v>1</v>
+      </c>
+      <c r="F227" s="3">
+        <f t="shared" si="9"/>
+        <v>1.3773087784208364E+203</v>
+      </c>
+      <c r="G227" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H227" s="6">
+        <v>8</v>
+      </c>
+      <c r="I227" s="6">
+        <v>0</v>
+      </c>
+      <c r="J227" s="6">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A228" s="6">
+        <v>226</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C228" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D228" s="3">
+        <f t="shared" si="10"/>
+        <v>11000</v>
+      </c>
+      <c r="E228" s="6">
+        <v>1</v>
+      </c>
+      <c r="F228" s="3">
+        <f t="shared" si="9"/>
+        <v>6.197889502893764E+203</v>
+      </c>
+      <c r="G228" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H228" s="6">
+        <v>8</v>
+      </c>
+      <c r="I228" s="6">
+        <v>0</v>
+      </c>
+      <c r="J228" s="6">
+        <v>15960</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J216">
-    <cfRule type="expression" dxfId="3" priority="6">
+  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J228">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>$C3=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:J2 D3:J3">
-    <cfRule type="expression" dxfId="2" priority="65">
+    <cfRule type="expression" dxfId="3" priority="65">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:J16">
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>$C4=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$C31=5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7281B5-72A8-4599-AA09-310884AA5C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3A34DB-D6C3-49E7-862F-D43263A8FAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable4" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J228"/>
+  <dimension ref="A1:J234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C216" sqref="C216"/>
+      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D225" sqref="D225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6710,7 +6710,7 @@
         <v>1</v>
       </c>
       <c r="F181" s="3">
-        <f t="shared" ref="F181:F230" si="9">F180*4.5</f>
+        <f t="shared" ref="F181:F222" si="9">F180*4.5</f>
         <v>1.2338310118107181E+173</v>
       </c>
       <c r="G181" s="6">
@@ -7859,7 +7859,7 @@
         <v>9045</v>
       </c>
       <c r="D215" s="3">
-        <f t="shared" ref="D215:D230" si="10">D205+500</f>
+        <f t="shared" ref="D215:D222" si="10">D205+500</f>
         <v>10500</v>
       </c>
       <c r="E215" s="6">
@@ -8131,14 +8131,14 @@
         <v>9045</v>
       </c>
       <c r="D223" s="3">
-        <f t="shared" si="10"/>
+        <f>D213+500</f>
         <v>11000</v>
       </c>
       <c r="E223" s="6">
         <v>1</v>
       </c>
       <c r="F223" s="3">
-        <f t="shared" si="9"/>
+        <f>F222*4.5</f>
         <v>3.3587776946705356E+200</v>
       </c>
       <c r="G223" s="6">
@@ -8165,14 +8165,14 @@
         <v>9045</v>
       </c>
       <c r="D224" s="3">
-        <f t="shared" si="10"/>
+        <f>D214+500</f>
         <v>11000</v>
       </c>
       <c r="E224" s="6">
         <v>1</v>
       </c>
       <c r="F224" s="3">
-        <f t="shared" si="9"/>
+        <f>F223*4.5</f>
         <v>1.511449962601741E+201</v>
       </c>
       <c r="G224" s="6">
@@ -8199,14 +8199,14 @@
         <v>9045</v>
       </c>
       <c r="D225" s="3">
-        <f t="shared" si="10"/>
+        <f>D215+500</f>
         <v>11000</v>
       </c>
       <c r="E225" s="6">
         <v>1</v>
       </c>
       <c r="F225" s="3">
-        <f t="shared" si="9"/>
+        <f>F224*4.5</f>
         <v>6.8015248317078341E+201</v>
       </c>
       <c r="G225" s="6">
@@ -8233,14 +8233,14 @@
         <v>9045</v>
       </c>
       <c r="D226" s="3">
-        <f t="shared" si="10"/>
+        <f>D216+500</f>
         <v>11000</v>
       </c>
       <c r="E226" s="6">
         <v>1</v>
       </c>
       <c r="F226" s="3">
-        <f t="shared" si="9"/>
+        <f>F225*4.5</f>
         <v>3.0606861742685253E+202</v>
       </c>
       <c r="G226" s="6">
@@ -8267,14 +8267,14 @@
         <v>9045</v>
       </c>
       <c r="D227" s="3">
-        <f t="shared" si="10"/>
+        <f>D217+500</f>
         <v>11000</v>
       </c>
       <c r="E227" s="6">
         <v>1</v>
       </c>
       <c r="F227" s="3">
-        <f t="shared" si="9"/>
+        <f>F226*4.5</f>
         <v>1.3773087784208364E+203</v>
       </c>
       <c r="G227" s="6">
@@ -8301,14 +8301,14 @@
         <v>9045</v>
       </c>
       <c r="D228" s="3">
-        <f t="shared" si="10"/>
+        <f>D218+500</f>
         <v>11000</v>
       </c>
       <c r="E228" s="6">
         <v>1</v>
       </c>
       <c r="F228" s="3">
-        <f t="shared" si="9"/>
+        <f>F227*4.5</f>
         <v>6.197889502893764E+203</v>
       </c>
       <c r="G228" s="6">
@@ -8324,9 +8324,213 @@
         <v>15960</v>
       </c>
     </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A229" s="6">
+        <v>227</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C229" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D229" s="3">
+        <f>D219+500</f>
+        <v>11000</v>
+      </c>
+      <c r="E229" s="6">
+        <v>1</v>
+      </c>
+      <c r="F229" s="3">
+        <f>F228*4.5</f>
+        <v>2.7890502763021939E+204</v>
+      </c>
+      <c r="G229" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H229" s="6">
+        <v>8</v>
+      </c>
+      <c r="I229" s="6">
+        <v>0</v>
+      </c>
+      <c r="J229" s="6">
+        <v>16020</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A230" s="6">
+        <v>228</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C230" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D230" s="3">
+        <f>D220+500</f>
+        <v>11000</v>
+      </c>
+      <c r="E230" s="6">
+        <v>1</v>
+      </c>
+      <c r="F230" s="3">
+        <f>F229*4.5</f>
+        <v>1.2550726243359871E+205</v>
+      </c>
+      <c r="G230" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H230" s="6">
+        <v>8</v>
+      </c>
+      <c r="I230" s="6">
+        <v>0</v>
+      </c>
+      <c r="J230" s="6">
+        <v>16080</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A231" s="6">
+        <v>229</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C231" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D231" s="3">
+        <f>D221+500</f>
+        <v>11000</v>
+      </c>
+      <c r="E231" s="6">
+        <v>1</v>
+      </c>
+      <c r="F231" s="3">
+        <f>F230*4.5</f>
+        <v>5.6478268095119423E+205</v>
+      </c>
+      <c r="G231" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H231" s="6">
+        <v>8</v>
+      </c>
+      <c r="I231" s="6">
+        <v>0</v>
+      </c>
+      <c r="J231" s="6">
+        <v>16140</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A232" s="6">
+        <v>230</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C232" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D232" s="3">
+        <f>D222+500</f>
+        <v>11500</v>
+      </c>
+      <c r="E232" s="6">
+        <v>1</v>
+      </c>
+      <c r="F232" s="3">
+        <f>F231*4.5</f>
+        <v>2.5415220642803741E+206</v>
+      </c>
+      <c r="G232" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H232" s="6">
+        <v>8</v>
+      </c>
+      <c r="I232" s="6">
+        <v>0</v>
+      </c>
+      <c r="J232" s="6">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A233" s="6">
+        <v>231</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C233" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D233" s="3">
+        <f>D223+500</f>
+        <v>11500</v>
+      </c>
+      <c r="E233" s="6">
+        <v>1</v>
+      </c>
+      <c r="F233" s="3">
+        <f>F232*4.5</f>
+        <v>1.1436849289261684E+207</v>
+      </c>
+      <c r="G233" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H233" s="6">
+        <v>8</v>
+      </c>
+      <c r="I233" s="6">
+        <v>0</v>
+      </c>
+      <c r="J233" s="6">
+        <v>16260</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A234" s="6">
+        <v>232</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C234" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D234" s="3">
+        <f>D224+500</f>
+        <v>11500</v>
+      </c>
+      <c r="E234" s="6">
+        <v>1</v>
+      </c>
+      <c r="F234" s="3">
+        <f>F233*4.5</f>
+        <v>5.1465821801677574E+207</v>
+      </c>
+      <c r="G234" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H234" s="6">
+        <v>8</v>
+      </c>
+      <c r="I234" s="6">
+        <v>0</v>
+      </c>
+      <c r="J234" s="6">
+        <v>16320</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J228">
+  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J234">
     <cfRule type="expression" dxfId="0" priority="6">
       <formula>$C3=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3A34DB-D6C3-49E7-862F-D43263A8FAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B305448-8983-40E1-8403-765A74056EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable4" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J234"/>
+  <dimension ref="A1:J240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D225" sqref="D225"/>
+      <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D234" sqref="D234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8131,14 +8131,14 @@
         <v>9045</v>
       </c>
       <c r="D223" s="3">
-        <f>D213+500</f>
+        <f t="shared" ref="D223:D240" si="11">D213+500</f>
         <v>11000</v>
       </c>
       <c r="E223" s="6">
         <v>1</v>
       </c>
       <c r="F223" s="3">
-        <f>F222*4.5</f>
+        <f t="shared" ref="F223:F234" si="12">F222*4.5</f>
         <v>3.3587776946705356E+200</v>
       </c>
       <c r="G223" s="6">
@@ -8165,14 +8165,14 @@
         <v>9045</v>
       </c>
       <c r="D224" s="3">
-        <f>D214+500</f>
+        <f t="shared" si="11"/>
         <v>11000</v>
       </c>
       <c r="E224" s="6">
         <v>1</v>
       </c>
       <c r="F224" s="3">
-        <f>F223*4.5</f>
+        <f t="shared" si="12"/>
         <v>1.511449962601741E+201</v>
       </c>
       <c r="G224" s="6">
@@ -8199,14 +8199,14 @@
         <v>9045</v>
       </c>
       <c r="D225" s="3">
-        <f>D215+500</f>
+        <f t="shared" si="11"/>
         <v>11000</v>
       </c>
       <c r="E225" s="6">
         <v>1</v>
       </c>
       <c r="F225" s="3">
-        <f>F224*4.5</f>
+        <f t="shared" si="12"/>
         <v>6.8015248317078341E+201</v>
       </c>
       <c r="G225" s="6">
@@ -8233,14 +8233,14 @@
         <v>9045</v>
       </c>
       <c r="D226" s="3">
-        <f>D216+500</f>
+        <f t="shared" si="11"/>
         <v>11000</v>
       </c>
       <c r="E226" s="6">
         <v>1</v>
       </c>
       <c r="F226" s="3">
-        <f>F225*4.5</f>
+        <f t="shared" si="12"/>
         <v>3.0606861742685253E+202</v>
       </c>
       <c r="G226" s="6">
@@ -8267,14 +8267,14 @@
         <v>9045</v>
       </c>
       <c r="D227" s="3">
-        <f>D217+500</f>
+        <f t="shared" si="11"/>
         <v>11000</v>
       </c>
       <c r="E227" s="6">
         <v>1</v>
       </c>
       <c r="F227" s="3">
-        <f>F226*4.5</f>
+        <f t="shared" si="12"/>
         <v>1.3773087784208364E+203</v>
       </c>
       <c r="G227" s="6">
@@ -8301,14 +8301,14 @@
         <v>9045</v>
       </c>
       <c r="D228" s="3">
-        <f>D218+500</f>
+        <f t="shared" si="11"/>
         <v>11000</v>
       </c>
       <c r="E228" s="6">
         <v>1</v>
       </c>
       <c r="F228" s="3">
-        <f>F227*4.5</f>
+        <f t="shared" si="12"/>
         <v>6.197889502893764E+203</v>
       </c>
       <c r="G228" s="6">
@@ -8335,14 +8335,14 @@
         <v>9045</v>
       </c>
       <c r="D229" s="3">
-        <f>D219+500</f>
+        <f t="shared" si="11"/>
         <v>11000</v>
       </c>
       <c r="E229" s="6">
         <v>1</v>
       </c>
       <c r="F229" s="3">
-        <f>F228*4.5</f>
+        <f t="shared" si="12"/>
         <v>2.7890502763021939E+204</v>
       </c>
       <c r="G229" s="6">
@@ -8369,14 +8369,14 @@
         <v>9045</v>
       </c>
       <c r="D230" s="3">
-        <f>D220+500</f>
+        <f t="shared" si="11"/>
         <v>11000</v>
       </c>
       <c r="E230" s="6">
         <v>1</v>
       </c>
       <c r="F230" s="3">
-        <f>F229*4.5</f>
+        <f t="shared" si="12"/>
         <v>1.2550726243359871E+205</v>
       </c>
       <c r="G230" s="6">
@@ -8403,14 +8403,14 @@
         <v>9045</v>
       </c>
       <c r="D231" s="3">
-        <f>D221+500</f>
+        <f t="shared" si="11"/>
         <v>11000</v>
       </c>
       <c r="E231" s="6">
         <v>1</v>
       </c>
       <c r="F231" s="3">
-        <f>F230*4.5</f>
+        <f t="shared" si="12"/>
         <v>5.6478268095119423E+205</v>
       </c>
       <c r="G231" s="6">
@@ -8437,14 +8437,14 @@
         <v>9045</v>
       </c>
       <c r="D232" s="3">
-        <f>D222+500</f>
+        <f t="shared" si="11"/>
         <v>11500</v>
       </c>
       <c r="E232" s="6">
         <v>1</v>
       </c>
       <c r="F232" s="3">
-        <f>F231*4.5</f>
+        <f t="shared" si="12"/>
         <v>2.5415220642803741E+206</v>
       </c>
       <c r="G232" s="6">
@@ -8471,14 +8471,14 @@
         <v>9045</v>
       </c>
       <c r="D233" s="3">
-        <f>D223+500</f>
+        <f t="shared" si="11"/>
         <v>11500</v>
       </c>
       <c r="E233" s="6">
         <v>1</v>
       </c>
       <c r="F233" s="3">
-        <f>F232*4.5</f>
+        <f t="shared" si="12"/>
         <v>1.1436849289261684E+207</v>
       </c>
       <c r="G233" s="6">
@@ -8505,14 +8505,14 @@
         <v>9045</v>
       </c>
       <c r="D234" s="3">
-        <f>D224+500</f>
+        <f t="shared" si="11"/>
         <v>11500</v>
       </c>
       <c r="E234" s="6">
         <v>1</v>
       </c>
       <c r="F234" s="3">
-        <f>F233*4.5</f>
+        <f t="shared" si="12"/>
         <v>5.1465821801677574E+207</v>
       </c>
       <c r="G234" s="6">
@@ -8528,25 +8528,229 @@
         <v>16320</v>
       </c>
     </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A235" s="6">
+        <v>233</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C235" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D235" s="3">
+        <f t="shared" si="11"/>
+        <v>11500</v>
+      </c>
+      <c r="E235" s="6">
+        <v>1</v>
+      </c>
+      <c r="F235" s="3">
+        <f t="shared" ref="F235:F240" si="13">F234*4.5</f>
+        <v>2.3159619810754908E+208</v>
+      </c>
+      <c r="G235" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H235" s="6">
+        <v>8</v>
+      </c>
+      <c r="I235" s="6">
+        <v>0</v>
+      </c>
+      <c r="J235" s="6">
+        <v>16380</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A236" s="6">
+        <v>234</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C236" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D236" s="3">
+        <f t="shared" si="11"/>
+        <v>11500</v>
+      </c>
+      <c r="E236" s="6">
+        <v>1</v>
+      </c>
+      <c r="F236" s="3">
+        <f t="shared" si="13"/>
+        <v>1.0421828914839708E+209</v>
+      </c>
+      <c r="G236" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H236" s="6">
+        <v>8</v>
+      </c>
+      <c r="I236" s="6">
+        <v>0</v>
+      </c>
+      <c r="J236" s="6">
+        <v>16440</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A237" s="6">
+        <v>235</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C237" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D237" s="3">
+        <f t="shared" si="11"/>
+        <v>11500</v>
+      </c>
+      <c r="E237" s="6">
+        <v>1</v>
+      </c>
+      <c r="F237" s="3">
+        <f t="shared" si="13"/>
+        <v>4.6898230116778687E+209</v>
+      </c>
+      <c r="G237" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H237" s="6">
+        <v>8</v>
+      </c>
+      <c r="I237" s="6">
+        <v>0</v>
+      </c>
+      <c r="J237" s="6">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A238" s="6">
+        <v>236</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C238" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D238" s="3">
+        <f t="shared" si="11"/>
+        <v>11500</v>
+      </c>
+      <c r="E238" s="6">
+        <v>1</v>
+      </c>
+      <c r="F238" s="3">
+        <f t="shared" si="13"/>
+        <v>2.1104203552550409E+210</v>
+      </c>
+      <c r="G238" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H238" s="6">
+        <v>8</v>
+      </c>
+      <c r="I238" s="6">
+        <v>0</v>
+      </c>
+      <c r="J238" s="6">
+        <v>16560</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A239" s="6">
+        <v>237</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C239" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D239" s="3">
+        <f t="shared" si="11"/>
+        <v>11500</v>
+      </c>
+      <c r="E239" s="6">
+        <v>1</v>
+      </c>
+      <c r="F239" s="3">
+        <f t="shared" si="13"/>
+        <v>9.4968915986476846E+210</v>
+      </c>
+      <c r="G239" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H239" s="6">
+        <v>8</v>
+      </c>
+      <c r="I239" s="6">
+        <v>0</v>
+      </c>
+      <c r="J239" s="6">
+        <v>16620</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A240" s="6">
+        <v>238</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C240" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D240" s="3">
+        <f t="shared" si="11"/>
+        <v>11500</v>
+      </c>
+      <c r="E240" s="6">
+        <v>1</v>
+      </c>
+      <c r="F240" s="3">
+        <f t="shared" si="13"/>
+        <v>4.2736012193914583E+211</v>
+      </c>
+      <c r="G240" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H240" s="6">
+        <v>8</v>
+      </c>
+      <c r="I240" s="6">
+        <v>0</v>
+      </c>
+      <c r="J240" s="6">
+        <v>16680</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J234">
-    <cfRule type="expression" dxfId="0" priority="6">
+  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J240">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>$C3=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:J2 D3:J3">
-    <cfRule type="expression" dxfId="3" priority="65">
+    <cfRule type="expression" dxfId="2" priority="65">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:J16">
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>$C4=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$C31=5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B305448-8983-40E1-8403-765A74056EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14B8902-A922-465F-A4E1-1F3D6AD662AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,9 +300,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -340,7 +340,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -446,7 +446,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -588,7 +588,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -596,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J240"/>
+  <dimension ref="A1:J246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D234" sqref="D234"/>
+      <selection pane="bottomLeft" activeCell="D240" sqref="D240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8131,7 +8131,7 @@
         <v>9045</v>
       </c>
       <c r="D223" s="3">
-        <f t="shared" ref="D223:D240" si="11">D213+500</f>
+        <f t="shared" ref="D223:D246" si="11">D213+500</f>
         <v>11000</v>
       </c>
       <c r="E223" s="6">
@@ -8546,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="F235" s="3">
-        <f t="shared" ref="F235:F240" si="13">F234*4.5</f>
+        <f t="shared" ref="F235:F246" si="13">F234*4.5</f>
         <v>2.3159619810754908E+208</v>
       </c>
       <c r="G235" s="6">
@@ -8732,9 +8732,213 @@
         <v>16680</v>
       </c>
     </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A241" s="6">
+        <v>239</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C241" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D241" s="3">
+        <f t="shared" si="11"/>
+        <v>11500</v>
+      </c>
+      <c r="E241" s="6">
+        <v>1</v>
+      </c>
+      <c r="F241" s="3">
+        <f t="shared" si="13"/>
+        <v>1.9231205487261563E+212</v>
+      </c>
+      <c r="G241" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H241" s="6">
+        <v>8</v>
+      </c>
+      <c r="I241" s="6">
+        <v>0</v>
+      </c>
+      <c r="J241" s="6">
+        <v>16740</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A242" s="6">
+        <v>240</v>
+      </c>
+      <c r="B242" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C242" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D242" s="3">
+        <f t="shared" si="11"/>
+        <v>12000</v>
+      </c>
+      <c r="E242" s="6">
+        <v>1</v>
+      </c>
+      <c r="F242" s="3">
+        <f t="shared" si="13"/>
+        <v>8.6540424692677039E+212</v>
+      </c>
+      <c r="G242" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H242" s="6">
+        <v>8</v>
+      </c>
+      <c r="I242" s="6">
+        <v>0</v>
+      </c>
+      <c r="J242" s="6">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A243" s="6">
+        <v>241</v>
+      </c>
+      <c r="B243" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C243" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D243" s="3">
+        <f t="shared" si="11"/>
+        <v>12000</v>
+      </c>
+      <c r="E243" s="6">
+        <v>1</v>
+      </c>
+      <c r="F243" s="3">
+        <f t="shared" si="13"/>
+        <v>3.8943191111704666E+213</v>
+      </c>
+      <c r="G243" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H243" s="6">
+        <v>8</v>
+      </c>
+      <c r="I243" s="6">
+        <v>0</v>
+      </c>
+      <c r="J243" s="6">
+        <v>16860</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A244" s="6">
+        <v>242</v>
+      </c>
+      <c r="B244" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C244" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D244" s="3">
+        <f t="shared" si="11"/>
+        <v>12000</v>
+      </c>
+      <c r="E244" s="6">
+        <v>1</v>
+      </c>
+      <c r="F244" s="3">
+        <f t="shared" si="13"/>
+        <v>1.7524436000267099E+214</v>
+      </c>
+      <c r="G244" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H244" s="6">
+        <v>8</v>
+      </c>
+      <c r="I244" s="6">
+        <v>0</v>
+      </c>
+      <c r="J244" s="6">
+        <v>16920</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A245" s="6">
+        <v>243</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C245" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D245" s="3">
+        <f t="shared" si="11"/>
+        <v>12000</v>
+      </c>
+      <c r="E245" s="6">
+        <v>1</v>
+      </c>
+      <c r="F245" s="3">
+        <f t="shared" si="13"/>
+        <v>7.8859962001201952E+214</v>
+      </c>
+      <c r="G245" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H245" s="6">
+        <v>8</v>
+      </c>
+      <c r="I245" s="6">
+        <v>0</v>
+      </c>
+      <c r="J245" s="6">
+        <v>16980</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A246" s="6">
+        <v>244</v>
+      </c>
+      <c r="B246" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C246" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D246" s="3">
+        <f t="shared" si="11"/>
+        <v>12000</v>
+      </c>
+      <c r="E246" s="6">
+        <v>1</v>
+      </c>
+      <c r="F246" s="3">
+        <f t="shared" si="13"/>
+        <v>3.5486982900540875E+215</v>
+      </c>
+      <c r="G246" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H246" s="6">
+        <v>8</v>
+      </c>
+      <c r="I246" s="6">
+        <v>0</v>
+      </c>
+      <c r="J246" s="6">
+        <v>17040</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J240">
+  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J246">
     <cfRule type="expression" dxfId="3" priority="6">
       <formula>$C3=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14B8902-A922-465F-A4E1-1F3D6AD662AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B006A05-5EC4-441E-BFAB-91849818C23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable4" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J246"/>
+  <dimension ref="A1:J258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D240" sqref="D240"/>
+      <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E245" sqref="E245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8131,7 +8131,7 @@
         <v>9045</v>
       </c>
       <c r="D223" s="3">
-        <f t="shared" ref="D223:D246" si="11">D213+500</f>
+        <f t="shared" ref="D223:D258" si="11">D213+500</f>
         <v>11000</v>
       </c>
       <c r="E223" s="6">
@@ -8546,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="F235" s="3">
-        <f t="shared" ref="F235:F246" si="13">F234*4.5</f>
+        <f t="shared" ref="F235:F258" si="13">F234*4.5</f>
         <v>2.3159619810754908E+208</v>
       </c>
       <c r="G235" s="6">
@@ -8936,9 +8936,417 @@
         <v>17040</v>
       </c>
     </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A247" s="6">
+        <v>245</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C247" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D247" s="3">
+        <f t="shared" si="11"/>
+        <v>12000</v>
+      </c>
+      <c r="E247" s="6">
+        <v>1</v>
+      </c>
+      <c r="F247" s="3">
+        <f t="shared" si="13"/>
+        <v>1.5969142305243395E+216</v>
+      </c>
+      <c r="G247" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H247" s="6">
+        <v>8</v>
+      </c>
+      <c r="I247" s="6">
+        <v>0</v>
+      </c>
+      <c r="J247" s="6">
+        <v>17100</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A248" s="6">
+        <v>246</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C248" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D248" s="3">
+        <f t="shared" si="11"/>
+        <v>12000</v>
+      </c>
+      <c r="E248" s="6">
+        <v>1</v>
+      </c>
+      <c r="F248" s="3">
+        <f t="shared" si="13"/>
+        <v>7.1861140373595286E+216</v>
+      </c>
+      <c r="G248" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H248" s="6">
+        <v>8</v>
+      </c>
+      <c r="I248" s="6">
+        <v>0</v>
+      </c>
+      <c r="J248" s="6">
+        <v>17160</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A249" s="6">
+        <v>247</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C249" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D249" s="3">
+        <f t="shared" si="11"/>
+        <v>12000</v>
+      </c>
+      <c r="E249" s="6">
+        <v>1</v>
+      </c>
+      <c r="F249" s="3">
+        <f t="shared" si="13"/>
+        <v>3.2337513168117879E+217</v>
+      </c>
+      <c r="G249" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H249" s="6">
+        <v>8</v>
+      </c>
+      <c r="I249" s="6">
+        <v>0</v>
+      </c>
+      <c r="J249" s="6">
+        <v>17220</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A250" s="6">
+        <v>248</v>
+      </c>
+      <c r="B250" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C250" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D250" s="3">
+        <f t="shared" si="11"/>
+        <v>12000</v>
+      </c>
+      <c r="E250" s="6">
+        <v>1</v>
+      </c>
+      <c r="F250" s="3">
+        <f t="shared" si="13"/>
+        <v>1.4551880925653045E+218</v>
+      </c>
+      <c r="G250" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H250" s="6">
+        <v>8</v>
+      </c>
+      <c r="I250" s="6">
+        <v>0</v>
+      </c>
+      <c r="J250" s="6">
+        <v>17280</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A251" s="6">
+        <v>249</v>
+      </c>
+      <c r="B251" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C251" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D251" s="3">
+        <f t="shared" si="11"/>
+        <v>12000</v>
+      </c>
+      <c r="E251" s="6">
+        <v>1</v>
+      </c>
+      <c r="F251" s="3">
+        <f t="shared" si="13"/>
+        <v>6.5483464165438704E+218</v>
+      </c>
+      <c r="G251" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H251" s="6">
+        <v>8</v>
+      </c>
+      <c r="I251" s="6">
+        <v>0</v>
+      </c>
+      <c r="J251" s="6">
+        <v>17340</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A252" s="6">
+        <v>250</v>
+      </c>
+      <c r="B252" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C252" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D252" s="3">
+        <f t="shared" si="11"/>
+        <v>12500</v>
+      </c>
+      <c r="E252" s="6">
+        <v>1</v>
+      </c>
+      <c r="F252" s="3">
+        <f t="shared" si="13"/>
+        <v>2.9467558874447418E+219</v>
+      </c>
+      <c r="G252" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H252" s="6">
+        <v>8</v>
+      </c>
+      <c r="I252" s="6">
+        <v>0</v>
+      </c>
+      <c r="J252" s="6">
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A253" s="6">
+        <v>251</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C253" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D253" s="3">
+        <f t="shared" si="11"/>
+        <v>12500</v>
+      </c>
+      <c r="E253" s="6">
+        <v>1</v>
+      </c>
+      <c r="F253" s="3">
+        <f t="shared" si="13"/>
+        <v>1.3260401493501337E+220</v>
+      </c>
+      <c r="G253" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H253" s="6">
+        <v>8</v>
+      </c>
+      <c r="I253" s="6">
+        <v>0</v>
+      </c>
+      <c r="J253" s="6">
+        <v>17460</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A254" s="6">
+        <v>252</v>
+      </c>
+      <c r="B254" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C254" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D254" s="3">
+        <f t="shared" si="11"/>
+        <v>12500</v>
+      </c>
+      <c r="E254" s="6">
+        <v>1</v>
+      </c>
+      <c r="F254" s="3">
+        <f t="shared" si="13"/>
+        <v>5.967180672075602E+220</v>
+      </c>
+      <c r="G254" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H254" s="6">
+        <v>8</v>
+      </c>
+      <c r="I254" s="6">
+        <v>0</v>
+      </c>
+      <c r="J254" s="6">
+        <v>17520</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A255" s="6">
+        <v>253</v>
+      </c>
+      <c r="B255" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C255" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D255" s="3">
+        <f t="shared" si="11"/>
+        <v>12500</v>
+      </c>
+      <c r="E255" s="6">
+        <v>1</v>
+      </c>
+      <c r="F255" s="3">
+        <f t="shared" si="13"/>
+        <v>2.685231302434021E+221</v>
+      </c>
+      <c r="G255" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H255" s="6">
+        <v>8</v>
+      </c>
+      <c r="I255" s="6">
+        <v>0</v>
+      </c>
+      <c r="J255" s="6">
+        <v>17580</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A256" s="6">
+        <v>254</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C256" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D256" s="3">
+        <f t="shared" si="11"/>
+        <v>12500</v>
+      </c>
+      <c r="E256" s="6">
+        <v>1</v>
+      </c>
+      <c r="F256" s="3">
+        <f t="shared" si="13"/>
+        <v>1.2083540860953094E+222</v>
+      </c>
+      <c r="G256" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H256" s="6">
+        <v>8</v>
+      </c>
+      <c r="I256" s="6">
+        <v>0</v>
+      </c>
+      <c r="J256" s="6">
+        <v>17640</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A257" s="6">
+        <v>255</v>
+      </c>
+      <c r="B257" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C257" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D257" s="3">
+        <f t="shared" si="11"/>
+        <v>12500</v>
+      </c>
+      <c r="E257" s="6">
+        <v>1</v>
+      </c>
+      <c r="F257" s="3">
+        <f t="shared" si="13"/>
+        <v>5.4375933874288919E+222</v>
+      </c>
+      <c r="G257" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H257" s="6">
+        <v>8</v>
+      </c>
+      <c r="I257" s="6">
+        <v>0</v>
+      </c>
+      <c r="J257" s="6">
+        <v>17700</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A258" s="6">
+        <v>256</v>
+      </c>
+      <c r="B258" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C258" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D258" s="3">
+        <f t="shared" si="11"/>
+        <v>12500</v>
+      </c>
+      <c r="E258" s="6">
+        <v>1</v>
+      </c>
+      <c r="F258" s="3">
+        <f t="shared" si="13"/>
+        <v>2.4469170243430014E+223</v>
+      </c>
+      <c r="G258" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H258" s="6">
+        <v>8</v>
+      </c>
+      <c r="I258" s="6">
+        <v>0</v>
+      </c>
+      <c r="J258" s="6">
+        <v>17760</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J246">
+  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J258">
     <cfRule type="expression" dxfId="3" priority="6">
       <formula>$C3=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B006A05-5EC4-441E-BFAB-91849818C23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969F1EF7-EC1C-4930-B882-409AA5A4E33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J258"/>
+  <dimension ref="A1:J265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E245" sqref="E245"/>
+      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C262" sqref="C262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8131,7 +8131,7 @@
         <v>9045</v>
       </c>
       <c r="D223" s="3">
-        <f t="shared" ref="D223:D258" si="11">D213+500</f>
+        <f t="shared" ref="D223:D265" si="11">D213+500</f>
         <v>11000</v>
       </c>
       <c r="E223" s="6">
@@ -8546,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="F235" s="3">
-        <f t="shared" ref="F235:F258" si="13">F234*4.5</f>
+        <f t="shared" ref="F235:F265" si="13">F234*4.5</f>
         <v>2.3159619810754908E+208</v>
       </c>
       <c r="G235" s="6">
@@ -9344,9 +9344,247 @@
         <v>17760</v>
       </c>
     </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A259" s="6">
+        <v>257</v>
+      </c>
+      <c r="B259" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C259" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D259" s="3">
+        <f t="shared" si="11"/>
+        <v>12500</v>
+      </c>
+      <c r="E259" s="6">
+        <v>1</v>
+      </c>
+      <c r="F259" s="3">
+        <f t="shared" si="13"/>
+        <v>1.1011126609543507E+224</v>
+      </c>
+      <c r="G259" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H259" s="6">
+        <v>8</v>
+      </c>
+      <c r="I259" s="6">
+        <v>0</v>
+      </c>
+      <c r="J259" s="6">
+        <v>17820</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A260" s="6">
+        <v>258</v>
+      </c>
+      <c r="B260" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C260" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D260" s="3">
+        <f t="shared" si="11"/>
+        <v>12500</v>
+      </c>
+      <c r="E260" s="6">
+        <v>1</v>
+      </c>
+      <c r="F260" s="3">
+        <f t="shared" si="13"/>
+        <v>4.9550069742945782E+224</v>
+      </c>
+      <c r="G260" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H260" s="6">
+        <v>8</v>
+      </c>
+      <c r="I260" s="6">
+        <v>0</v>
+      </c>
+      <c r="J260" s="6">
+        <v>17880</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A261" s="6">
+        <v>259</v>
+      </c>
+      <c r="B261" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C261" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D261" s="3">
+        <f t="shared" si="11"/>
+        <v>12500</v>
+      </c>
+      <c r="E261" s="6">
+        <v>1</v>
+      </c>
+      <c r="F261" s="3">
+        <f t="shared" si="13"/>
+        <v>2.2297531384325603E+225</v>
+      </c>
+      <c r="G261" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H261" s="6">
+        <v>8</v>
+      </c>
+      <c r="I261" s="6">
+        <v>0</v>
+      </c>
+      <c r="J261" s="6">
+        <v>17940</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A262" s="6">
+        <v>260</v>
+      </c>
+      <c r="B262" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C262" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D262" s="3">
+        <f t="shared" si="11"/>
+        <v>13000</v>
+      </c>
+      <c r="E262" s="6">
+        <v>1</v>
+      </c>
+      <c r="F262" s="3">
+        <f t="shared" si="13"/>
+        <v>1.0033889122946521E+226</v>
+      </c>
+      <c r="G262" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H262" s="6">
+        <v>8</v>
+      </c>
+      <c r="I262" s="6">
+        <v>0</v>
+      </c>
+      <c r="J262" s="6">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A263" s="6">
+        <v>261</v>
+      </c>
+      <c r="B263" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C263" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D263" s="3">
+        <f t="shared" si="11"/>
+        <v>13000</v>
+      </c>
+      <c r="E263" s="6">
+        <v>1</v>
+      </c>
+      <c r="F263" s="3">
+        <f t="shared" si="13"/>
+        <v>4.5152501053259344E+226</v>
+      </c>
+      <c r="G263" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H263" s="6">
+        <v>8</v>
+      </c>
+      <c r="I263" s="6">
+        <v>0</v>
+      </c>
+      <c r="J263" s="6">
+        <v>18060</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A264" s="6">
+        <v>262</v>
+      </c>
+      <c r="B264" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C264" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D264" s="3">
+        <f t="shared" si="11"/>
+        <v>13000</v>
+      </c>
+      <c r="E264" s="6">
+        <v>1</v>
+      </c>
+      <c r="F264" s="3">
+        <f t="shared" si="13"/>
+        <v>2.0318625473966704E+227</v>
+      </c>
+      <c r="G264" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H264" s="6">
+        <v>8</v>
+      </c>
+      <c r="I264" s="6">
+        <v>0</v>
+      </c>
+      <c r="J264" s="6">
+        <v>18120</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A265" s="6">
+        <v>263</v>
+      </c>
+      <c r="B265" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C265" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D265" s="3">
+        <f t="shared" si="11"/>
+        <v>13000</v>
+      </c>
+      <c r="E265" s="6">
+        <v>1</v>
+      </c>
+      <c r="F265" s="3">
+        <f t="shared" si="13"/>
+        <v>9.1433814632850169E+227</v>
+      </c>
+      <c r="G265" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H265" s="6">
+        <v>8</v>
+      </c>
+      <c r="I265" s="6">
+        <v>0</v>
+      </c>
+      <c r="J265" s="6">
+        <v>18180</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J258">
+  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J265">
     <cfRule type="expression" dxfId="3" priority="6">
       <formula>$C3=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969F1EF7-EC1C-4930-B882-409AA5A4E33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4052D4F-1D62-4024-A89F-6996B4FEA554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable4" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J265"/>
+  <dimension ref="A1:J271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C262" sqref="C262"/>
+      <pane ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D258" sqref="D258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8131,7 +8131,7 @@
         <v>9045</v>
       </c>
       <c r="D223" s="3">
-        <f t="shared" ref="D223:D265" si="11">D213+500</f>
+        <f t="shared" ref="D223:D271" si="11">D213+500</f>
         <v>11000</v>
       </c>
       <c r="E223" s="6">
@@ -8546,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="F235" s="3">
-        <f t="shared" ref="F235:F265" si="13">F234*4.5</f>
+        <f t="shared" ref="F235:F271" si="13">F234*4.5</f>
         <v>2.3159619810754908E+208</v>
       </c>
       <c r="G235" s="6">
@@ -9582,9 +9582,213 @@
         <v>18180</v>
       </c>
     </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A266" s="6">
+        <v>264</v>
+      </c>
+      <c r="B266" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C266" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D266" s="3">
+        <f t="shared" si="11"/>
+        <v>13000</v>
+      </c>
+      <c r="E266" s="6">
+        <v>1</v>
+      </c>
+      <c r="F266" s="3">
+        <f t="shared" si="13"/>
+        <v>4.114521658478258E+228</v>
+      </c>
+      <c r="G266" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H266" s="6">
+        <v>8</v>
+      </c>
+      <c r="I266" s="6">
+        <v>0</v>
+      </c>
+      <c r="J266" s="6">
+        <v>18240</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A267" s="6">
+        <v>265</v>
+      </c>
+      <c r="B267" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C267" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D267" s="3">
+        <f t="shared" si="11"/>
+        <v>13000</v>
+      </c>
+      <c r="E267" s="6">
+        <v>1</v>
+      </c>
+      <c r="F267" s="3">
+        <f t="shared" si="13"/>
+        <v>1.8515347463152161E+229</v>
+      </c>
+      <c r="G267" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H267" s="6">
+        <v>8</v>
+      </c>
+      <c r="I267" s="6">
+        <v>0</v>
+      </c>
+      <c r="J267" s="6">
+        <v>18300</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A268" s="6">
+        <v>266</v>
+      </c>
+      <c r="B268" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C268" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D268" s="3">
+        <f t="shared" si="11"/>
+        <v>13000</v>
+      </c>
+      <c r="E268" s="6">
+        <v>1</v>
+      </c>
+      <c r="F268" s="3">
+        <f t="shared" si="13"/>
+        <v>8.3319063584184729E+229</v>
+      </c>
+      <c r="G268" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H268" s="6">
+        <v>8</v>
+      </c>
+      <c r="I268" s="6">
+        <v>0</v>
+      </c>
+      <c r="J268" s="6">
+        <v>18360</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A269" s="6">
+        <v>267</v>
+      </c>
+      <c r="B269" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C269" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D269" s="3">
+        <f t="shared" si="11"/>
+        <v>13000</v>
+      </c>
+      <c r="E269" s="6">
+        <v>1</v>
+      </c>
+      <c r="F269" s="3">
+        <f t="shared" si="13"/>
+        <v>3.7493578612883127E+230</v>
+      </c>
+      <c r="G269" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H269" s="6">
+        <v>8</v>
+      </c>
+      <c r="I269" s="6">
+        <v>0</v>
+      </c>
+      <c r="J269" s="6">
+        <v>18420</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A270" s="6">
+        <v>268</v>
+      </c>
+      <c r="B270" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C270" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D270" s="3">
+        <f t="shared" si="11"/>
+        <v>13000</v>
+      </c>
+      <c r="E270" s="6">
+        <v>1</v>
+      </c>
+      <c r="F270" s="3">
+        <f t="shared" si="13"/>
+        <v>1.6872110375797407E+231</v>
+      </c>
+      <c r="G270" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H270" s="6">
+        <v>8</v>
+      </c>
+      <c r="I270" s="6">
+        <v>0</v>
+      </c>
+      <c r="J270" s="6">
+        <v>18480</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A271" s="6">
+        <v>269</v>
+      </c>
+      <c r="B271" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C271" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D271" s="3">
+        <f t="shared" si="11"/>
+        <v>13000</v>
+      </c>
+      <c r="E271" s="6">
+        <v>1</v>
+      </c>
+      <c r="F271" s="3">
+        <f t="shared" si="13"/>
+        <v>7.5924496691088325E+231</v>
+      </c>
+      <c r="G271" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H271" s="6">
+        <v>8</v>
+      </c>
+      <c r="I271" s="6">
+        <v>0</v>
+      </c>
+      <c r="J271" s="6">
+        <v>18540</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J265">
+  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J271">
     <cfRule type="expression" dxfId="3" priority="6">
       <formula>$C3=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4052D4F-1D62-4024-A89F-6996B4FEA554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A27E1E7-24EB-4188-9868-067090E2FB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable4" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J271"/>
+  <dimension ref="A1:J277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D258" sqref="D258"/>
+      <pane ySplit="1" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A275" sqref="A275:XFD275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8131,7 +8131,7 @@
         <v>9045</v>
       </c>
       <c r="D223" s="3">
-        <f t="shared" ref="D223:D271" si="11">D213+500</f>
+        <f t="shared" ref="D223:D277" si="11">D213+500</f>
         <v>11000</v>
       </c>
       <c r="E223" s="6">
@@ -8546,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="F235" s="3">
-        <f t="shared" ref="F235:F271" si="13">F234*4.5</f>
+        <f t="shared" ref="F235:F277" si="13">F234*4.5</f>
         <v>2.3159619810754908E+208</v>
       </c>
       <c r="G235" s="6">
@@ -9786,9 +9786,213 @@
         <v>18540</v>
       </c>
     </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A272" s="6">
+        <v>270</v>
+      </c>
+      <c r="B272" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C272" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D272" s="3">
+        <f t="shared" si="11"/>
+        <v>13500</v>
+      </c>
+      <c r="E272" s="6">
+        <v>1</v>
+      </c>
+      <c r="F272" s="3">
+        <f t="shared" si="13"/>
+        <v>3.4166023510989743E+232</v>
+      </c>
+      <c r="G272" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H272" s="6">
+        <v>8</v>
+      </c>
+      <c r="I272" s="6">
+        <v>0</v>
+      </c>
+      <c r="J272" s="6">
+        <v>18600</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A273" s="6">
+        <v>271</v>
+      </c>
+      <c r="B273" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C273" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D273" s="3">
+        <f t="shared" si="11"/>
+        <v>13500</v>
+      </c>
+      <c r="E273" s="6">
+        <v>1</v>
+      </c>
+      <c r="F273" s="3">
+        <f t="shared" si="13"/>
+        <v>1.5374710579945384E+233</v>
+      </c>
+      <c r="G273" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H273" s="6">
+        <v>8</v>
+      </c>
+      <c r="I273" s="6">
+        <v>0</v>
+      </c>
+      <c r="J273" s="6">
+        <v>18660</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A274" s="6">
+        <v>272</v>
+      </c>
+      <c r="B274" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C274" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D274" s="3">
+        <f t="shared" si="11"/>
+        <v>13500</v>
+      </c>
+      <c r="E274" s="6">
+        <v>1</v>
+      </c>
+      <c r="F274" s="3">
+        <f t="shared" si="13"/>
+        <v>6.9186197609754224E+233</v>
+      </c>
+      <c r="G274" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H274" s="6">
+        <v>8</v>
+      </c>
+      <c r="I274" s="6">
+        <v>0</v>
+      </c>
+      <c r="J274" s="6">
+        <v>18720</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A275" s="6">
+        <v>273</v>
+      </c>
+      <c r="B275" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C275" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D275" s="3">
+        <f t="shared" si="11"/>
+        <v>13500</v>
+      </c>
+      <c r="E275" s="6">
+        <v>1</v>
+      </c>
+      <c r="F275" s="3">
+        <f t="shared" si="13"/>
+        <v>3.1133788924389402E+234</v>
+      </c>
+      <c r="G275" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H275" s="6">
+        <v>8</v>
+      </c>
+      <c r="I275" s="6">
+        <v>0</v>
+      </c>
+      <c r="J275" s="6">
+        <v>18780</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A276" s="6">
+        <v>274</v>
+      </c>
+      <c r="B276" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C276" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D276" s="3">
+        <f t="shared" si="11"/>
+        <v>13500</v>
+      </c>
+      <c r="E276" s="6">
+        <v>1</v>
+      </c>
+      <c r="F276" s="3">
+        <f t="shared" si="13"/>
+        <v>1.4010205015975232E+235</v>
+      </c>
+      <c r="G276" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H276" s="6">
+        <v>8</v>
+      </c>
+      <c r="I276" s="6">
+        <v>0</v>
+      </c>
+      <c r="J276" s="6">
+        <v>18840</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A277" s="6">
+        <v>275</v>
+      </c>
+      <c r="B277" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C277" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D277" s="3">
+        <f t="shared" si="11"/>
+        <v>13500</v>
+      </c>
+      <c r="E277" s="6">
+        <v>1</v>
+      </c>
+      <c r="F277" s="3">
+        <f t="shared" si="13"/>
+        <v>6.3045922571888539E+235</v>
+      </c>
+      <c r="G277" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H277" s="6">
+        <v>8</v>
+      </c>
+      <c r="I277" s="6">
+        <v>0</v>
+      </c>
+      <c r="J277" s="6">
+        <v>18900</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J271">
+  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J277">
     <cfRule type="expression" dxfId="3" priority="6">
       <formula>$C3=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A27E1E7-24EB-4188-9868-067090E2FB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BFE704-949D-45CF-80F2-E963A401F131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J277"/>
+  <dimension ref="A1:J284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A275" sqref="A275:XFD275"/>
+      <pane ySplit="1" topLeftCell="A268" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H281" sqref="H281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8131,7 +8131,7 @@
         <v>9045</v>
       </c>
       <c r="D223" s="3">
-        <f t="shared" ref="D223:D277" si="11">D213+500</f>
+        <f t="shared" ref="D223:D284" si="11">D213+500</f>
         <v>11000</v>
       </c>
       <c r="E223" s="6">
@@ -8546,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="F235" s="3">
-        <f t="shared" ref="F235:F277" si="13">F234*4.5</f>
+        <f t="shared" ref="F235:F284" si="13">F234*4.5</f>
         <v>2.3159619810754908E+208</v>
       </c>
       <c r="G235" s="6">
@@ -9990,9 +9990,247 @@
         <v>18900</v>
       </c>
     </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A278" s="6">
+        <v>276</v>
+      </c>
+      <c r="B278" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C278" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D278" s="3">
+        <f t="shared" si="11"/>
+        <v>13500</v>
+      </c>
+      <c r="E278" s="6">
+        <v>1</v>
+      </c>
+      <c r="F278" s="3">
+        <f t="shared" si="13"/>
+        <v>2.8370665157349844E+236</v>
+      </c>
+      <c r="G278" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H278" s="6">
+        <v>8</v>
+      </c>
+      <c r="I278" s="6">
+        <v>0</v>
+      </c>
+      <c r="J278" s="6">
+        <v>18960</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A279" s="6">
+        <v>277</v>
+      </c>
+      <c r="B279" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C279" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D279" s="3">
+        <f t="shared" si="11"/>
+        <v>13500</v>
+      </c>
+      <c r="E279" s="6">
+        <v>1</v>
+      </c>
+      <c r="F279" s="3">
+        <f t="shared" si="13"/>
+        <v>1.276679932080743E+237</v>
+      </c>
+      <c r="G279" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H279" s="6">
+        <v>8</v>
+      </c>
+      <c r="I279" s="6">
+        <v>0</v>
+      </c>
+      <c r="J279" s="6">
+        <v>19020</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A280" s="6">
+        <v>278</v>
+      </c>
+      <c r="B280" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C280" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D280" s="3">
+        <f t="shared" si="11"/>
+        <v>13500</v>
+      </c>
+      <c r="E280" s="6">
+        <v>1</v>
+      </c>
+      <c r="F280" s="3">
+        <f t="shared" si="13"/>
+        <v>5.7450596943633434E+237</v>
+      </c>
+      <c r="G280" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H280" s="6">
+        <v>8</v>
+      </c>
+      <c r="I280" s="6">
+        <v>0</v>
+      </c>
+      <c r="J280" s="6">
+        <v>19080</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A281" s="6">
+        <v>279</v>
+      </c>
+      <c r="B281" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C281" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D281" s="3">
+        <f t="shared" si="11"/>
+        <v>13500</v>
+      </c>
+      <c r="E281" s="6">
+        <v>1</v>
+      </c>
+      <c r="F281" s="3">
+        <f t="shared" si="13"/>
+        <v>2.5852768624635045E+238</v>
+      </c>
+      <c r="G281" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H281" s="6">
+        <v>8</v>
+      </c>
+      <c r="I281" s="6">
+        <v>0</v>
+      </c>
+      <c r="J281" s="6">
+        <v>19140</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A282" s="6">
+        <v>280</v>
+      </c>
+      <c r="B282" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C282" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D282" s="3">
+        <f t="shared" si="11"/>
+        <v>14000</v>
+      </c>
+      <c r="E282" s="6">
+        <v>1</v>
+      </c>
+      <c r="F282" s="3">
+        <f t="shared" si="13"/>
+        <v>1.163374588108577E+239</v>
+      </c>
+      <c r="G282" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H282" s="6">
+        <v>8</v>
+      </c>
+      <c r="I282" s="6">
+        <v>0</v>
+      </c>
+      <c r="J282" s="6">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A283" s="6">
+        <v>281</v>
+      </c>
+      <c r="B283" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C283" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D283" s="3">
+        <f t="shared" si="11"/>
+        <v>14000</v>
+      </c>
+      <c r="E283" s="6">
+        <v>1</v>
+      </c>
+      <c r="F283" s="3">
+        <f t="shared" si="13"/>
+        <v>5.235185646488596E+239</v>
+      </c>
+      <c r="G283" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H283" s="6">
+        <v>8</v>
+      </c>
+      <c r="I283" s="6">
+        <v>0</v>
+      </c>
+      <c r="J283" s="6">
+        <v>19260</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A284" s="6">
+        <v>282</v>
+      </c>
+      <c r="B284" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C284" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D284" s="3">
+        <f t="shared" si="11"/>
+        <v>14000</v>
+      </c>
+      <c r="E284" s="6">
+        <v>1</v>
+      </c>
+      <c r="F284" s="3">
+        <f t="shared" si="13"/>
+        <v>2.3558335409198683E+240</v>
+      </c>
+      <c r="G284" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H284" s="6">
+        <v>8</v>
+      </c>
+      <c r="I284" s="6">
+        <v>0</v>
+      </c>
+      <c r="J284" s="6">
+        <v>19320</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J277">
+  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J284">
     <cfRule type="expression" dxfId="3" priority="6">
       <formula>$C3=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BFE704-949D-45CF-80F2-E963A401F131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1A63C9-0F1B-4479-AADD-7C8704070A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable4" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J284"/>
+  <dimension ref="A1:J289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A268" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H281" sqref="H281"/>
+      <selection pane="bottomLeft" activeCell="D280" sqref="D280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8131,7 +8131,7 @@
         <v>9045</v>
       </c>
       <c r="D223" s="3">
-        <f t="shared" ref="D223:D284" si="11">D213+500</f>
+        <f t="shared" ref="D223:D286" si="11">D213+500</f>
         <v>11000</v>
       </c>
       <c r="E223" s="6">
@@ -8546,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="F235" s="3">
-        <f t="shared" ref="F235:F284" si="13">F234*4.5</f>
+        <f t="shared" ref="F235:F289" si="13">F234*4.5</f>
         <v>2.3159619810754908E+208</v>
       </c>
       <c r="G235" s="6">
@@ -10228,9 +10228,179 @@
         <v>19320</v>
       </c>
     </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A285" s="6">
+        <v>283</v>
+      </c>
+      <c r="B285" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C285" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D285" s="3">
+        <f t="shared" si="11"/>
+        <v>14000</v>
+      </c>
+      <c r="E285" s="6">
+        <v>1</v>
+      </c>
+      <c r="F285" s="3">
+        <f t="shared" si="13"/>
+        <v>1.0601250934139407E+241</v>
+      </c>
+      <c r="G285" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H285" s="6">
+        <v>8</v>
+      </c>
+      <c r="I285" s="6">
+        <v>0</v>
+      </c>
+      <c r="J285" s="6">
+        <v>19380</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A286" s="6">
+        <v>284</v>
+      </c>
+      <c r="B286" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C286" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D286" s="3">
+        <f t="shared" si="11"/>
+        <v>14000</v>
+      </c>
+      <c r="E286" s="6">
+        <v>1</v>
+      </c>
+      <c r="F286" s="3">
+        <f t="shared" si="13"/>
+        <v>4.770562920362733E+241</v>
+      </c>
+      <c r="G286" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H286" s="6">
+        <v>8</v>
+      </c>
+      <c r="I286" s="6">
+        <v>0</v>
+      </c>
+      <c r="J286" s="6">
+        <v>19440</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A287" s="6">
+        <v>285</v>
+      </c>
+      <c r="B287" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C287" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D287" s="3">
+        <f t="shared" ref="D287:D289" si="14">D277+500</f>
+        <v>14000</v>
+      </c>
+      <c r="E287" s="6">
+        <v>1</v>
+      </c>
+      <c r="F287" s="3">
+        <f t="shared" si="13"/>
+        <v>2.1467533141632298E+242</v>
+      </c>
+      <c r="G287" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H287" s="6">
+        <v>8</v>
+      </c>
+      <c r="I287" s="6">
+        <v>0</v>
+      </c>
+      <c r="J287" s="6">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A288" s="6">
+        <v>286</v>
+      </c>
+      <c r="B288" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C288" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D288" s="3">
+        <f t="shared" si="14"/>
+        <v>14000</v>
+      </c>
+      <c r="E288" s="6">
+        <v>1</v>
+      </c>
+      <c r="F288" s="3">
+        <f t="shared" si="13"/>
+        <v>9.6603899137345337E+242</v>
+      </c>
+      <c r="G288" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H288" s="6">
+        <v>8</v>
+      </c>
+      <c r="I288" s="6">
+        <v>0</v>
+      </c>
+      <c r="J288" s="6">
+        <v>19560</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A289" s="6">
+        <v>287</v>
+      </c>
+      <c r="B289" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C289" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D289" s="3">
+        <f t="shared" si="14"/>
+        <v>14000</v>
+      </c>
+      <c r="E289" s="6">
+        <v>1</v>
+      </c>
+      <c r="F289" s="3">
+        <f t="shared" si="13"/>
+        <v>4.3471754611805405E+243</v>
+      </c>
+      <c r="G289" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H289" s="6">
+        <v>8</v>
+      </c>
+      <c r="I289" s="6">
+        <v>0</v>
+      </c>
+      <c r="J289" s="6">
+        <v>19620</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J284">
+  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J289">
     <cfRule type="expression" dxfId="3" priority="6">
       <formula>$C3=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1A63C9-0F1B-4479-AADD-7C8704070A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBC5E1F-81C8-49DF-8F2D-8C425E895DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J289"/>
+  <dimension ref="A1:J295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A268" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D280" sqref="D280"/>
+      <pane ySplit="1" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C295" sqref="C295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8546,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="F235" s="3">
-        <f t="shared" ref="F235:F289" si="13">F234*4.5</f>
+        <f t="shared" ref="F235:F295" si="13">F234*4.5</f>
         <v>2.3159619810754908E+208</v>
       </c>
       <c r="G235" s="6">
@@ -10307,7 +10307,7 @@
         <v>9045</v>
       </c>
       <c r="D287" s="3">
-        <f t="shared" ref="D287:D289" si="14">D277+500</f>
+        <f t="shared" ref="D287:D295" si="14">D277+500</f>
         <v>14000</v>
       </c>
       <c r="E287" s="6">
@@ -10398,9 +10398,213 @@
         <v>19620</v>
       </c>
     </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A290" s="6">
+        <v>288</v>
+      </c>
+      <c r="B290" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C290" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D290" s="3">
+        <f t="shared" si="14"/>
+        <v>14000</v>
+      </c>
+      <c r="E290" s="6">
+        <v>1</v>
+      </c>
+      <c r="F290" s="3">
+        <f t="shared" si="13"/>
+        <v>1.9562289575312433E+244</v>
+      </c>
+      <c r="G290" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H290" s="6">
+        <v>8</v>
+      </c>
+      <c r="I290" s="6">
+        <v>0</v>
+      </c>
+      <c r="J290" s="6">
+        <v>19680</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A291" s="6">
+        <v>289</v>
+      </c>
+      <c r="B291" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C291" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D291" s="3">
+        <f t="shared" si="14"/>
+        <v>14000</v>
+      </c>
+      <c r="E291" s="6">
+        <v>1</v>
+      </c>
+      <c r="F291" s="3">
+        <f t="shared" si="13"/>
+        <v>8.8030303088905952E+244</v>
+      </c>
+      <c r="G291" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H291" s="6">
+        <v>8</v>
+      </c>
+      <c r="I291" s="6">
+        <v>0</v>
+      </c>
+      <c r="J291" s="6">
+        <v>19740</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A292" s="6">
+        <v>290</v>
+      </c>
+      <c r="B292" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C292" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D292" s="3">
+        <f t="shared" si="14"/>
+        <v>14500</v>
+      </c>
+      <c r="E292" s="6">
+        <v>1</v>
+      </c>
+      <c r="F292" s="3">
+        <f t="shared" si="13"/>
+        <v>3.9613636390007679E+245</v>
+      </c>
+      <c r="G292" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H292" s="6">
+        <v>8</v>
+      </c>
+      <c r="I292" s="6">
+        <v>0</v>
+      </c>
+      <c r="J292" s="6">
+        <v>19800</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A293" s="6">
+        <v>291</v>
+      </c>
+      <c r="B293" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C293" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D293" s="3">
+        <f t="shared" si="14"/>
+        <v>14500</v>
+      </c>
+      <c r="E293" s="6">
+        <v>1</v>
+      </c>
+      <c r="F293" s="3">
+        <f t="shared" si="13"/>
+        <v>1.7826136375503454E+246</v>
+      </c>
+      <c r="G293" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H293" s="6">
+        <v>8</v>
+      </c>
+      <c r="I293" s="6">
+        <v>0</v>
+      </c>
+      <c r="J293" s="6">
+        <v>19860</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A294" s="6">
+        <v>292</v>
+      </c>
+      <c r="B294" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C294" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D294" s="3">
+        <f t="shared" si="14"/>
+        <v>14500</v>
+      </c>
+      <c r="E294" s="6">
+        <v>1</v>
+      </c>
+      <c r="F294" s="3">
+        <f t="shared" si="13"/>
+        <v>8.0217613689765545E+246</v>
+      </c>
+      <c r="G294" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H294" s="6">
+        <v>8</v>
+      </c>
+      <c r="I294" s="6">
+        <v>0</v>
+      </c>
+      <c r="J294" s="6">
+        <v>19920</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A295" s="6">
+        <v>293</v>
+      </c>
+      <c r="B295" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C295" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D295" s="3">
+        <f t="shared" si="14"/>
+        <v>14500</v>
+      </c>
+      <c r="E295" s="6">
+        <v>1</v>
+      </c>
+      <c r="F295" s="3">
+        <f t="shared" si="13"/>
+        <v>3.6097926160394493E+247</v>
+      </c>
+      <c r="G295" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H295" s="6">
+        <v>8</v>
+      </c>
+      <c r="I295" s="6">
+        <v>0</v>
+      </c>
+      <c r="J295" s="6">
+        <v>19980</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J289">
+  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J295">
     <cfRule type="expression" dxfId="3" priority="6">
       <formula>$C3=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBC5E1F-81C8-49DF-8F2D-8C425E895DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B77ED0-27C9-4365-A389-F2BD9347A8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable4" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J295"/>
+  <dimension ref="A1:J301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C295" sqref="C295"/>
+      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G290" sqref="G290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8546,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="F235" s="3">
-        <f t="shared" ref="F235:F295" si="13">F234*4.5</f>
+        <f t="shared" ref="F235:F298" si="13">F234*4.5</f>
         <v>2.3159619810754908E+208</v>
       </c>
       <c r="G235" s="6">
@@ -10307,7 +10307,7 @@
         <v>9045</v>
       </c>
       <c r="D287" s="3">
-        <f t="shared" ref="D287:D295" si="14">D277+500</f>
+        <f t="shared" ref="D287:D301" si="14">D277+500</f>
         <v>14000</v>
       </c>
       <c r="E287" s="6">
@@ -10602,9 +10602,213 @@
         <v>19980</v>
       </c>
     </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A296" s="6">
+        <v>294</v>
+      </c>
+      <c r="B296" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C296" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D296" s="3">
+        <f t="shared" si="14"/>
+        <v>14500</v>
+      </c>
+      <c r="E296" s="6">
+        <v>1</v>
+      </c>
+      <c r="F296" s="3">
+        <f t="shared" si="13"/>
+        <v>1.6244066772177523E+248</v>
+      </c>
+      <c r="G296" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H296" s="6">
+        <v>8</v>
+      </c>
+      <c r="I296" s="6">
+        <v>0</v>
+      </c>
+      <c r="J296" s="6">
+        <v>20040</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A297" s="6">
+        <v>295</v>
+      </c>
+      <c r="B297" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C297" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D297" s="3">
+        <f t="shared" si="14"/>
+        <v>14500</v>
+      </c>
+      <c r="E297" s="6">
+        <v>1</v>
+      </c>
+      <c r="F297" s="3">
+        <f t="shared" si="13"/>
+        <v>7.309830047479885E+248</v>
+      </c>
+      <c r="G297" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H297" s="6">
+        <v>8</v>
+      </c>
+      <c r="I297" s="6">
+        <v>0</v>
+      </c>
+      <c r="J297" s="6">
+        <v>20100</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A298" s="6">
+        <v>296</v>
+      </c>
+      <c r="B298" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C298" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D298" s="3">
+        <f t="shared" si="14"/>
+        <v>14500</v>
+      </c>
+      <c r="E298" s="6">
+        <v>1</v>
+      </c>
+      <c r="F298" s="3">
+        <f t="shared" si="13"/>
+        <v>3.2894235213659484E+249</v>
+      </c>
+      <c r="G298" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H298" s="6">
+        <v>8</v>
+      </c>
+      <c r="I298" s="6">
+        <v>0</v>
+      </c>
+      <c r="J298" s="6">
+        <v>20160</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A299" s="6">
+        <v>297</v>
+      </c>
+      <c r="B299" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C299" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D299" s="3">
+        <f t="shared" si="14"/>
+        <v>14500</v>
+      </c>
+      <c r="E299" s="6">
+        <v>1</v>
+      </c>
+      <c r="F299" s="3">
+        <f t="shared" ref="F299:F301" si="15">F298*4.5</f>
+        <v>1.4802405846146766E+250</v>
+      </c>
+      <c r="G299" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H299" s="6">
+        <v>8</v>
+      </c>
+      <c r="I299" s="6">
+        <v>0</v>
+      </c>
+      <c r="J299" s="6">
+        <v>20220</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A300" s="6">
+        <v>298</v>
+      </c>
+      <c r="B300" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C300" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D300" s="3">
+        <f t="shared" si="14"/>
+        <v>14500</v>
+      </c>
+      <c r="E300" s="6">
+        <v>1</v>
+      </c>
+      <c r="F300" s="3">
+        <f t="shared" si="15"/>
+        <v>6.6610826307660443E+250</v>
+      </c>
+      <c r="G300" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H300" s="6">
+        <v>8</v>
+      </c>
+      <c r="I300" s="6">
+        <v>0</v>
+      </c>
+      <c r="J300" s="6">
+        <v>20280</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A301" s="6">
+        <v>299</v>
+      </c>
+      <c r="B301" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C301" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D301" s="3">
+        <f t="shared" si="14"/>
+        <v>14500</v>
+      </c>
+      <c r="E301" s="6">
+        <v>1</v>
+      </c>
+      <c r="F301" s="3">
+        <f t="shared" si="15"/>
+        <v>2.9974871838447201E+251</v>
+      </c>
+      <c r="G301" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H301" s="6">
+        <v>8</v>
+      </c>
+      <c r="I301" s="6">
+        <v>0</v>
+      </c>
+      <c r="J301" s="6">
+        <v>20340</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J295">
+  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J301">
     <cfRule type="expression" dxfId="3" priority="6">
       <formula>$C3=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B77ED0-27C9-4365-A389-F2BD9347A8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581388A9-1574-479F-9A74-0A8FD5383094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable4" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J301"/>
+  <dimension ref="A1:J307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G290" sqref="G290"/>
+      <pane ySplit="1" topLeftCell="A289" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D302" sqref="D302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10307,7 +10307,7 @@
         <v>9045</v>
       </c>
       <c r="D287" s="3">
-        <f t="shared" ref="D287:D301" si="14">D277+500</f>
+        <f t="shared" ref="D287:D309" si="14">D277+500</f>
         <v>14000</v>
       </c>
       <c r="E287" s="6">
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="F299" s="3">
-        <f t="shared" ref="F299:F301" si="15">F298*4.5</f>
+        <f t="shared" ref="F299:F309" si="15">F298*4.5</f>
         <v>1.4802405846146766E+250</v>
       </c>
       <c r="G299" s="6">
@@ -10806,25 +10806,229 @@
         <v>20340</v>
       </c>
     </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A302" s="6">
+        <v>300</v>
+      </c>
+      <c r="B302" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C302" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D302" s="3">
+        <f t="shared" si="14"/>
+        <v>15000</v>
+      </c>
+      <c r="E302" s="6">
+        <v>1</v>
+      </c>
+      <c r="F302" s="3">
+        <f t="shared" si="15"/>
+        <v>1.348869232730124E+252</v>
+      </c>
+      <c r="G302" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H302" s="6">
+        <v>8</v>
+      </c>
+      <c r="I302" s="6">
+        <v>0</v>
+      </c>
+      <c r="J302" s="6">
+        <v>20400</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A303" s="6">
+        <v>301</v>
+      </c>
+      <c r="B303" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C303" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D303" s="3">
+        <f t="shared" si="14"/>
+        <v>15000</v>
+      </c>
+      <c r="E303" s="6">
+        <v>1</v>
+      </c>
+      <c r="F303" s="3">
+        <f t="shared" si="15"/>
+        <v>6.0699115472855582E+252</v>
+      </c>
+      <c r="G303" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H303" s="6">
+        <v>8</v>
+      </c>
+      <c r="I303" s="6">
+        <v>0</v>
+      </c>
+      <c r="J303" s="6">
+        <v>20460</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A304" s="6">
+        <v>302</v>
+      </c>
+      <c r="B304" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C304" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D304" s="3">
+        <f t="shared" si="14"/>
+        <v>15000</v>
+      </c>
+      <c r="E304" s="6">
+        <v>1</v>
+      </c>
+      <c r="F304" s="3">
+        <f t="shared" si="15"/>
+        <v>2.7314601962785012E+253</v>
+      </c>
+      <c r="G304" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H304" s="6">
+        <v>8</v>
+      </c>
+      <c r="I304" s="6">
+        <v>0</v>
+      </c>
+      <c r="J304" s="6">
+        <v>20520</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A305" s="6">
+        <v>303</v>
+      </c>
+      <c r="B305" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C305" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D305" s="3">
+        <f t="shared" si="14"/>
+        <v>15000</v>
+      </c>
+      <c r="E305" s="6">
+        <v>1</v>
+      </c>
+      <c r="F305" s="3">
+        <f t="shared" si="15"/>
+        <v>1.2291570883253256E+254</v>
+      </c>
+      <c r="G305" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H305" s="6">
+        <v>8</v>
+      </c>
+      <c r="I305" s="6">
+        <v>0</v>
+      </c>
+      <c r="J305" s="6">
+        <v>20580</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A306" s="6">
+        <v>304</v>
+      </c>
+      <c r="B306" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C306" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D306" s="3">
+        <f t="shared" si="14"/>
+        <v>15000</v>
+      </c>
+      <c r="E306" s="6">
+        <v>1</v>
+      </c>
+      <c r="F306" s="3">
+        <f t="shared" si="15"/>
+        <v>5.5312068974639654E+254</v>
+      </c>
+      <c r="G306" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H306" s="6">
+        <v>8</v>
+      </c>
+      <c r="I306" s="6">
+        <v>0</v>
+      </c>
+      <c r="J306" s="6">
+        <v>20640</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A307" s="6">
+        <v>305</v>
+      </c>
+      <c r="B307" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C307" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D307" s="3">
+        <f t="shared" si="14"/>
+        <v>15000</v>
+      </c>
+      <c r="E307" s="6">
+        <v>1</v>
+      </c>
+      <c r="F307" s="3">
+        <f t="shared" si="15"/>
+        <v>2.4890431038587846E+255</v>
+      </c>
+      <c r="G307" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H307" s="6">
+        <v>8</v>
+      </c>
+      <c r="I307" s="6">
+        <v>0</v>
+      </c>
+      <c r="J307" s="6">
+        <v>20700</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J301">
-    <cfRule type="expression" dxfId="3" priority="6">
+  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J307">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>$C3=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:J2 D3:J3">
-    <cfRule type="expression" dxfId="2" priority="65">
+    <cfRule type="expression" dxfId="3" priority="65">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:J16">
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>$C4=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$C31=5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581388A9-1574-479F-9A74-0A8FD5383094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3797BC5-4ECA-415F-9AFC-4022616AFB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable4" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J307"/>
+  <dimension ref="A1:J326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A289" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D302" sqref="D302"/>
+      <pane ySplit="1" topLeftCell="A313" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F319" sqref="F319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10307,7 +10307,7 @@
         <v>9045</v>
       </c>
       <c r="D287" s="3">
-        <f t="shared" ref="D287:D309" si="14">D277+500</f>
+        <f t="shared" ref="D287:D299" si="14">D277+500</f>
         <v>14000</v>
       </c>
       <c r="E287" s="6">
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="F299" s="3">
-        <f t="shared" ref="F299:F309" si="15">F298*4.5</f>
+        <f t="shared" ref="F299" si="15">F298*4.5</f>
         <v>1.4802405846146766E+250</v>
       </c>
       <c r="G299" s="6">
@@ -10749,14 +10749,14 @@
         <v>9045</v>
       </c>
       <c r="D300" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="D300:D307" si="16">D290+500</f>
         <v>14500</v>
       </c>
       <c r="E300" s="6">
         <v>1</v>
       </c>
       <c r="F300" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="F300:F307" si="17">F299*4.5</f>
         <v>6.6610826307660443E+250</v>
       </c>
       <c r="G300" s="6">
@@ -10783,14 +10783,14 @@
         <v>9045</v>
       </c>
       <c r="D301" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>14500</v>
       </c>
       <c r="E301" s="6">
         <v>1</v>
       </c>
       <c r="F301" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.9974871838447201E+251</v>
       </c>
       <c r="G301" s="6">
@@ -10817,14 +10817,14 @@
         <v>9045</v>
       </c>
       <c r="D302" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>15000</v>
       </c>
       <c r="E302" s="6">
         <v>1</v>
       </c>
       <c r="F302" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.348869232730124E+252</v>
       </c>
       <c r="G302" s="6">
@@ -10851,14 +10851,14 @@
         <v>9045</v>
       </c>
       <c r="D303" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>15000</v>
       </c>
       <c r="E303" s="6">
         <v>1</v>
       </c>
       <c r="F303" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.0699115472855582E+252</v>
       </c>
       <c r="G303" s="6">
@@ -10885,14 +10885,14 @@
         <v>9045</v>
       </c>
       <c r="D304" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>15000</v>
       </c>
       <c r="E304" s="6">
         <v>1</v>
       </c>
       <c r="F304" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.7314601962785012E+253</v>
       </c>
       <c r="G304" s="6">
@@ -10919,14 +10919,14 @@
         <v>9045</v>
       </c>
       <c r="D305" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>15000</v>
       </c>
       <c r="E305" s="6">
         <v>1</v>
       </c>
       <c r="F305" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.2291570883253256E+254</v>
       </c>
       <c r="G305" s="6">
@@ -10953,14 +10953,14 @@
         <v>9045</v>
       </c>
       <c r="D306" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>15000</v>
       </c>
       <c r="E306" s="6">
         <v>1</v>
       </c>
       <c r="F306" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.5312068974639654E+254</v>
       </c>
       <c r="G306" s="6">
@@ -10987,14 +10987,14 @@
         <v>9045</v>
       </c>
       <c r="D307" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>15000</v>
       </c>
       <c r="E307" s="6">
         <v>1</v>
       </c>
       <c r="F307" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.4890431038587846E+255</v>
       </c>
       <c r="G307" s="6">
@@ -11010,25 +11010,671 @@
         <v>20700</v>
       </c>
     </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A308" s="6">
+        <v>306</v>
+      </c>
+      <c r="B308" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C308" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D308" s="3">
+        <f t="shared" ref="D308:D326" si="18">D298+500</f>
+        <v>15000</v>
+      </c>
+      <c r="E308" s="6">
+        <v>1</v>
+      </c>
+      <c r="F308" s="3">
+        <f t="shared" ref="F308:F326" si="19">F307*4.5</f>
+        <v>1.120069396736453E+256</v>
+      </c>
+      <c r="G308" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H308" s="6">
+        <v>8</v>
+      </c>
+      <c r="I308" s="6">
+        <v>0</v>
+      </c>
+      <c r="J308" s="6">
+        <v>20760</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A309" s="6">
+        <v>307</v>
+      </c>
+      <c r="B309" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C309" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D309" s="3">
+        <f t="shared" si="18"/>
+        <v>15000</v>
+      </c>
+      <c r="E309" s="6">
+        <v>1</v>
+      </c>
+      <c r="F309" s="3">
+        <f t="shared" si="19"/>
+        <v>5.0403122853140385E+256</v>
+      </c>
+      <c r="G309" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H309" s="6">
+        <v>8</v>
+      </c>
+      <c r="I309" s="6">
+        <v>0</v>
+      </c>
+      <c r="J309" s="6">
+        <v>20820</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A310" s="6">
+        <v>308</v>
+      </c>
+      <c r="B310" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C310" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D310" s="3">
+        <f t="shared" si="18"/>
+        <v>15000</v>
+      </c>
+      <c r="E310" s="6">
+        <v>1</v>
+      </c>
+      <c r="F310" s="3">
+        <f t="shared" si="19"/>
+        <v>2.2681405283913174E+257</v>
+      </c>
+      <c r="G310" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H310" s="6">
+        <v>8</v>
+      </c>
+      <c r="I310" s="6">
+        <v>0</v>
+      </c>
+      <c r="J310" s="6">
+        <v>20880</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A311" s="6">
+        <v>309</v>
+      </c>
+      <c r="B311" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C311" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D311" s="3">
+        <f t="shared" si="18"/>
+        <v>15000</v>
+      </c>
+      <c r="E311" s="6">
+        <v>1</v>
+      </c>
+      <c r="F311" s="3">
+        <f t="shared" si="19"/>
+        <v>1.0206632377760928E+258</v>
+      </c>
+      <c r="G311" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H311" s="6">
+        <v>8</v>
+      </c>
+      <c r="I311" s="6">
+        <v>0</v>
+      </c>
+      <c r="J311" s="6">
+        <v>20940</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A312" s="6">
+        <v>310</v>
+      </c>
+      <c r="B312" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C312" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D312" s="3">
+        <f t="shared" si="18"/>
+        <v>15500</v>
+      </c>
+      <c r="E312" s="6">
+        <v>1</v>
+      </c>
+      <c r="F312" s="3">
+        <f t="shared" si="19"/>
+        <v>4.5929845699924177E+258</v>
+      </c>
+      <c r="G312" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H312" s="6">
+        <v>8</v>
+      </c>
+      <c r="I312" s="6">
+        <v>0</v>
+      </c>
+      <c r="J312" s="6">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A313" s="6">
+        <v>311</v>
+      </c>
+      <c r="B313" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C313" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D313" s="3">
+        <f t="shared" si="18"/>
+        <v>15500</v>
+      </c>
+      <c r="E313" s="6">
+        <v>1</v>
+      </c>
+      <c r="F313" s="3">
+        <f t="shared" si="19"/>
+        <v>2.0668430564965879E+259</v>
+      </c>
+      <c r="G313" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H313" s="6">
+        <v>8</v>
+      </c>
+      <c r="I313" s="6">
+        <v>0</v>
+      </c>
+      <c r="J313" s="6">
+        <v>21060</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A314" s="6">
+        <v>312</v>
+      </c>
+      <c r="B314" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C314" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D314" s="3">
+        <f t="shared" si="18"/>
+        <v>15500</v>
+      </c>
+      <c r="E314" s="6">
+        <v>1</v>
+      </c>
+      <c r="F314" s="3">
+        <f t="shared" si="19"/>
+        <v>9.3007937542346453E+259</v>
+      </c>
+      <c r="G314" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H314" s="6">
+        <v>8</v>
+      </c>
+      <c r="I314" s="6">
+        <v>0</v>
+      </c>
+      <c r="J314" s="6">
+        <v>21120</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A315" s="6">
+        <v>313</v>
+      </c>
+      <c r="B315" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C315" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D315" s="3">
+        <f t="shared" si="18"/>
+        <v>15500</v>
+      </c>
+      <c r="E315" s="6">
+        <v>1</v>
+      </c>
+      <c r="F315" s="3">
+        <f t="shared" si="19"/>
+        <v>4.1853571894055906E+260</v>
+      </c>
+      <c r="G315" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H315" s="6">
+        <v>8</v>
+      </c>
+      <c r="I315" s="6">
+        <v>0</v>
+      </c>
+      <c r="J315" s="6">
+        <v>21180</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A316" s="6">
+        <v>314</v>
+      </c>
+      <c r="B316" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C316" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D316" s="3">
+        <f t="shared" si="18"/>
+        <v>15500</v>
+      </c>
+      <c r="E316" s="6">
+        <v>1</v>
+      </c>
+      <c r="F316" s="3">
+        <f t="shared" si="19"/>
+        <v>1.8834107352325157E+261</v>
+      </c>
+      <c r="G316" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H316" s="6">
+        <v>8</v>
+      </c>
+      <c r="I316" s="6">
+        <v>0</v>
+      </c>
+      <c r="J316" s="6">
+        <v>21240</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A317" s="6">
+        <v>315</v>
+      </c>
+      <c r="B317" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C317" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D317" s="3">
+        <f t="shared" si="18"/>
+        <v>15500</v>
+      </c>
+      <c r="E317" s="6">
+        <v>1</v>
+      </c>
+      <c r="F317" s="3">
+        <f t="shared" si="19"/>
+        <v>8.4753483085463208E+261</v>
+      </c>
+      <c r="G317" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H317" s="6">
+        <v>8</v>
+      </c>
+      <c r="I317" s="6">
+        <v>0</v>
+      </c>
+      <c r="J317" s="6">
+        <v>21300</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A318" s="6">
+        <v>316</v>
+      </c>
+      <c r="B318" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C318" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D318" s="3">
+        <f t="shared" si="18"/>
+        <v>15500</v>
+      </c>
+      <c r="E318" s="6">
+        <v>1</v>
+      </c>
+      <c r="F318" s="3">
+        <f t="shared" si="19"/>
+        <v>3.8139067388458444E+262</v>
+      </c>
+      <c r="G318" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H318" s="6">
+        <v>8</v>
+      </c>
+      <c r="I318" s="6">
+        <v>0</v>
+      </c>
+      <c r="J318" s="6">
+        <v>21360</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A319" s="6">
+        <v>317</v>
+      </c>
+      <c r="B319" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C319" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D319" s="3">
+        <f t="shared" si="18"/>
+        <v>15500</v>
+      </c>
+      <c r="E319" s="6">
+        <v>1</v>
+      </c>
+      <c r="F319" s="3">
+        <f t="shared" si="19"/>
+        <v>1.71625803248063E+263</v>
+      </c>
+      <c r="G319" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H319" s="6">
+        <v>8</v>
+      </c>
+      <c r="I319" s="6">
+        <v>0</v>
+      </c>
+      <c r="J319" s="6">
+        <v>21420</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A320" s="6">
+        <v>318</v>
+      </c>
+      <c r="B320" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C320" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D320" s="3">
+        <f t="shared" si="18"/>
+        <v>15500</v>
+      </c>
+      <c r="E320" s="6">
+        <v>1</v>
+      </c>
+      <c r="F320" s="3">
+        <f t="shared" si="19"/>
+        <v>7.723161146162835E+263</v>
+      </c>
+      <c r="G320" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H320" s="6">
+        <v>8</v>
+      </c>
+      <c r="I320" s="6">
+        <v>0</v>
+      </c>
+      <c r="J320" s="6">
+        <v>21480</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A321" s="6">
+        <v>319</v>
+      </c>
+      <c r="B321" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C321" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D321" s="3">
+        <f t="shared" si="18"/>
+        <v>15500</v>
+      </c>
+      <c r="E321" s="6">
+        <v>1</v>
+      </c>
+      <c r="F321" s="3">
+        <f t="shared" si="19"/>
+        <v>3.4754225157732758E+264</v>
+      </c>
+      <c r="G321" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H321" s="6">
+        <v>8</v>
+      </c>
+      <c r="I321" s="6">
+        <v>0</v>
+      </c>
+      <c r="J321" s="6">
+        <v>21540</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A322" s="6">
+        <v>320</v>
+      </c>
+      <c r="B322" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C322" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D322" s="3">
+        <f t="shared" si="18"/>
+        <v>16000</v>
+      </c>
+      <c r="E322" s="6">
+        <v>1</v>
+      </c>
+      <c r="F322" s="3">
+        <f t="shared" si="19"/>
+        <v>1.5639401320979742E+265</v>
+      </c>
+      <c r="G322" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H322" s="6">
+        <v>8</v>
+      </c>
+      <c r="I322" s="6">
+        <v>0</v>
+      </c>
+      <c r="J322" s="6">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A323" s="6">
+        <v>321</v>
+      </c>
+      <c r="B323" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C323" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D323" s="3">
+        <f t="shared" si="18"/>
+        <v>16000</v>
+      </c>
+      <c r="E323" s="6">
+        <v>1</v>
+      </c>
+      <c r="F323" s="3">
+        <f t="shared" si="19"/>
+        <v>7.0377305944408843E+265</v>
+      </c>
+      <c r="G323" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H323" s="6">
+        <v>8</v>
+      </c>
+      <c r="I323" s="6">
+        <v>0</v>
+      </c>
+      <c r="J323" s="6">
+        <v>21660</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A324" s="6">
+        <v>322</v>
+      </c>
+      <c r="B324" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C324" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D324" s="3">
+        <f t="shared" si="18"/>
+        <v>16000</v>
+      </c>
+      <c r="E324" s="6">
+        <v>1</v>
+      </c>
+      <c r="F324" s="3">
+        <f t="shared" si="19"/>
+        <v>3.1669787674983981E+266</v>
+      </c>
+      <c r="G324" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H324" s="6">
+        <v>8</v>
+      </c>
+      <c r="I324" s="6">
+        <v>0</v>
+      </c>
+      <c r="J324" s="6">
+        <v>21720</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A325" s="6">
+        <v>323</v>
+      </c>
+      <c r="B325" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C325" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D325" s="3">
+        <f t="shared" si="18"/>
+        <v>16000</v>
+      </c>
+      <c r="E325" s="6">
+        <v>1</v>
+      </c>
+      <c r="F325" s="3">
+        <f t="shared" si="19"/>
+        <v>1.4251404453742791E+267</v>
+      </c>
+      <c r="G325" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H325" s="6">
+        <v>8</v>
+      </c>
+      <c r="I325" s="6">
+        <v>0</v>
+      </c>
+      <c r="J325" s="6">
+        <v>21780</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A326" s="6">
+        <v>324</v>
+      </c>
+      <c r="B326" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C326" s="3">
+        <v>9045</v>
+      </c>
+      <c r="D326" s="3">
+        <f t="shared" si="18"/>
+        <v>16000</v>
+      </c>
+      <c r="E326" s="6">
+        <v>1</v>
+      </c>
+      <c r="F326" s="3">
+        <f t="shared" si="19"/>
+        <v>6.4131320041842554E+267</v>
+      </c>
+      <c r="G326" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H326" s="6">
+        <v>8</v>
+      </c>
+      <c r="I326" s="6">
+        <v>0</v>
+      </c>
+      <c r="J326" s="6">
+        <v>21840</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J307">
-    <cfRule type="expression" dxfId="0" priority="6">
+  <conditionalFormatting sqref="A3:C148 D4:D148 E17:E78 G17:J78 F22:F78 E79:J148 A149:J326">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>$C3=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:J2 D3:J3">
-    <cfRule type="expression" dxfId="3" priority="65">
+    <cfRule type="expression" dxfId="2" priority="65">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:J16">
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>$C4=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$C31=5</formula>
     </cfRule>
   </conditionalFormatting>
